--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -215,12 +215,6 @@
     <t>Design register/login/logout page</t>
   </si>
   <si>
-    <t>Design Authentication Usecase</t>
-  </si>
-  <si>
-    <t>Design Authentication ERD</t>
-  </si>
-  <si>
     <t>Design dashboard page</t>
   </si>
   <si>
@@ -231,6 +225,12 @@
   </si>
   <si>
     <t>Person in charge</t>
+  </si>
+  <si>
+    <t>Design authentication ERD</t>
+  </si>
+  <si>
+    <t>Design authentication Usecase</t>
   </si>
 </sst>
 </file>
@@ -357,39 +357,39 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,9 +699,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -724,7 +722,7 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -735,7 +733,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -752,13 +750,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -769,11 +767,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -782,11 +780,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -795,10 +793,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -810,13 +808,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -827,11 +825,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -840,7 +838,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -857,13 +855,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -874,11 +872,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -887,11 +885,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -900,13 +898,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -917,11 +915,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -930,11 +928,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -943,11 +941,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -956,13 +954,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -973,11 +971,11 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -986,13 +984,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1003,11 +1001,11 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1017,18 +1015,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1039,166 +1037,166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="7" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="6" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="15">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>4</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>5</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>6</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="15">
+      <c r="G10" s="10">
         <v>10</v>
       </c>
     </row>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -699,7 +699,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -231,6 +231,27 @@
   </si>
   <si>
     <t>Design authentication Usecase</t>
+  </si>
+  <si>
+    <t>DuyPK</t>
+  </si>
+  <si>
+    <t>TuanLD</t>
+  </si>
+  <si>
+    <t>ThinhLT</t>
+  </si>
+  <si>
+    <t>Login/register are show as a pop-up, support identity identifier (facebook, google)</t>
+  </si>
+  <si>
+    <t>Using bootstrap, Jquery to create a responsive page. Flat design</t>
+  </si>
+  <si>
+    <t>ThangPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Microsoft Visio/StarUML, UML 2.0 </t>
   </si>
 </sst>
 </file>
@@ -286,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -335,11 +356,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -391,6 +438,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,7 +755,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1038,7 +1096,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,32 +1156,40 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="F5" s="10" t="s">
         <v>68</v>
       </c>
       <c r="G5" s="10">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="10" t="s">
         <v>68</v>
@@ -1132,15 +1198,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="10" t="s">
         <v>68</v>
@@ -1157,7 +1225,9 @@
         <v>67</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="E8" s="13"/>
       <c r="F8" s="10" t="s">
         <v>68</v>
@@ -1173,8 +1243,12 @@
       <c r="B9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="E9" s="13"/>
       <c r="F9" s="10" t="s">
         <v>68</v>
@@ -1190,8 +1264,10 @@
       <c r="B10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="10" t="s">
         <v>68</v>
@@ -1201,7 +1277,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -1210,7 +1286,9 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Satus</t>
-  </si>
-  <si>
     <t>Estimate</t>
   </si>
   <si>
@@ -227,12 +224,6 @@
     <t>Person in charge</t>
   </si>
   <si>
-    <t>Design authentication ERD</t>
-  </si>
-  <si>
-    <t>Design authentication Usecase</t>
-  </si>
-  <si>
     <t>DuyPK</t>
   </si>
   <si>
@@ -251,7 +242,40 @@
     <t>ThangPV</t>
   </si>
   <si>
-    <t xml:space="preserve">Using Microsoft Visio/StarUML, UML 2.0 </t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Design ERD</t>
+  </si>
+  <si>
+    <t>Design Usecase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Microsoft Visio/StarUML (UML 2.0) </t>
+  </si>
+  <si>
+    <t>In Process</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t>Day 7</t>
   </si>
 </sst>
 </file>
@@ -418,6 +442,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -438,9 +465,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -755,7 +779,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -811,10 +835,10 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -828,8 +852,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -841,8 +865,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -854,7 +878,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -869,10 +893,10 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -886,8 +910,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -916,10 +940,10 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -933,8 +957,8 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -946,8 +970,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -959,10 +983,10 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -976,8 +1000,8 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -989,8 +1013,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1002,8 +1026,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1015,10 +1039,10 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1032,8 +1056,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1045,10 +1069,10 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1062,8 +1086,8 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1093,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,31 +1135,31 @@
     <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1145,136 +1169,223 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="18"/>
       <c r="F4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="14"/>
       <c r="F5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="14"/>
       <c r="F6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="14"/>
       <c r="F7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="G8" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="14"/>
       <c r="F9" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="10" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G10" s="10">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -9,13 +9,17 @@
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Refrence" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="StatusList">Refrence!$A$1:$A$4</definedName>
+  </definedNames>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -276,6 +280,12 @@
   </si>
   <si>
     <t>Day 7</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -286,7 +296,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -532,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,7 +577,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -783,18 +793,18 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="52.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="38.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="52.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -814,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -831,7 +841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -848,7 +858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -861,7 +871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -874,7 +884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -889,7 +899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -906,7 +916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -919,7 +929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -936,7 +946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -953,7 +963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -966,7 +976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -979,7 +989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -996,7 +1006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1009,7 +1019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1022,7 +1032,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1035,7 +1045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1052,7 +1062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1065,7 +1075,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1082,7 +1092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1097,18 +1107,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1119,23 +1129,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="6" customWidth="1"/>
     <col min="7" max="7" width="18" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="8" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>58</v>
       </c>
@@ -1148,7 +1158,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1159,7 +1169,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1201,7 +1211,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1233,7 +1243,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1265,7 +1275,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -1295,7 +1305,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -1325,7 +1335,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -1357,7 +1367,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -1399,7 +1409,47 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C9:C10"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F10">
+      <formula1>StatusList</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -296,7 +296,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -542,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,7 +577,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -793,18 +793,18 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="52.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="3"/>
+    <col min="4" max="4" width="38.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="52.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -824,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -841,7 +841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -858,7 +858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -871,7 +871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -884,7 +884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -899,7 +899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -916,7 +916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -929,7 +929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -946,7 +946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -963,7 +963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -976,7 +976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -989,7 +989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1107,18 +1107,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1130,22 +1130,22 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="18" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="6"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>58</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1169,7 +1169,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>67</v>
       </c>
       <c r="G5" s="10">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" s="10">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -1424,27 +1424,30 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -240,9 +240,6 @@
     <t>Login/register are show as a pop-up, support identity identifier (facebook, google)</t>
   </si>
   <si>
-    <t>Using bootstrap, Jquery to create a responsive page. Flat design</t>
-  </si>
-  <si>
     <t>ThangPV</t>
   </si>
   <si>
@@ -285,7 +282,34 @@
     <t>Approved</t>
   </si>
   <si>
-    <t>Rejected</t>
+    <t>Using bootstrap, Jquery to create a responsive page, flat design</t>
+  </si>
+  <si>
+    <t>Design Systems Architect</t>
+  </si>
+  <si>
+    <t>Design Physical Database</t>
+  </si>
+  <si>
+    <t>Report 2:</t>
+  </si>
+  <si>
+    <t>1- Project definition</t>
+  </si>
+  <si>
+    <t>2- Project oganization</t>
+  </si>
+  <si>
+    <t>3- Project management plan</t>
+  </si>
+  <si>
+    <t>4- Coding convention</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Report review</t>
   </si>
 </sst>
 </file>
@@ -341,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -416,11 +440,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -480,6 +535,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,8 +862,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,18 +1180,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1127,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1214,7 @@
     <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="6" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -1184,31 +1257,31 @@
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1219,7 +1292,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>69</v>
@@ -1340,10 +1413,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>71</v>
@@ -1353,7 +1426,7 @@
         <v>67</v>
       </c>
       <c r="G9" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H9" s="10">
         <v>0</v>
@@ -1372,24 +1445,24 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="10" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G10" s="10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H10" s="10">
         <v>0</v>
       </c>
       <c r="I10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -1397,8 +1470,237 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>9</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4</v>
+      </c>
+      <c r="H14" s="10">
+        <v>3</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="10">
+        <v>4</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
+      <c r="I15" s="10">
+        <v>2</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="10">
+        <v>4</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="18">
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -1410,7 +1712,7 @@
     <mergeCell ref="C9:C10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F18">
       <formula1>StatusList</formula1>
     </dataValidation>
   </dataValidations>
@@ -1424,7 +1726,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,17 +1741,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -510,6 +510,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -519,6 +528,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,24 +553,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,10 +918,10 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -935,8 +935,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -948,8 +948,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -976,10 +976,10 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -993,8 +993,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1023,10 +1023,10 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1040,8 +1040,8 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1053,8 +1053,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1066,10 +1066,10 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1083,8 +1083,8 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1096,8 +1096,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1109,8 +1109,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1122,10 +1122,10 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1139,8 +1139,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1152,10 +1152,10 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1169,8 +1169,8 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1180,18 +1180,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,11 +1219,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1232,9 +1232,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1252,10 +1252,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="9" t="s">
         <v>74</v>
       </c>
@@ -1294,12 +1294,12 @@
       <c r="C5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="10" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G5" s="10">
         <v>20</v>
@@ -1326,10 +1326,10 @@
       <c r="C6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="10" t="s">
         <v>67</v>
       </c>
@@ -1356,12 +1356,12 @@
         <v>65</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G7" s="10">
         <v>10</v>
@@ -1386,10 +1386,10 @@
         <v>66</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
         <v>67</v>
       </c>
@@ -1415,15 +1415,15 @@
       <c r="B9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="10" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G9" s="10">
         <v>10</v>
@@ -1447,13 +1447,13 @@
       <c r="B10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="10" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G10" s="10">
         <v>20</v>
@@ -1478,10 +1478,10 @@
         <v>88</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="10" t="s">
         <v>67</v>
       </c>
@@ -1508,10 +1508,10 @@
         <v>89</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
         <v>67</v>
       </c>
@@ -1531,15 +1531,15 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="18">
         <v>9</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1551,15 +1551,15 @@
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="10" t="s">
         <v>95</v>
       </c>
@@ -1579,15 +1579,15 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="13" t="s">
         <v>92</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="10" t="s">
         <v>95</v>
       </c>
@@ -1607,15 +1607,15 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="13" t="s">
         <v>93</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="10" t="s">
         <v>95</v>
       </c>
@@ -1635,15 +1635,15 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="13" t="s">
         <v>94</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="10" t="s">
         <v>95</v>
       </c>
@@ -1663,15 +1663,15 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="10" t="s">
         <v>95</v>
       </c>
@@ -1692,6 +1692,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="D11:E11"/>
@@ -1701,15 +1710,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F18">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -320,7 +320,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -528,6 +528,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -536,24 +554,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,7 +615,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,7 +650,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -866,18 +866,18 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="52.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="38.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="52.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -897,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -914,7 +914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -931,7 +931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -944,7 +944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -957,7 +957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -972,7 +972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -989,7 +989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1180,18 +1180,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1202,28 +1202,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1231,10 +1231,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1252,10 +1252,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="9" t="s">
         <v>74</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1348,7 +1348,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -1408,14 +1408,14 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -1434,20 +1434,22 @@
       <c r="I9" s="10">
         <v>0</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="10">
+        <v>2</v>
+      </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="16" t="s">
         <v>73</v>
       </c>
@@ -1470,7 +1472,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -1500,7 +1502,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -1530,8 +1532,8 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="24">
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -1550,8 +1552,8 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
       <c r="B14" s="13" t="s">
         <v>91</v>
       </c>
@@ -1578,8 +1580,8 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
       <c r="B15" s="13" t="s">
         <v>92</v>
       </c>
@@ -1606,8 +1608,8 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
       <c r="B16" s="13" t="s">
         <v>93</v>
       </c>
@@ -1634,8 +1636,8 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
       <c r="B17" s="13" t="s">
         <v>94</v>
       </c>
@@ -1662,8 +1664,8 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
       <c r="B18" s="14" t="s">
         <v>96</v>
       </c>
@@ -1692,6 +1694,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -1701,15 +1712,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F18">
@@ -1729,27 +1731,27 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>95</v>
       </c>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -320,7 +320,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -528,6 +528,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,15 +554,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,7 +615,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,7 +650,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -866,18 +866,18 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="52.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="3"/>
+    <col min="4" max="4" width="38.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="52.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -897,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -914,7 +914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -931,7 +931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -944,7 +944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -957,7 +957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -972,7 +972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -989,7 +989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1180,18 +1180,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1202,28 +1202,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="6"/>
+    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1231,10 +1231,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1252,10 +1252,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="9" t="s">
         <v>74</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1348,7 +1348,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -1408,14 +1408,14 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="25" t="s">
         <v>77</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -1442,14 +1442,14 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="16" t="s">
         <v>73</v>
       </c>
@@ -1466,13 +1466,15 @@
       <c r="I10" s="10">
         <v>0</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="10">
+        <v>4</v>
+      </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -1502,7 +1504,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -1532,8 +1534,8 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -1552,8 +1554,8 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
       <c r="B14" s="13" t="s">
         <v>91</v>
       </c>
@@ -1580,8 +1582,8 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
       <c r="B15" s="13" t="s">
         <v>92</v>
       </c>
@@ -1608,8 +1610,8 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
       <c r="B16" s="13" t="s">
         <v>93</v>
       </c>
@@ -1636,8 +1638,8 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
       <c r="B17" s="13" t="s">
         <v>94</v>
       </c>
@@ -1664,8 +1666,8 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
       <c r="B18" s="14" t="s">
         <v>96</v>
       </c>
@@ -1694,6 +1696,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="D11:E11"/>
@@ -1703,15 +1714,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F18">
@@ -1731,27 +1733,27 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -528,6 +528,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -536,24 +554,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,7 +862,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1180,18 +1180,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,11 +1219,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1232,9 +1232,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1252,10 +1252,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="9" t="s">
         <v>74</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="B9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -1449,7 +1449,7 @@
       <c r="B10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="16" t="s">
         <v>73</v>
       </c>
@@ -1535,7 +1535,7 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="24">
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -1555,7 +1555,7 @@
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="13" t="s">
         <v>91</v>
       </c>
@@ -1583,7 +1583,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="13" t="s">
         <v>92</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="13" t="s">
         <v>93</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="13" t="s">
         <v>94</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="14" t="s">
         <v>96</v>
       </c>
@@ -1696,6 +1696,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -1705,15 +1714,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F18">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Design register/login/logout page</t>
   </si>
   <si>
-    <t>Design dashboard page</t>
-  </si>
-  <si>
     <t>Design site buider page</t>
   </si>
   <si>
@@ -310,6 +307,12 @@
   </si>
   <si>
     <t>Report review</t>
+  </si>
+  <si>
+    <t>Design Admin dashboard page</t>
+  </si>
+  <si>
+    <t>Design user dashboard page</t>
   </si>
 </sst>
 </file>
@@ -528,6 +531,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,15 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,7 +618,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,7 +653,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1180,18 +1183,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1200,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,11 +1222,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1232,9 +1235,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1252,36 +1255,36 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="21"/>
+      <c r="D4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="24"/>
       <c r="F4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1292,14 +1295,14 @@
         <v>63</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="10">
         <v>20</v>
@@ -1324,14 +1327,14 @@
         <v>64</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="10">
         <v>2</v>
@@ -1353,45 +1356,41 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G7" s="10">
         <v>10</v>
       </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G8" s="10">
         <v>10</v>
@@ -1413,17 +1412,15 @@
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>77</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="10" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G9" s="10">
         <v>10</v>
@@ -1434,9 +1431,7 @@
       <c r="I9" s="10">
         <v>0</v>
       </c>
-      <c r="J9" s="10">
-        <v>2</v>
-      </c>
+      <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -1447,18 +1442,20 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="23"/>
       <c r="D10" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H10" s="10">
         <v>0</v>
@@ -1467,30 +1464,30 @@
         <v>0</v>
       </c>
       <c r="J10" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="C11" s="26"/>
       <c r="D11" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G11" s="10">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
@@ -1498,7 +1495,9 @@
       <c r="I11" s="10">
         <v>0</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="10">
+        <v>4</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -1509,15 +1508,15 @@
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="10">
         <v>2</v>
@@ -1535,19 +1534,29 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="10">
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>90</v>
+      <c r="B13" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -1555,27 +1564,19 @@
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="13" t="s">
-        <v>91</v>
+      <c r="A14" s="18">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="16" t="s">
-        <v>70</v>
-      </c>
+      <c r="D14" s="16"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="10">
-        <v>4</v>
-      </c>
-      <c r="H14" s="10">
-        <v>3</v>
-      </c>
-      <c r="I14" s="10">
-        <v>1</v>
-      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -1583,9 +1584,9 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="16" t="s">
@@ -1593,16 +1594,16 @@
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="10">
         <v>4</v>
       </c>
       <c r="H15" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -1611,17 +1612,17 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" s="10">
         <v>4</v>
@@ -1639,26 +1640,26 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H17" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -1667,26 +1668,26 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="14" t="s">
-        <v>96</v>
+      <c r="A18" s="19"/>
+      <c r="B18" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="10">
         <v>0</v>
       </c>
       <c r="I18" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -1694,29 +1695,58 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
     </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="10">
+        <v>2</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>2</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A13:A18"/>
+  <mergeCells count="19">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
       <formula1>StatusList</formula1>
     </dataValidation>
   </dataValidations>
@@ -1740,22 +1770,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -531,6 +531,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -539,24 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,18 +1183,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,11 +1222,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1235,9 +1235,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1255,10 +1255,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="9" t="s">
         <v>73</v>
       </c>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G8" s="10">
         <v>10</v>
@@ -1399,9 +1399,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="10">
+        <v>4</v>
+      </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -1420,7 +1422,7 @@
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="10" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G9" s="10">
         <v>10</v>
@@ -1431,7 +1433,9 @@
       <c r="I9" s="10">
         <v>0</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -1444,7 +1448,7 @@
       <c r="B10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="22" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -1478,7 +1482,7 @@
       <c r="B11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="16" t="s">
         <v>72</v>
       </c>
@@ -1564,7 +1568,7 @@
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="24">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1584,7 +1588,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="13" t="s">
         <v>90</v>
       </c>
@@ -1612,7 +1616,7 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="13" t="s">
         <v>91</v>
       </c>
@@ -1640,7 +1644,7 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="13" t="s">
         <v>92</v>
       </c>
@@ -1668,7 +1672,7 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="13" t="s">
         <v>93</v>
       </c>
@@ -1696,7 +1700,7 @@
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="14" t="s">
         <v>95</v>
       </c>
@@ -1725,6 +1729,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -1735,15 +1748,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -531,6 +531,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,15 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,18 +1183,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,11 +1222,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1235,9 +1235,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1255,10 +1255,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="9" t="s">
         <v>73</v>
       </c>
@@ -1436,7 +1436,9 @@
       <c r="J9" s="10">
         <v>1</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="10">
+        <v>3</v>
+      </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -1448,7 +1450,7 @@
       <c r="B10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="25" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -1482,7 +1484,7 @@
       <c r="B11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="16" t="s">
         <v>72</v>
       </c>
@@ -1568,7 +1570,7 @@
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="18">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1588,7 +1590,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="13" t="s">
         <v>90</v>
       </c>
@@ -1616,7 +1618,7 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="13" t="s">
         <v>91</v>
       </c>
@@ -1644,7 +1646,7 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="13" t="s">
         <v>92</v>
       </c>
@@ -1672,7 +1674,7 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="13" t="s">
         <v>93</v>
       </c>
@@ -1700,7 +1702,7 @@
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="14" t="s">
         <v>95</v>
       </c>
@@ -1729,15 +1731,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -1748,6 +1741,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -531,6 +531,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -539,24 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,18 +1183,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,11 +1222,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1235,9 +1235,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1255,10 +1255,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="9" t="s">
         <v>73</v>
       </c>
@@ -1302,10 +1302,10 @@
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="10" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G5" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H5" s="10">
         <v>0</v>
@@ -1334,10 +1334,10 @@
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="10" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G6" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" s="10">
         <v>0</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G7" s="10">
         <v>10</v>
@@ -1450,7 +1450,7 @@
       <c r="B10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="22" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -1484,7 +1484,7 @@
       <c r="B11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="16" t="s">
         <v>72</v>
       </c>
@@ -1570,7 +1570,7 @@
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="24">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1590,7 +1590,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="13" t="s">
         <v>90</v>
       </c>
@@ -1618,7 +1618,7 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="13" t="s">
         <v>91</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="13" t="s">
         <v>92</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="13" t="s">
         <v>93</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="14" t="s">
         <v>95</v>
       </c>
@@ -1731,6 +1731,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -1741,15 +1750,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -531,6 +531,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,15 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,18 +1183,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,11 +1222,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1235,9 +1235,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1255,10 +1255,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="9" t="s">
         <v>73</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="10" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G9" s="10">
         <v>10</v>
@@ -1439,8 +1439,12 @@
       <c r="K9" s="10">
         <v>3</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="L9" s="10">
+        <v>2</v>
+      </c>
+      <c r="M9" s="10">
+        <v>2</v>
+      </c>
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1450,7 +1454,7 @@
       <c r="B10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="25" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -1484,7 +1488,7 @@
       <c r="B11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="16" t="s">
         <v>72</v>
       </c>
@@ -1522,7 +1526,7 @@
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G12" s="10">
         <v>2</v>
@@ -1570,7 +1574,7 @@
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="18">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1590,7 +1594,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="13" t="s">
         <v>90</v>
       </c>
@@ -1618,7 +1622,7 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="13" t="s">
         <v>91</v>
       </c>
@@ -1646,7 +1650,7 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="13" t="s">
         <v>92</v>
       </c>
@@ -1674,7 +1678,7 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="13" t="s">
         <v>93</v>
       </c>
@@ -1702,7 +1706,7 @@
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="14" t="s">
         <v>95</v>
       </c>
@@ -1731,15 +1735,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -1750,6 +1745,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Refrence" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 2" sheetId="4" r:id="rId3"/>
+    <sheet name="Refrence" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="StatusList">Refrence!$A$1:$A$4</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -313,6 +315,42 @@
   </si>
   <si>
     <t>Design user dashboard page</t>
+  </si>
+  <si>
+    <t>27/01/2015</t>
+  </si>
+  <si>
+    <t>4. Conceptual Diagram</t>
+  </si>
+  <si>
+    <t>Report 3: SRS</t>
+  </si>
+  <si>
+    <t>1. User Requirement Specification</t>
+  </si>
+  <si>
+    <t>2. System Requirement Specification</t>
+  </si>
+  <si>
+    <t>2.1 External Interface Requirement</t>
+  </si>
+  <si>
+    <t>2.2 System Overview Use Case</t>
+  </si>
+  <si>
+    <t>3. Software System Attribute</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Code authentication</t>
+  </si>
+  <si>
+    <t>base on "Design Physical Database" develop authentication by using code first appoarch</t>
+  </si>
+  <si>
+    <t>Code register</t>
   </si>
 </sst>
 </file>
@@ -368,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -474,11 +512,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -557,6 +646,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,7 +737,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -653,7 +772,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -865,8 +984,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,7 +1613,7 @@
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="10" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G11" s="10">
         <v>20</v>
@@ -1506,12 +1625,20 @@
         <v>0</v>
       </c>
       <c r="J11" s="10">
-        <v>4</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="K11" s="10">
+        <v>2</v>
+      </c>
+      <c r="L11" s="10">
+        <v>3</v>
+      </c>
+      <c r="M11" s="10">
+        <v>5</v>
+      </c>
+      <c r="N11" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -1767,6 +1894,332 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="A5:A11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F6 F9:F11">
+      <formula1>StatusList</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,11 @@
     <definedName name="StatusList">Refrence!$A$1:$A$4</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
   <si>
     <t>Name</t>
   </si>
@@ -347,10 +346,43 @@
     <t>Code authentication</t>
   </si>
   <si>
-    <t>base on "Design Physical Database" develop authentication by using code first appoarch</t>
-  </si>
-  <si>
     <t>Code register</t>
+  </si>
+  <si>
+    <t>Continue sprint 1, design usecase</t>
+  </si>
+  <si>
+    <t>Update design</t>
+  </si>
+  <si>
+    <t>ThinhLT, ThangPV, TuanLD, DuyPK</t>
+  </si>
+  <si>
+    <t>Update completed design in sprint 1 after reviewed by instructor</t>
+  </si>
+  <si>
+    <t>Create, configure database server</t>
+  </si>
+  <si>
+    <t>Create database by code first appoach using entity framwork 6</t>
+  </si>
+  <si>
+    <t>Research drag and drop JavaScript library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review </t>
+  </si>
+  <si>
+    <t>Research MCV .NET</t>
+  </si>
+  <si>
+    <t>ThangPV, ThinhLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view and update usecase if necessary, include authorization by user role </t>
+  </si>
+  <si>
+    <t>view and update usecase if necessary</t>
   </si>
 </sst>
 </file>
@@ -567,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -611,6 +643,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -620,6 +661,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -629,22 +688,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -665,17 +709,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,8 +1043,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,10 +1099,10 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1057,8 +1116,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1070,8 +1129,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1083,7 +1142,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1098,10 +1157,10 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1115,8 +1174,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1145,10 +1204,10 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1162,8 +1221,8 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1175,8 +1234,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1188,10 +1247,10 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1205,8 +1264,8 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1218,8 +1277,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1231,8 +1290,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1244,10 +1303,10 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1261,8 +1320,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1274,10 +1333,10 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1291,8 +1350,8 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1302,18 +1361,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1324,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,10 +1475,10 @@
       <c r="C5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="10" t="s">
         <v>94</v>
       </c>
@@ -1432,11 +1491,21 @@
       <c r="I5" s="10">
         <v>0</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>5</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -1448,10 +1517,10 @@
       <c r="C6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="10" t="s">
         <v>94</v>
       </c>
@@ -1464,11 +1533,21 @@
       <c r="I6" s="10">
         <v>0</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -1478,18 +1557,22 @@
         <v>97</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G7" s="10">
         <v>10</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -1504,10 +1587,10 @@
         <v>96</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="10" t="s">
         <v>94</v>
       </c>
@@ -1536,10 +1619,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="10" t="s">
         <v>94</v>
       </c>
@@ -1564,7 +1647,9 @@
       <c r="M9" s="10">
         <v>2</v>
       </c>
-      <c r="N9" s="10"/>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -1576,12 +1661,12 @@
       <c r="C10" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="10" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G10" s="10">
         <v>10</v>
@@ -1595,10 +1680,18 @@
       <c r="J10" s="10">
         <v>2</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="K10" s="10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="10">
+        <v>2</v>
+      </c>
+      <c r="M10" s="10">
+        <v>2</v>
+      </c>
+      <c r="N10" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
@@ -1608,10 +1701,10 @@
         <v>75</v>
       </c>
       <c r="C11" s="26"/>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="10" t="s">
         <v>94</v>
       </c>
@@ -1648,10 +1741,10 @@
         <v>87</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="10" t="s">
         <v>77</v>
       </c>
@@ -1678,12 +1771,12 @@
         <v>88</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="10" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
@@ -1694,22 +1787,32 @@
       <c r="I13" s="10">
         <v>0</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>2</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="27">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1721,15 +1824,15 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="10" t="s">
         <v>94</v>
       </c>
@@ -1742,22 +1845,32 @@
       <c r="I15" s="10">
         <v>1</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="10" t="s">
         <v>94</v>
       </c>
@@ -1770,22 +1883,32 @@
       <c r="I16" s="10">
         <v>2</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="13" t="s">
         <v>92</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="10" t="s">
         <v>94</v>
       </c>
@@ -1798,22 +1921,32 @@
       <c r="I17" s="10">
         <v>2</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="13" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="10" t="s">
         <v>94</v>
       </c>
@@ -1826,22 +1959,32 @@
       <c r="I18" s="10">
         <v>1</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="J18" s="10">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="14" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="10" t="s">
         <v>94</v>
       </c>
@@ -1854,14 +1997,33 @@
       <c r="I19" s="10">
         <v>2</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -1872,15 +2034,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -1894,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,7 +2061,7 @@
     <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -1953,7 +2106,7 @@
       <c r="F4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="40" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -1979,17 +2132,17 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="27">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1999,19 +2152,21 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="42">
+        <v>4</v>
+      </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -2021,15 +2176,15 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="10"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -2039,15 +2194,15 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -2057,19 +2212,23 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="10"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="10">
+        <v>10</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -2079,17 +2238,21 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="34" t="s">
+      <c r="D10" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="42">
+        <v>4</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -2099,17 +2262,17 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="34" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -2118,20 +2281,22 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>2</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="45">
+        <v>2</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -2140,18 +2305,26 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>3</v>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+        <v>110</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="10">
+        <v>8</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -2160,14 +2333,24 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="D14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -2177,13 +2360,23 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="16">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="D15" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="10">
+        <v>4</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -2192,24 +2385,129 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="10">
+        <v>5</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="10">
+        <v>5</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="F6:F8"/>
+  <mergeCells count="18">
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="D10:E11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E8"/>
-    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F6 F9:F11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F6 F9:F19">
       <formula1>StatusList</formula1>
     </dataValidation>
   </dataValidations>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>view and update usecase if necessary</t>
+  </si>
+  <si>
+    <t>Not complete in sprint 1</t>
   </si>
 </sst>
 </file>
@@ -1383,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,25 +2308,25 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="10">
-        <v>8</v>
+        <v>87</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="45">
+        <v>2</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -2335,21 +2338,23 @@
     </row>
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
-        <v>3</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="39"/>
       <c r="F14" s="15" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -2359,16 +2364,16 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="19" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="15" t="s">
@@ -2385,25 +2390,23 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
-        <v>5</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>114</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="19" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="15" t="s">
         <v>66</v>
       </c>
       <c r="G16" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -2415,23 +2418,23 @@
     </row>
     <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="15" t="s">
         <v>66</v>
       </c>
       <c r="G17" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -2441,18 +2444,18 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>120</v>
+        <v>107</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="15" t="s">
@@ -2470,13 +2473,25 @@
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="19"/>
+      <c r="A19" s="16">
+        <v>7</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="E19" s="20"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="10"/>
+      <c r="F19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="10">
+        <v>5</v>
+      </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -2485,8 +2500,24 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
     </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="D10:E11"/>
@@ -2497,17 +2528,18 @@
     <mergeCell ref="D6:E8"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F6 F9:F19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F6 F9:F20">
       <formula1>StatusList</formula1>
     </dataValidation>
   </dataValidations>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -655,6 +655,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -664,6 +673,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,61 +701,43 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1102,10 +1102,10 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1119,8 +1119,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1132,8 +1132,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1160,10 +1160,10 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1177,8 +1177,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1207,10 +1207,10 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1224,8 +1224,8 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1237,8 +1237,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1250,10 +1250,10 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1267,8 +1267,8 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1280,8 +1280,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1293,8 +1293,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1306,10 +1306,10 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1323,8 +1323,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1336,10 +1336,10 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1353,8 +1353,8 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1364,18 +1364,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1387,7 +1387,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,11 +1403,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1416,9 +1416,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1436,10 +1436,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="9" t="s">
         <v>73</v>
       </c>
@@ -1478,10 +1478,10 @@
       <c r="C5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="10" t="s">
         <v>94</v>
       </c>
@@ -1520,10 +1520,10 @@
       <c r="C6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="10" t="s">
         <v>94</v>
       </c>
@@ -1560,10 +1560,10 @@
         <v>97</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="10" t="s">
         <v>94</v>
       </c>
@@ -1576,9 +1576,15 @@
       <c r="I7" s="10">
         <v>0</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
@@ -1590,10 +1596,10 @@
         <v>96</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="10" t="s">
         <v>94</v>
       </c>
@@ -1609,10 +1615,18 @@
       <c r="J8" s="10">
         <v>4</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
@@ -1622,10 +1636,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="10" t="s">
         <v>94</v>
       </c>
@@ -1661,13 +1675,13 @@
       <c r="B10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="10" t="s">
         <v>94</v>
       </c>
@@ -1703,11 +1717,11 @@
       <c r="B11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="10" t="s">
         <v>94</v>
       </c>
@@ -1744,10 +1758,10 @@
         <v>87</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="10" t="s">
         <v>77</v>
       </c>
@@ -1760,11 +1774,21 @@
       <c r="I12" s="10">
         <v>0</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
@@ -1774,10 +1798,10 @@
         <v>88</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="10" t="s">
         <v>94</v>
       </c>
@@ -1807,15 +1831,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="24">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1827,15 +1851,15 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="10" t="s">
         <v>94</v>
       </c>
@@ -1865,15 +1889,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="10" t="s">
         <v>94</v>
       </c>
@@ -1903,15 +1927,15 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="13" t="s">
         <v>92</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="10" t="s">
         <v>94</v>
       </c>
@@ -1941,15 +1965,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="13" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="10" t="s">
         <v>94</v>
       </c>
@@ -1979,15 +2003,15 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="14" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="10" t="s">
         <v>94</v>
       </c>
@@ -2018,15 +2042,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2037,6 +2052,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2069,11 +2093,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2082,9 +2106,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2102,14 +2126,14 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -2135,17 +2159,17 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="24">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="41"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -2155,19 +2179,19 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="33">
         <v>4</v>
       </c>
       <c r="H6" s="10"/>
@@ -2179,15 +2203,15 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="43"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -2197,15 +2221,15 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="44"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -2215,17 +2239,17 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="15" t="s">
         <v>77</v>
       </c>
@@ -2241,19 +2265,19 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="32"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="33">
         <v>4</v>
       </c>
       <c r="H10" s="10"/>
@@ -2265,17 +2289,17 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -2285,19 +2309,19 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="20">
         <v>2</v>
       </c>
       <c r="H12" s="10"/>
@@ -2318,14 +2342,14 @@
       <c r="C13" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="20">
         <v>2</v>
       </c>
       <c r="H13" s="10"/>
@@ -2346,10 +2370,10 @@
       <c r="C14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="15" t="s">
         <v>66</v>
       </c>
@@ -2372,10 +2396,10 @@
         <v>115</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="15" t="s">
         <v>66</v>
       </c>
@@ -2398,10 +2422,10 @@
         <v>117</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="15" t="s">
         <v>66</v>
       </c>
@@ -2426,10 +2450,10 @@
       <c r="C17" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="15" t="s">
         <v>66</v>
       </c>
@@ -2454,10 +2478,10 @@
       <c r="C18" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="15" t="s">
         <v>66</v>
       </c>
@@ -2482,10 +2506,10 @@
       <c r="C19" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="15" t="s">
         <v>66</v>
       </c>
@@ -2504,8 +2528,8 @@
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="15"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -2518,6 +2542,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="D10:E11"/>
@@ -2528,15 +2561,6 @@
     <mergeCell ref="D6:E8"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F6 F9:F20">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -673,6 +673,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -682,23 +700,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -732,12 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,7 +799,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,7 +834,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1364,18 +1364,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1386,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,11 +1403,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1416,9 +1416,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1436,10 +1436,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="9" t="s">
         <v>73</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="B10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="22" t="s">
@@ -1717,7 +1717,7 @@
       <c r="B11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="22" t="s">
         <v>72</v>
       </c>
@@ -1831,7 +1831,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="30">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1851,7 +1851,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="13" t="s">
         <v>90</v>
       </c>
@@ -1889,7 +1889,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="13" t="s">
         <v>91</v>
       </c>
@@ -1927,7 +1927,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="13" t="s">
         <v>92</v>
       </c>
@@ -1965,7 +1965,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="13" t="s">
         <v>93</v>
       </c>
@@ -2003,7 +2003,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="14" t="s">
         <v>95</v>
       </c>
@@ -2042,6 +2042,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2052,15 +2061,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2076,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,11 +2093,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2106,9 +2106,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2126,10 +2126,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="9" t="s">
         <v>73</v>
       </c>
@@ -2159,7 +2159,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="30">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2179,19 +2179,19 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="35">
         <v>4</v>
       </c>
       <c r="H6" s="10"/>
@@ -2203,15 +2203,15 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="34"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -2221,15 +2221,15 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="35"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -2239,7 +2239,7 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="10" t="s">
         <v>104</v>
       </c>
@@ -2265,19 +2265,19 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="35">
         <v>4</v>
       </c>
       <c r="H10" s="10"/>
@@ -2289,17 +2289,17 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -2309,7 +2309,7 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="6" t="s">
         <v>116</v>
       </c>
@@ -2347,12 +2347,14 @@
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="10" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G13" s="20">
         <v>2</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="10">
+        <v>2</v>
+      </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -2370,10 +2372,10 @@
       <c r="C14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="45"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="15" t="s">
         <v>66</v>
       </c>
@@ -2542,15 +2544,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="D10:E11"/>
@@ -2561,6 +2554,15 @@
     <mergeCell ref="D6:E8"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F6 F9:F20">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -229,9 +229,6 @@
     <t>DuyPK</t>
   </si>
   <si>
-    <t>TuanLD</t>
-  </si>
-  <si>
     <t>ThinhLT</t>
   </si>
   <si>
@@ -386,6 +383,9 @@
   </si>
   <si>
     <t>Not complete in sprint 1</t>
+  </si>
+  <si>
+    <t>TuanLT</t>
   </si>
 </sst>
 </file>
@@ -673,6 +673,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,52 +701,43 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1364,18 +1364,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1386,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,11 +1403,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1416,9 +1416,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1436,36 +1436,36 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1476,14 +1476,14 @@
         <v>63</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" s="10">
         <v>10</v>
@@ -1518,14 +1518,14 @@
         <v>64</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="10">
         <v>5</v>
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="22" t="s">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="10">
         <v>10</v>
@@ -1593,15 +1593,15 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="22" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="10">
         <v>10</v>
@@ -1637,11 +1637,11 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="22" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="10">
         <v>10</v>
@@ -1673,17 +1673,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="10">
         <v>10</v>
@@ -1715,15 +1715,15 @@
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="29"/>
+        <v>74</v>
+      </c>
+      <c r="C11" s="32"/>
       <c r="D11" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="10">
         <v>20</v>
@@ -1755,15 +1755,15 @@
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="22" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="10">
         <v>2</v>
@@ -1795,15 +1795,15 @@
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
@@ -1831,11 +1831,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="24">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="22"/>
@@ -1851,17 +1851,17 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="22" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="10">
         <v>4</v>
@@ -1889,9 +1889,9 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="22" t="s">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" s="10">
         <v>4</v>
@@ -1927,17 +1927,17 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17" s="10">
         <v>4</v>
@@ -1965,17 +1965,17 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
@@ -2003,17 +2003,17 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="10">
         <v>2</v>
@@ -2042,15 +2042,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2061,6 +2052,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2076,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,11 +2093,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="A1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2106,14 +2106,14 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2126,44 +2126,44 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="24">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="22"/>
@@ -2179,19 +2179,19 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="28" t="s">
+      <c r="D6" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="33">
         <v>4</v>
       </c>
       <c r="H6" s="10"/>
@@ -2203,15 +2203,15 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="36"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -2221,15 +2221,15 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -2239,19 +2239,19 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="10">
         <v>10</v>
@@ -2265,19 +2265,19 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="39"/>
+      <c r="D10" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="37"/>
       <c r="F10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="33">
         <v>4</v>
       </c>
       <c r="H10" s="10"/>
@@ -2289,17 +2289,17 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="37"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -2309,13 +2309,13 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="15" t="s">
@@ -2337,17 +2337,17 @@
         <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>121</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>69</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" s="20">
         <v>2</v>
@@ -2367,15 +2367,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="15" t="s">
         <v>66</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="22" t="s">
@@ -2421,11 +2421,11 @@
         <v>4</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="15" t="s">
@@ -2447,13 +2447,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="D17" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="15" t="s">
@@ -2475,10 +2475,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>68</v>
@@ -2503,13 +2503,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="15" t="s">
@@ -2544,6 +2544,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="D10:E11"/>
@@ -2554,15 +2563,6 @@
     <mergeCell ref="D6:E8"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F6 F9:F20">
@@ -2594,17 +2594,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -352,9 +352,6 @@
     <t>Update design</t>
   </si>
   <si>
-    <t>ThinhLT, ThangPV, TuanLD, DuyPK</t>
-  </si>
-  <si>
     <t>Update completed design in sprint 1 after reviewed by instructor</t>
   </si>
   <si>
@@ -386,6 +383,9 @@
   </si>
   <si>
     <t>TuanLT</t>
+  </si>
+  <si>
+    <t>ThinhLT, ThangPV, TuanLT, DuyPK</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="10" t="s">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="10" t="s">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="10" t="s">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="10" t="s">
@@ -2076,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E19"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="15" t="s">
@@ -2311,7 +2311,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="22" t="s">
@@ -2340,10 +2340,10 @@
         <v>86</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>121</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="10" t="s">
@@ -2370,10 +2370,10 @@
         <v>109</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="15" t="s">
@@ -2395,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="22" t="s">
@@ -2421,11 +2421,11 @@
         <v>4</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="15" t="s">
@@ -2447,10 +2447,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>71</v>
@@ -2478,7 +2478,7 @@
         <v>106</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>68</v>
@@ -2506,10 +2506,10 @@
         <v>107</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="15" t="s">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -340,52 +340,73 @@
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>Code authentication</t>
-  </si>
-  <si>
-    <t>Code register</t>
-  </si>
-  <si>
     <t>Continue sprint 1, design usecase</t>
   </si>
   <si>
-    <t>Update design</t>
-  </si>
-  <si>
-    <t>Update completed design in sprint 1 after reviewed by instructor</t>
-  </si>
-  <si>
-    <t>Create, configure database server</t>
-  </si>
-  <si>
-    <t>Create database by code first appoach using entity framwork 6</t>
-  </si>
-  <si>
-    <t>Research drag and drop JavaScript library</t>
-  </si>
-  <si>
     <t xml:space="preserve">Review </t>
   </si>
   <si>
-    <t>Research MCV .NET</t>
-  </si>
-  <si>
-    <t>ThangPV, ThinhLT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">view and update usecase if necessary, include authorization by user role </t>
-  </si>
-  <si>
-    <t>view and update usecase if necessary</t>
-  </si>
-  <si>
     <t>Not complete in sprint 1</t>
   </si>
   <si>
     <t>TuanLT</t>
   </si>
   <si>
-    <t>ThinhLT, ThangPV, TuanLT, DuyPK</t>
+    <t>1. Design Admin Dashboard</t>
+  </si>
+  <si>
+    <t>2. Design User dashboard</t>
+  </si>
+  <si>
+    <t>1.1 Design User management</t>
+  </si>
+  <si>
+    <t>1.2 Design Account type management</t>
+  </si>
+  <si>
+    <t>1.3 Design Template management</t>
+  </si>
+  <si>
+    <t>2.1 Design Profile management</t>
+  </si>
+  <si>
+    <t>2.2 Design account type</t>
+  </si>
+  <si>
+    <t>2.3 Design Site management(Edit, remove, duplicate)</t>
+  </si>
+  <si>
+    <t>2.4 Design statistic management</t>
+  </si>
+  <si>
+    <t>2.5 Design site creation</t>
+  </si>
+  <si>
+    <t>2.5.4 Design site page builder</t>
+  </si>
+  <si>
+    <t>2.5.5 Design product management(CRUD)</t>
+  </si>
+  <si>
+    <t>Review and merge</t>
+  </si>
+  <si>
+    <t>Design Home page</t>
+  </si>
+  <si>
+    <t>Design authentication</t>
+  </si>
+  <si>
+    <t>2.5.1 Design search, view template</t>
+  </si>
+  <si>
+    <t>2.5.2 Design site layout builder</t>
+  </si>
+  <si>
+    <t>2.5.3 Design site elements builder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5.6 Design map domain </t>
   </si>
 </sst>
 </file>
@@ -427,7 +448,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +458,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -649,95 +700,245 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,7 +1000,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,7 +1035,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1102,10 +1303,10 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1119,8 +1320,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1132,8 +1333,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1145,7 +1346,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1160,10 +1361,10 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1177,8 +1378,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1207,10 +1408,10 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1224,8 +1425,8 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1237,8 +1438,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1250,10 +1451,10 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1267,8 +1468,8 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1280,8 +1481,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1293,8 +1494,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1306,10 +1507,10 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1323,8 +1524,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1336,10 +1537,10 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1353,8 +1554,8 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1386,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,11 +1604,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1416,9 +1617,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1436,10 +1637,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1478,10 +1679,10 @@
       <c r="C5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="10" t="s">
         <v>93</v>
       </c>
@@ -1520,10 +1721,10 @@
       <c r="C6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="10" t="s">
         <v>93</v>
       </c>
@@ -1560,10 +1761,10 @@
         <v>96</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="10" t="s">
         <v>93</v>
       </c>
@@ -1596,10 +1797,10 @@
         <v>95</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="23"/>
+      <c r="D8" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="21"/>
       <c r="F8" s="10" t="s">
         <v>93</v>
       </c>
@@ -1636,10 +1837,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="23"/>
+      <c r="D9" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="21"/>
       <c r="F9" s="10" t="s">
         <v>93</v>
       </c>
@@ -1675,13 +1876,13 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="10" t="s">
         <v>93</v>
       </c>
@@ -1717,11 +1918,11 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="10" t="s">
         <v>93</v>
       </c>
@@ -1758,10 +1959,10 @@
         <v>86</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="23"/>
+      <c r="D12" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="21"/>
       <c r="F12" s="10" t="s">
         <v>76</v>
       </c>
@@ -1798,10 +1999,10 @@
         <v>87</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="10" t="s">
         <v>93</v>
       </c>
@@ -1831,15 +2032,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="22">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1851,15 +2052,15 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="23"/>
+      <c r="D15" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="21"/>
       <c r="F15" s="10" t="s">
         <v>93</v>
       </c>
@@ -1889,15 +2090,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="10" t="s">
         <v>93</v>
       </c>
@@ -1927,15 +2128,15 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="23"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="10" t="s">
         <v>93</v>
       </c>
@@ -1965,15 +2166,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="13" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="10" t="s">
         <v>93</v>
       </c>
@@ -2003,15 +2204,15 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="14" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="10" t="s">
         <v>93</v>
       </c>
@@ -2074,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,11 +2294,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2106,9 +2307,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2126,14 +2327,14 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -2158,414 +2359,698 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+    <row r="5" spans="1:14" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="90">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="93"/>
+      <c r="F5" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="94">
+        <v>2</v>
+      </c>
+      <c r="H5" s="91">
+        <v>2</v>
+      </c>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+    </row>
+    <row r="6" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51">
+        <v>3</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="52">
+        <v>2</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+    </row>
+    <row r="7" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51">
+        <v>4</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="52">
+        <v>2</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+    </row>
+    <row r="8" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42">
+        <v>5</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="43">
+        <v>2</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+    </row>
+    <row r="9" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42">
+        <v>6</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="43">
+        <v>2</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+    </row>
+    <row r="10" spans="1:14" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="42">
+        <v>7</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="43">
+        <v>2</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+    </row>
+    <row r="11" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42">
+        <v>8</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="43">
+        <v>2</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+    </row>
+    <row r="12" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62">
+        <v>9</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="68">
+        <v>2</v>
+      </c>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+    </row>
+    <row r="13" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="62">
+        <v>10</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="68">
+        <v>2</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+    </row>
+    <row r="14" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="62">
+        <v>11</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="68">
+        <v>2</v>
+      </c>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+    </row>
+    <row r="15" spans="1:14" s="69" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="62">
+        <v>12</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="68">
+        <v>2</v>
+      </c>
+      <c r="H15" s="68"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="67"/>
+    </row>
+    <row r="16" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="62">
+        <v>13</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="68">
+        <v>2</v>
+      </c>
+      <c r="H16" s="68"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="67"/>
+    </row>
+    <row r="17" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="77">
+        <v>14</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="78">
+        <v>2</v>
+      </c>
+      <c r="H17" s="78"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="82"/>
+    </row>
+    <row r="18" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="77">
+        <v>15</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="79"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="78">
+        <v>2</v>
+      </c>
+      <c r="H18" s="78"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="82"/>
+    </row>
+    <row r="19" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="77">
+        <v>16</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="79"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="78">
+        <v>2</v>
+      </c>
+      <c r="H19" s="78"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="82"/>
+    </row>
+    <row r="20" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="77">
+        <v>17</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="79"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="78">
+        <v>2</v>
+      </c>
+      <c r="H20" s="78"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="82"/>
+    </row>
+    <row r="21" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="77">
+        <v>18</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="78">
+        <v>2</v>
+      </c>
+      <c r="H21" s="78"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="82"/>
+    </row>
+    <row r="22" spans="1:14" s="83" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="77">
+        <v>19</v>
+      </c>
+      <c r="B22" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="78">
+        <v>2</v>
+      </c>
+      <c r="H22" s="78"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="82"/>
+    </row>
+    <row r="23" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="77">
+        <v>20</v>
+      </c>
+      <c r="B23" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="79"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="78">
+        <v>2</v>
+      </c>
+      <c r="H23" s="78"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="82"/>
+    </row>
+    <row r="24" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51">
+        <v>21</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="89"/>
+      <c r="F24" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="52">
+        <v>5</v>
+      </c>
+      <c r="H24" s="52"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="56"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>1</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="10" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="36" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="31" t="s">
+      <c r="E44" s="35"/>
+      <c r="F44" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G44" s="31">
         <v>4</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="10" t="s">
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="10" t="s">
+      <c r="C45" s="11"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="10" t="s">
+      <c r="C46" s="11"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="C47" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="15" t="s">
+      <c r="E47" s="21"/>
+      <c r="F47" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G47" s="10">
         <v>10</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="10" t="s">
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="15" t="s">
+      <c r="C48" s="10"/>
+      <c r="D48" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="35"/>
+      <c r="F48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G48" s="31">
         <v>4</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="10" t="s">
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="15" t="s">
+      <c r="C49" s="10"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="22" t="s">
+      <c r="G49" s="33"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
+      <c r="B50" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="15" t="s">
+      <c r="E50" s="21"/>
+      <c r="F50" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="20">
-        <v>2</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>2</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="20">
-        <v>2</v>
-      </c>
-      <c r="H13" s="10">
-        <v>2</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>2</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="10">
-        <v>8</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>3</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="10">
-        <v>4</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>4</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="10">
-        <v>4</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>5</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="10">
-        <v>2</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>6</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="10">
-        <v>5</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>7</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="10">
-        <v>5</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="G50" s="18">
+        <v>2</v>
+      </c>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="D12:E12"/>
+  <mergeCells count="17">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D8:E11"/>
+    <mergeCell ref="D12:E16"/>
+    <mergeCell ref="D17:E23"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E8"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E46"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F6 F9:F20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">
       <formula1>StatusList</formula1>
     </dataValidation>
   </dataValidations>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -370,18 +370,12 @@
     <t>2.1 Design Profile management</t>
   </si>
   <si>
-    <t>2.2 Design account type</t>
-  </si>
-  <si>
     <t>2.3 Design Site management(Edit, remove, duplicate)</t>
   </si>
   <si>
     <t>2.4 Design statistic management</t>
   </si>
   <si>
-    <t>2.5 Design site creation</t>
-  </si>
-  <si>
     <t>2.5.4 Design site page builder</t>
   </si>
   <si>
@@ -407,6 +401,12 @@
   </si>
   <si>
     <t xml:space="preserve">2.5.6 Design map domain </t>
+  </si>
+  <si>
+    <t>2.2 Design account type, check out</t>
+  </si>
+  <si>
+    <t>2.5 Design site builder</t>
   </si>
 </sst>
 </file>
@@ -709,6 +709,90 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -718,6 +802,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -727,23 +829,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -754,191 +931,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1303,10 +1303,10 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1320,8 +1320,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1333,8 +1333,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1361,10 +1361,10 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1378,8 +1378,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1408,10 +1408,10 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="47" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1425,8 +1425,8 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1438,8 +1438,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1451,10 +1451,10 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="47" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1468,8 +1468,8 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1481,8 +1481,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1494,8 +1494,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1507,10 +1507,10 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="47" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1524,8 +1524,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1537,10 +1537,10 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="47" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1554,8 +1554,8 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1565,18 +1565,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1604,11 +1604,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1617,9 +1617,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1637,10 +1637,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1679,10 +1679,10 @@
       <c r="C5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="10" t="s">
         <v>93</v>
       </c>
@@ -1721,10 +1721,10 @@
       <c r="C6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="10" t="s">
         <v>93</v>
       </c>
@@ -1761,10 +1761,10 @@
         <v>96</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="10" t="s">
         <v>93</v>
       </c>
@@ -1797,10 +1797,10 @@
         <v>95</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="10" t="s">
         <v>93</v>
       </c>
@@ -1837,10 +1837,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="10" t="s">
         <v>93</v>
       </c>
@@ -1876,13 +1876,13 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="10" t="s">
         <v>93</v>
       </c>
@@ -1918,11 +1918,11 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="10" t="s">
         <v>93</v>
       </c>
@@ -1959,10 +1959,10 @@
         <v>86</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="10" t="s">
         <v>76</v>
       </c>
@@ -1999,10 +1999,10 @@
         <v>87</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="10" t="s">
         <v>93</v>
       </c>
@@ -2032,15 +2032,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="56">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2052,15 +2052,15 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="10" t="s">
         <v>93</v>
       </c>
@@ -2090,15 +2090,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="10" t="s">
         <v>93</v>
       </c>
@@ -2128,15 +2128,15 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="10" t="s">
         <v>93</v>
       </c>
@@ -2166,15 +2166,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="13" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="10" t="s">
         <v>93</v>
       </c>
@@ -2204,15 +2204,15 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="14" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="10" t="s">
         <v>93</v>
       </c>
@@ -2243,6 +2243,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2253,15 +2262,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2277,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,11 +2294,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2307,9 +2307,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2327,10 +2327,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2359,512 +2359,512 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90">
+    <row r="5" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
         <v>1</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="91" t="s">
+      <c r="E5" s="60"/>
+      <c r="F5" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="94">
-        <v>2</v>
-      </c>
-      <c r="H5" s="91">
-        <v>2</v>
-      </c>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-    </row>
-    <row r="6" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="G5" s="45">
+        <v>2</v>
+      </c>
+      <c r="H5" s="44">
+        <v>2</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+    </row>
+    <row r="6" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54" t="s">
+      <c r="B6" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56" t="s">
+      <c r="E6" s="62"/>
+      <c r="F6" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="52">
-        <v>2</v>
-      </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-    </row>
-    <row r="7" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
+      <c r="G6" s="25">
+        <v>2</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
         <v>4</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="56" t="s">
+      <c r="B7" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="52">
-        <v>2</v>
-      </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-    </row>
-    <row r="8" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
+      <c r="G7" s="25">
+        <v>2</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
         <v>5</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="43">
-        <v>2</v>
-      </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-    </row>
-    <row r="9" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
+      <c r="G8" s="20">
+        <v>2</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+    </row>
+    <row r="9" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="47" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="43">
-        <v>2</v>
-      </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-    </row>
-    <row r="10" spans="1:14" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
+      <c r="G9" s="20">
+        <v>2</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
         <v>7</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="47" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="43">
-        <v>2</v>
-      </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-    </row>
-    <row r="11" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
+      <c r="G10" s="20">
+        <v>2</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
         <v>8</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="47" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="43">
-        <v>2</v>
-      </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-    </row>
-    <row r="12" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62">
+      <c r="G11" s="20">
+        <v>2</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
         <v>9</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67" t="s">
+      <c r="E12" s="72"/>
+      <c r="F12" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="68">
-        <v>2</v>
-      </c>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-    </row>
-    <row r="13" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62">
+      <c r="G12" s="33">
+        <v>2</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+    </row>
+    <row r="13" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
         <v>10</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="67" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="68">
-        <v>2</v>
-      </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-    </row>
-    <row r="14" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62">
+      <c r="G13" s="33">
+        <v>2</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+    </row>
+    <row r="14" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
         <v>11</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="33">
+        <v>2</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+    </row>
+    <row r="15" spans="1:14" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>12</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="67" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="68">
-        <v>2</v>
-      </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-    </row>
-    <row r="15" spans="1:14" s="69" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="62">
-        <v>12</v>
-      </c>
-      <c r="B15" s="74" t="s">
+      <c r="G15" s="33">
+        <v>2</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="32"/>
+    </row>
+    <row r="16" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>13</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="68">
-        <v>2</v>
-      </c>
-      <c r="H15" s="68"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="67"/>
-    </row>
-    <row r="16" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62">
-        <v>13</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="75"/>
       <c r="E16" s="76"/>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="68">
-        <v>2</v>
-      </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="67"/>
-    </row>
-    <row r="17" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77">
+      <c r="G16" s="33">
+        <v>2</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="32"/>
+    </row>
+    <row r="17" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
         <v>14</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="78"/>
+      <c r="F17" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="39">
+        <v>2</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>15</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="39">
+        <v>2</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>16</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="39">
+        <v>2</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>17</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="39">
+        <v>2</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <v>18</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="39">
+        <v>2</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="1:14" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <v>19</v>
+      </c>
+      <c r="B22" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="78">
-        <v>2</v>
-      </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="82"/>
-    </row>
-    <row r="18" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77">
-        <v>15</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="82" t="s">
+      <c r="G22" s="39">
+        <v>2</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <v>20</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="78">
-        <v>2</v>
-      </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="82"/>
-    </row>
-    <row r="19" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77">
-        <v>16</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="82" t="s">
+      <c r="G23" s="39">
+        <v>2</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="95"/>
+      <c r="F24" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="78">
-        <v>2</v>
-      </c>
-      <c r="H19" s="78"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="82"/>
-    </row>
-    <row r="20" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77">
-        <v>17</v>
-      </c>
-      <c r="B20" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="78">
-        <v>2</v>
-      </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="82"/>
-    </row>
-    <row r="21" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77">
-        <v>18</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="78">
-        <v>2</v>
-      </c>
-      <c r="H21" s="78"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="82"/>
-    </row>
-    <row r="22" spans="1:14" s="83" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="77">
-        <v>19</v>
-      </c>
-      <c r="B22" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="78">
-        <v>2</v>
-      </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="82"/>
-    </row>
-    <row r="23" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77">
-        <v>20</v>
-      </c>
-      <c r="B23" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="78">
-        <v>2</v>
-      </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="82"/>
-    </row>
-    <row r="24" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51">
-        <v>21</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="52">
+      <c r="G24" s="25">
         <v>5</v>
       </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="56"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="27"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
+      <c r="A43" s="56">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="10"/>
       <c r="G43" s="17"/>
       <c r="H43" s="10"/>
@@ -2876,19 +2876,19 @@
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="29" t="s">
+      <c r="E44" s="84"/>
+      <c r="F44" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="31">
+      <c r="G44" s="90">
         <v>4</v>
       </c>
       <c r="H44" s="10"/>
@@ -2900,15 +2900,15 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="32"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="91"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -2918,15 +2918,15 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="33"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="92"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -2936,17 +2936,17 @@
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="21"/>
+      <c r="E47" s="49"/>
       <c r="F47" s="15" t="s">
         <v>76</v>
       </c>
@@ -2962,19 +2962,19 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="35"/>
+      <c r="E48" s="84"/>
       <c r="F48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="31">
+      <c r="G48" s="90">
         <v>4</v>
       </c>
       <c r="H48" s="10"/>
@@ -2986,17 +2986,17 @@
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="88"/>
       <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="33"/>
+      <c r="G49" s="92"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -3006,15 +3006,15 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="89"/>
       <c r="B50" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C50" s="10"/>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="21"/>
+      <c r="E50" s="49"/>
       <c r="F50" s="15" t="s">
         <v>66</v>
       </c>
@@ -3031,11 +3031,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D8:E11"/>
-    <mergeCell ref="D12:E16"/>
-    <mergeCell ref="D17:E23"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -3043,11 +3043,11 @@
     <mergeCell ref="D44:E46"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D8:E11"/>
+    <mergeCell ref="D12:E16"/>
+    <mergeCell ref="D17:E23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -2277,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,9 +2407,15 @@
       <c r="G6" s="25">
         <v>2</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <v>2</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
@@ -2431,9 +2437,15 @@
       <c r="G7" s="25">
         <v>2</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <v>2</v>
+      </c>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="4" r:id="rId3"/>
-    <sheet name="Refrence" sheetId="3" r:id="rId4"/>
+    <sheet name="Temporary Performance Rate" sheetId="5" r:id="rId4"/>
+    <sheet name="Refrence" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="StatusList">Refrence!$A$1:$A$4</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="140">
   <si>
     <t>Name</t>
   </si>
@@ -407,13 +408,50 @@
   </si>
   <si>
     <t>2.5 Design site builder</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
+  </si>
+  <si>
+    <t>Team member</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Performance Point</t>
+  </si>
+  <si>
+    <t>Day 4
+23/01</t>
+  </si>
+  <si>
+    <t>Day 5
+24/01</t>
+  </si>
+  <si>
+    <t>Day 7
+26/01</t>
+  </si>
+  <si>
+    <t>Day 6
+25/01</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Physical DB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,8 +485,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +538,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -802,6 +864,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,12 +892,42 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -901,44 +1002,32 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,7 +1336,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:C16"/>
     </sheetView>
   </sheetViews>
@@ -1565,18 +1654,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1587,7 +1676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:F8"/>
     </sheetView>
   </sheetViews>
@@ -1604,11 +1693,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1617,9 +1706,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1637,10 +1726,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1876,7 +1965,7 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="57" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="48" t="s">
@@ -1918,7 +2007,7 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="48" t="s">
         <v>71</v>
       </c>
@@ -2032,7 +2121,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="50">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2052,7 +2141,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="13" t="s">
         <v>89</v>
       </c>
@@ -2090,7 +2179,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="13" t="s">
         <v>90</v>
       </c>
@@ -2128,7 +2217,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="13" t="s">
         <v>91</v>
       </c>
@@ -2166,7 +2255,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="13" t="s">
         <v>92</v>
       </c>
@@ -2204,7 +2293,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="14" t="s">
         <v>94</v>
       </c>
@@ -2243,15 +2332,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2262,6 +2342,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2277,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,11 +2383,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2307,9 +2396,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2327,10 +2416,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2369,10 +2458,10 @@
       <c r="C5" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="44" t="s">
         <v>93</v>
       </c>
@@ -2397,10 +2486,10 @@
         <v>121</v>
       </c>
       <c r="C6" s="26"/>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="27" t="s">
         <v>76</v>
       </c>
@@ -2429,8 +2518,8 @@
         <v>122</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="27" t="s">
         <v>76</v>
       </c>
@@ -2459,10 +2548,10 @@
         <v>110</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="E8" s="79"/>
       <c r="F8" s="22" t="s">
         <v>66</v>
       </c>
@@ -2485,8 +2574,8 @@
         <v>112</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="22" t="s">
         <v>66</v>
       </c>
@@ -2509,8 +2598,8 @@
         <v>113</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="22" t="s">
         <v>66</v>
       </c>
@@ -2533,8 +2622,8 @@
         <v>114</v>
       </c>
       <c r="C11" s="21"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="22" t="s">
         <v>66</v>
       </c>
@@ -2557,10 +2646,10 @@
         <v>111</v>
       </c>
       <c r="C12" s="31"/>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="72"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="32" t="s">
         <v>66</v>
       </c>
@@ -2583,8 +2672,8 @@
         <v>115</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="32" t="s">
         <v>66</v>
       </c>
@@ -2607,8 +2696,8 @@
         <v>127</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
       <c r="F14" s="32" t="s">
         <v>66</v>
       </c>
@@ -2631,8 +2720,8 @@
         <v>116</v>
       </c>
       <c r="C15" s="37"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="32" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2744,8 @@
         <v>117</v>
       </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="76"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="32" t="s">
         <v>66</v>
       </c>
@@ -2679,10 +2768,10 @@
         <v>128</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="78"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="41" t="s">
         <v>66</v>
       </c>
@@ -2705,8 +2794,8 @@
         <v>123</v>
       </c>
       <c r="C18" s="40"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="41" t="s">
         <v>66</v>
       </c>
@@ -2729,8 +2818,8 @@
         <v>124</v>
       </c>
       <c r="C19" s="40"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="41" t="s">
         <v>66</v>
       </c>
@@ -2753,8 +2842,8 @@
         <v>125</v>
       </c>
       <c r="C20" s="40"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="41" t="s">
         <v>66</v>
       </c>
@@ -2777,8 +2866,8 @@
         <v>118</v>
       </c>
       <c r="C21" s="40"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="93"/>
       <c r="F21" s="41" t="s">
         <v>66</v>
       </c>
@@ -2801,8 +2890,8 @@
         <v>119</v>
       </c>
       <c r="C22" s="40"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93"/>
       <c r="F22" s="41" t="s">
         <v>66</v>
       </c>
@@ -2825,8 +2914,8 @@
         <v>126</v>
       </c>
       <c r="C23" s="40"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
       <c r="F23" s="41" t="s">
         <v>66</v>
       </c>
@@ -2849,10 +2938,10 @@
         <v>120</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="94" t="s">
+      <c r="D24" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="95"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="27" t="s">
         <v>66</v>
       </c>
@@ -2868,7 +2957,7 @@
       <c r="N24" s="27"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="56">
+      <c r="A43" s="50">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -2888,19 +2977,19 @@
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="83" t="s">
+      <c r="D44" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="84"/>
-      <c r="F44" s="54" t="s">
+      <c r="E44" s="63"/>
+      <c r="F44" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="90">
+      <c r="G44" s="59">
         <v>4</v>
       </c>
       <c r="H44" s="10"/>
@@ -2912,15 +3001,15 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="91"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="60"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -2930,15 +3019,15 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="92"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="61"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -2948,7 +3037,7 @@
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="10" t="s">
         <v>103</v>
       </c>
@@ -2974,19 +3063,19 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="83" t="s">
+      <c r="D48" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="84"/>
+      <c r="E48" s="63"/>
       <c r="F48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="90">
+      <c r="G48" s="59">
         <v>4</v>
       </c>
       <c r="H48" s="10"/>
@@ -2998,17 +3087,17 @@
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="88"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="65"/>
       <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="92"/>
+      <c r="G49" s="61"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -3018,7 +3107,7 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="89"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="6" t="s">
         <v>107</v>
       </c>
@@ -3043,11 +3132,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -3060,6 +3144,11 @@
     <mergeCell ref="D8:E11"/>
     <mergeCell ref="D12:E16"/>
     <mergeCell ref="D17:E23"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">
@@ -3072,6 +3161,223 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" style="96" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="96" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="96" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" style="96" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="96" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="96"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="103"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="104"/>
+      <c r="B6" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="104"/>
+      <c r="B7" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="100"/>
+      <c r="B10" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="100"/>
+      <c r="B11" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="100"/>
+      <c r="B13" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="100"/>
+      <c r="B14" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="100"/>
+      <c r="B16" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="100"/>
+      <c r="B17" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -275,9 +275,6 @@
     <t>Day 7</t>
   </si>
   <si>
-    <t>Approved</t>
-  </si>
-  <si>
     <t>Using bootstrap, Jquery to create a responsive page, flat design</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>Physical DB</t>
+  </si>
+  <si>
+    <t>Wait for approve</t>
   </si>
 </sst>
 </file>
@@ -1766,14 +1766,14 @@
         <v>63</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="48" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="49"/>
       <c r="F5" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" s="10">
         <v>10</v>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="E6" s="49"/>
       <c r="F6" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="10">
         <v>5</v>
@@ -1847,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="48" t="s">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="E7" s="49"/>
       <c r="F7" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="10">
         <v>10</v>
@@ -1883,15 +1883,15 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="10">
         <v>10</v>
@@ -1927,11 +1927,11 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="10">
         <v>10</v>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="10">
         <v>10</v>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="10">
         <v>20</v>
@@ -2045,11 +2045,11 @@
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="10" t="s">
@@ -2085,7 +2085,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="48" t="s">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
@@ -2125,7 +2125,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="48"/>
@@ -2143,15 +2143,15 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" s="10">
         <v>4</v>
@@ -2181,7 +2181,7 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
       <c r="B16" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="48" t="s">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="E16" s="49"/>
       <c r="F16" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G16" s="10">
         <v>4</v>
@@ -2219,7 +2219,7 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
       <c r="B17" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="48" t="s">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="E17" s="49"/>
       <c r="F17" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" s="10">
         <v>4</v>
@@ -2257,7 +2257,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="51"/>
       <c r="B18" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="48" t="s">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E18" s="49"/>
       <c r="F18" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
@@ -2295,7 +2295,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
       <c r="B19" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="48" t="s">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" s="10">
         <v>2</v>
@@ -2366,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,14 +2377,14 @@
     <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -2403,7 +2403,7 @@
         <v>60</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2453,17 +2453,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="72" t="s">
         <v>108</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>109</v>
       </c>
       <c r="E5" s="73"/>
       <c r="F5" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" s="45">
         <v>2</v>
@@ -2483,7 +2483,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="74" t="s">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="E6" s="75"/>
       <c r="F6" s="27" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G6" s="25">
         <v>2</v>
@@ -2515,13 +2515,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="76"/>
       <c r="E7" s="77"/>
       <c r="F7" s="27" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G7" s="25">
         <v>2</v>
@@ -2545,7 +2545,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="78" t="s">
@@ -2571,7 +2571,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="80"/>
@@ -2595,7 +2595,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="80"/>
@@ -2619,7 +2619,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="82"/>
@@ -2643,7 +2643,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="84" t="s">
@@ -2669,7 +2669,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="86"/>
@@ -2693,7 +2693,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="86"/>
@@ -2717,7 +2717,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="86"/>
@@ -2741,7 +2741,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="88"/>
@@ -2765,11 +2765,11 @@
         <v>14</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="91"/>
       <c r="F17" s="41" t="s">
@@ -2791,7 +2791,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="92"/>
@@ -2815,7 +2815,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="92"/>
@@ -2839,7 +2839,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="92"/>
@@ -2863,7 +2863,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="92"/>
@@ -2887,7 +2887,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="92"/>
@@ -2911,7 +2911,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="94"/>
@@ -2935,7 +2935,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="67" t="s">
@@ -2961,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="48"/>
@@ -2979,7 +2979,7 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="51"/>
       <c r="B44" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="62" t="s">
@@ -3003,7 +3003,7 @@
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="51"/>
       <c r="B45" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="69"/>
@@ -3021,7 +3021,7 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="51"/>
       <c r="B46" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="64"/>
@@ -3039,10 +3039,10 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="51"/>
       <c r="B47" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47" s="48" t="s">
         <v>71</v>
@@ -3065,11 +3065,11 @@
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="51"/>
       <c r="B48" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48" s="63"/>
       <c r="F48" s="15" t="s">
@@ -3089,7 +3089,7 @@
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="51"/>
       <c r="B49" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="64"/>
@@ -3109,7 +3109,7 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="71"/>
       <c r="B50" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="48" t="s">
@@ -3164,7 +3164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -3180,7 +3180,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -3189,10 +3189,10 @@
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="98" t="s">
         <v>56</v>
@@ -3201,18 +3201,18 @@
         <v>2</v>
       </c>
       <c r="E3" s="98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="104" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="105"/>
       <c r="E4" s="105"/>
@@ -3221,7 +3221,7 @@
       <c r="A5" s="103"/>
       <c r="B5" s="104"/>
       <c r="C5" s="105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="105"/>
       <c r="E5" s="105"/>
@@ -3229,10 +3229,10 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="104"/>
       <c r="B6" s="106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="105"/>
       <c r="E6" s="105"/>
@@ -3243,20 +3243,20 @@
         <v>68</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="105"/>
       <c r="E7" s="105"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="100" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="101"/>
       <c r="E8" s="101"/>
@@ -3265,7 +3265,7 @@
       <c r="A9" s="99"/>
       <c r="B9" s="100"/>
       <c r="C9" s="101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="101"/>
       <c r="E9" s="101"/>
@@ -3273,10 +3273,10 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="100"/>
       <c r="B10" s="102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="101"/>
       <c r="E10" s="101"/>
@@ -3287,20 +3287,20 @@
         <v>68</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="101"/>
       <c r="E11" s="101"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="99" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="102" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="101"/>
       <c r="E12" s="101"/>
@@ -3308,10 +3308,10 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="100"/>
       <c r="B13" s="102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="101"/>
       <c r="E13" s="101"/>
@@ -3322,20 +3322,20 @@
         <v>68</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="101"/>
       <c r="E14" s="101"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="102" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15" s="101"/>
       <c r="E15" s="101"/>
@@ -3343,10 +3343,10 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="100"/>
       <c r="B16" s="102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" s="101"/>
       <c r="E16" s="101"/>
@@ -3357,7 +3357,7 @@
         <v>68</v>
       </c>
       <c r="C17" s="101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" s="101"/>
       <c r="E17" s="101"/>
@@ -3382,7 +3382,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3402,12 +3402,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -855,178 +855,178 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1089,7 +1089,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1124,7 +1124,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1392,10 +1392,10 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="53" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1409,8 +1409,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1422,8 +1422,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1450,10 +1450,10 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1467,8 +1467,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1497,10 +1497,10 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="53" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1514,8 +1514,8 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1527,8 +1527,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1540,10 +1540,10 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="53" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1557,8 +1557,8 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1570,8 +1570,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1583,8 +1583,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1596,10 +1596,10 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="53" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1613,8 +1613,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1626,10 +1626,10 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="53" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1643,8 +1643,8 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1654,18 +1654,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1693,11 +1693,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1706,9 +1706,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1726,10 +1726,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1768,10 +1768,10 @@
       <c r="C5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="10" t="s">
         <v>92</v>
       </c>
@@ -1810,10 +1810,10 @@
       <c r="C6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="10" t="s">
         <v>92</v>
       </c>
@@ -1850,10 +1850,10 @@
         <v>95</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="49"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="10" t="s">
         <v>92</v>
       </c>
@@ -1886,10 +1886,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="10" t="s">
         <v>92</v>
       </c>
@@ -1926,10 +1926,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="10" t="s">
         <v>92</v>
       </c>
@@ -1965,13 +1965,13 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="10" t="s">
         <v>92</v>
       </c>
@@ -2007,11 +2007,11 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="48" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="49"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="10" t="s">
         <v>92</v>
       </c>
@@ -2048,10 +2048,10 @@
         <v>85</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="10" t="s">
         <v>76</v>
       </c>
@@ -2088,10 +2088,10 @@
         <v>86</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="49"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="10" t="s">
         <v>92</v>
       </c>
@@ -2121,15 +2121,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="50">
+      <c r="A14" s="62">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2141,15 +2141,15 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="10" t="s">
         <v>92</v>
       </c>
@@ -2179,15 +2179,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="49"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="10" t="s">
         <v>92</v>
       </c>
@@ -2217,15 +2217,15 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="49"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="10" t="s">
         <v>92</v>
       </c>
@@ -2255,15 +2255,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="49"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="10" t="s">
         <v>92</v>
       </c>
@@ -2293,15 +2293,15 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="49"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="10" t="s">
         <v>92</v>
       </c>
@@ -2332,6 +2332,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2342,15 +2351,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2366,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,11 +2383,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2396,9 +2396,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2416,10 +2416,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="E17" s="91"/>
       <c r="F17" s="41" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G17" s="39">
         <v>2</v>
@@ -2869,14 +2869,16 @@
       <c r="D21" s="92"/>
       <c r="E21" s="93"/>
       <c r="F21" s="41" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G21" s="39">
         <v>2</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
+      <c r="J21" s="39">
+        <v>1.5</v>
+      </c>
       <c r="K21" s="40"/>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
@@ -2893,7 +2895,7 @@
       <c r="D22" s="92"/>
       <c r="E22" s="93"/>
       <c r="F22" s="41" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G22" s="39">
         <v>2</v>
@@ -2938,10 +2940,10 @@
         <v>119</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="68"/>
+      <c r="E24" s="101"/>
       <c r="F24" s="27" t="s">
         <v>66</v>
       </c>
@@ -2957,15 +2959,15 @@
       <c r="N24" s="27"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="50">
+      <c r="A43" s="62">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
       <c r="F43" s="10"/>
       <c r="G43" s="17"/>
       <c r="H43" s="10"/>
@@ -2977,19 +2979,19 @@
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="62" t="s">
+      <c r="D44" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="57" t="s">
+      <c r="E44" s="66"/>
+      <c r="F44" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="59">
+      <c r="G44" s="96">
         <v>4</v>
       </c>
       <c r="H44" s="10"/>
@@ -3001,15 +3003,15 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="60"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="97"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -3019,15 +3021,15 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="61"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="98"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -3037,17 +3039,17 @@
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="49"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="15" t="s">
         <v>76</v>
       </c>
@@ -3063,19 +3065,19 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="62" t="s">
+      <c r="D48" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="63"/>
+      <c r="E48" s="66"/>
       <c r="F48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="59">
+      <c r="G48" s="96">
         <v>4</v>
       </c>
       <c r="H48" s="10"/>
@@ -3087,17 +3089,17 @@
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="65"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="70"/>
       <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="61"/>
+      <c r="G49" s="98"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -3112,10 +3114,10 @@
         <v>106</v>
       </c>
       <c r="C50" s="10"/>
-      <c r="D50" s="48" t="s">
+      <c r="D50" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="49"/>
+      <c r="E50" s="55"/>
       <c r="F50" s="15" t="s">
         <v>66</v>
       </c>
@@ -3132,6 +3134,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -3144,11 +3151,6 @@
     <mergeCell ref="D8:E11"/>
     <mergeCell ref="D12:E16"/>
     <mergeCell ref="D17:E23"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">
@@ -3170,197 +3172,197 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" style="96" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="96" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="96" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" style="96" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="96" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="96"/>
+    <col min="1" max="1" width="22" style="47" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="98" t="s">
+      <c r="D3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="105" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="104"/>
-      <c r="B6" s="106" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="104"/>
-      <c r="B7" s="106" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="101" t="s">
+      <c r="A9" s="105"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="100"/>
-      <c r="B10" s="102" t="s">
+      <c r="A10" s="106"/>
+      <c r="B10" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="100"/>
-      <c r="B11" s="102" t="s">
+      <c r="A11" s="106"/>
+      <c r="B11" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="100"/>
-      <c r="B13" s="102" t="s">
+      <c r="A13" s="106"/>
+      <c r="B13" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="100"/>
-      <c r="B14" s="102" t="s">
+      <c r="A14" s="106"/>
+      <c r="B14" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="100"/>
-      <c r="B16" s="102" t="s">
+      <c r="A16" s="106"/>
+      <c r="B16" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="100"/>
-      <c r="B17" s="102" t="s">
+      <c r="A17" s="106"/>
+      <c r="B17" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -445,6 +445,19 @@
   </si>
   <si>
     <t>Wait for approve</t>
+  </si>
+  <si>
+    <t>Not meet the deadline</t>
+  </si>
+  <si>
+    <t>Not working on it</t>
+  </si>
+  <si>
+    <t>In time:
+Not meet the demand</t>
+  </si>
+  <si>
+    <t>Design site page builder</t>
   </si>
 </sst>
 </file>
@@ -715,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -876,6 +889,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,13 +917,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,18 +931,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -996,24 +1027,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1028,6 +1041,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,7 +1105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1124,7 +1140,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1654,18 +1670,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1693,11 +1709,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1706,9 +1722,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1726,10 +1742,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="59"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1965,7 +1981,7 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="63" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="54" t="s">
@@ -2007,7 +2023,7 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="54" t="s">
         <v>71</v>
       </c>
@@ -2121,7 +2137,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="62">
+      <c r="A14" s="56">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2141,7 +2157,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
@@ -2179,7 +2195,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
@@ -2217,7 +2233,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
@@ -2255,7 +2271,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
@@ -2293,7 +2309,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
@@ -2332,15 +2348,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2351,6 +2358,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2366,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,11 +2399,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2396,9 +2412,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2416,10 +2432,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="59"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2458,10 +2474,10 @@
       <c r="C5" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="73"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="44" t="s">
         <v>92</v>
       </c>
@@ -2486,10 +2502,10 @@
         <v>120</v>
       </c>
       <c r="C6" s="26"/>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="75"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="27" t="s">
         <v>92</v>
       </c>
@@ -2518,8 +2534,8 @@
         <v>121</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="27" t="s">
         <v>92</v>
       </c>
@@ -2548,10 +2564,10 @@
         <v>109</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="79"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="22" t="s">
         <v>66</v>
       </c>
@@ -2574,8 +2590,8 @@
         <v>111</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="22" t="s">
         <v>66</v>
       </c>
@@ -2598,8 +2614,8 @@
         <v>112</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
       <c r="F10" s="22" t="s">
         <v>66</v>
       </c>
@@ -2622,8 +2638,8 @@
         <v>113</v>
       </c>
       <c r="C11" s="21"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
       <c r="F11" s="22" t="s">
         <v>66</v>
       </c>
@@ -2646,10 +2662,10 @@
         <v>110</v>
       </c>
       <c r="C12" s="31"/>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="85"/>
+      <c r="E12" s="91"/>
       <c r="F12" s="32" t="s">
         <v>66</v>
       </c>
@@ -2672,8 +2688,8 @@
         <v>114</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="32" t="s">
         <v>66</v>
       </c>
@@ -2696,8 +2712,8 @@
         <v>126</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="32" t="s">
         <v>66</v>
       </c>
@@ -2720,8 +2736,8 @@
         <v>115</v>
       </c>
       <c r="C15" s="37"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="32" t="s">
         <v>66</v>
       </c>
@@ -2744,8 +2760,8 @@
         <v>116</v>
       </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
       <c r="F16" s="32" t="s">
         <v>66</v>
       </c>
@@ -2768,10 +2784,10 @@
         <v>127</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="91"/>
+      <c r="E17" s="97"/>
       <c r="F17" s="41" t="s">
         <v>76</v>
       </c>
@@ -2794,8 +2810,8 @@
         <v>122</v>
       </c>
       <c r="C18" s="40"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="93"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
       <c r="F18" s="41" t="s">
         <v>66</v>
       </c>
@@ -2818,8 +2834,8 @@
         <v>123</v>
       </c>
       <c r="C19" s="40"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="93"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="41" t="s">
         <v>66</v>
       </c>
@@ -2842,8 +2858,8 @@
         <v>124</v>
       </c>
       <c r="C20" s="40"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
       <c r="F20" s="41" t="s">
         <v>66</v>
       </c>
@@ -2866,10 +2882,10 @@
         <v>117</v>
       </c>
       <c r="C21" s="40"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="93"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
       <c r="F21" s="41" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G21" s="39">
         <v>2</v>
@@ -2892,8 +2908,8 @@
         <v>118</v>
       </c>
       <c r="C22" s="40"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
       <c r="F22" s="41" t="s">
         <v>76</v>
       </c>
@@ -2916,8 +2932,8 @@
         <v>125</v>
       </c>
       <c r="C23" s="40"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
       <c r="F23" s="41" t="s">
         <v>66</v>
       </c>
@@ -2940,10 +2956,10 @@
         <v>119</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="100" t="s">
+      <c r="D24" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="101"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="27" t="s">
         <v>66</v>
       </c>
@@ -2959,7 +2975,7 @@
       <c r="N24" s="27"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="62">
+      <c r="A43" s="56">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -2979,19 +2995,19 @@
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="65" t="s">
+      <c r="D44" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="60" t="s">
+      <c r="E44" s="69"/>
+      <c r="F44" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="96">
+      <c r="G44" s="65">
         <v>4</v>
       </c>
       <c r="H44" s="10"/>
@@ -3003,15 +3019,15 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="97"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="66"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -3021,15 +3037,15 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="98"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="67"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -3039,7 +3055,7 @@
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="10" t="s">
         <v>102</v>
       </c>
@@ -3065,19 +3081,19 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="66"/>
+      <c r="E48" s="69"/>
       <c r="F48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="96">
+      <c r="G48" s="65">
         <v>4</v>
       </c>
       <c r="H48" s="10"/>
@@ -3089,17 +3105,17 @@
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="71"/>
       <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="98"/>
+      <c r="G49" s="67"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -3109,7 +3125,7 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
+      <c r="A50" s="77"/>
       <c r="B50" s="6" t="s">
         <v>106</v>
       </c>
@@ -3134,11 +3150,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -3151,6 +3162,11 @@
     <mergeCell ref="D8:E11"/>
     <mergeCell ref="D12:E16"/>
     <mergeCell ref="D17:E23"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">
@@ -3166,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3216,7 +3232,9 @@
       <c r="C4" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="51" t="s">
+        <v>140</v>
+      </c>
       <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3225,18 +3243,24 @@
       <c r="C5" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="103"/>
       <c r="B6" s="52" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="51"/>
+        <v>143</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>142</v>
+      </c>
       <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3247,8 +3271,12 @@
       <c r="C7" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="D7" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="51">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="105" t="s">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -880,6 +880,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -889,6 +892,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -898,23 +919,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -925,18 +1021,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -946,87 +1030,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1041,9 +1044,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,7 +1105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1140,7 +1140,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1408,10 +1408,10 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1425,8 +1425,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1438,8 +1438,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1466,10 +1466,10 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1483,8 +1483,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1513,10 +1513,10 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="54" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1530,8 +1530,8 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1543,8 +1543,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1556,10 +1556,10 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="54" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1573,8 +1573,8 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1586,8 +1586,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1599,8 +1599,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1612,10 +1612,10 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="54" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1629,8 +1629,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1642,10 +1642,10 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="54" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1659,8 +1659,8 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1670,18 +1670,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1709,11 +1709,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1722,9 +1722,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1742,10 +1742,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1784,10 +1784,10 @@
       <c r="C5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="10" t="s">
         <v>92</v>
       </c>
@@ -1826,10 +1826,10 @@
       <c r="C6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="10" t="s">
         <v>92</v>
       </c>
@@ -1866,10 +1866,10 @@
         <v>95</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="10" t="s">
         <v>92</v>
       </c>
@@ -1902,10 +1902,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="10" t="s">
         <v>92</v>
       </c>
@@ -1942,10 +1942,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="10" t="s">
         <v>92</v>
       </c>
@@ -1981,13 +1981,13 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="10" t="s">
         <v>92</v>
       </c>
@@ -2023,11 +2023,11 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="54" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="55"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="10" t="s">
         <v>92</v>
       </c>
@@ -2064,10 +2064,10 @@
         <v>85</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="55"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="10" t="s">
         <v>76</v>
       </c>
@@ -2104,10 +2104,10 @@
         <v>86</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="55"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="10" t="s">
         <v>92</v>
       </c>
@@ -2137,15 +2137,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="63">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2157,15 +2157,15 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="55"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="10" t="s">
         <v>92</v>
       </c>
@@ -2195,15 +2195,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="55"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="10" t="s">
         <v>92</v>
       </c>
@@ -2233,15 +2233,15 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="55"/>
+      <c r="E17" s="56"/>
       <c r="F17" s="10" t="s">
         <v>92</v>
       </c>
@@ -2271,15 +2271,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="55"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="10" t="s">
         <v>92</v>
       </c>
@@ -2309,15 +2309,15 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="55"/>
+      <c r="E19" s="56"/>
       <c r="F19" s="10" t="s">
         <v>92</v>
       </c>
@@ -2348,6 +2348,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2358,15 +2367,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2382,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,11 +2399,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2412,9 +2412,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2432,10 +2432,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2474,10 +2474,10 @@
       <c r="C5" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="79"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="44" t="s">
         <v>92</v>
       </c>
@@ -2502,10 +2502,10 @@
         <v>120</v>
       </c>
       <c r="C6" s="26"/>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="81"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="27" t="s">
         <v>92</v>
       </c>
@@ -2534,8 +2534,8 @@
         <v>121</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="27" t="s">
         <v>92</v>
       </c>
@@ -2564,10 +2564,10 @@
         <v>109</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="85"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="22" t="s">
         <v>66</v>
       </c>
@@ -2590,8 +2590,8 @@
         <v>111</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="22" t="s">
         <v>66</v>
       </c>
@@ -2614,8 +2614,8 @@
         <v>112</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="22" t="s">
         <v>66</v>
       </c>
@@ -2638,8 +2638,8 @@
         <v>113</v>
       </c>
       <c r="C11" s="21"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
       <c r="F11" s="22" t="s">
         <v>66</v>
       </c>
@@ -2662,10 +2662,10 @@
         <v>110</v>
       </c>
       <c r="C12" s="31"/>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="91"/>
+      <c r="E12" s="86"/>
       <c r="F12" s="32" t="s">
         <v>66</v>
       </c>
@@ -2688,8 +2688,8 @@
         <v>114</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="93"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="32" t="s">
         <v>66</v>
       </c>
@@ -2712,8 +2712,8 @@
         <v>126</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
       <c r="F14" s="32" t="s">
         <v>66</v>
       </c>
@@ -2736,8 +2736,8 @@
         <v>115</v>
       </c>
       <c r="C15" s="37"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="93"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="32" t="s">
         <v>66</v>
       </c>
@@ -2760,8 +2760,8 @@
         <v>116</v>
       </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="32" t="s">
         <v>66</v>
       </c>
@@ -2784,10 +2784,10 @@
         <v>127</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="97"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="41" t="s">
         <v>76</v>
       </c>
@@ -2810,8 +2810,8 @@
         <v>122</v>
       </c>
       <c r="C18" s="40"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="41" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +2834,8 @@
         <v>123</v>
       </c>
       <c r="C19" s="40"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="41" t="s">
         <v>66</v>
       </c>
@@ -2858,8 +2858,8 @@
         <v>124</v>
       </c>
       <c r="C20" s="40"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
       <c r="F20" s="41" t="s">
         <v>66</v>
       </c>
@@ -2882,10 +2882,10 @@
         <v>117</v>
       </c>
       <c r="C21" s="40"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
       <c r="F21" s="41" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G21" s="39">
         <v>2</v>
@@ -2895,7 +2895,9 @@
       <c r="J21" s="39">
         <v>1.5</v>
       </c>
-      <c r="K21" s="40"/>
+      <c r="K21" s="40">
+        <v>1</v>
+      </c>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
       <c r="N21" s="41"/>
@@ -2908,8 +2910,8 @@
         <v>118</v>
       </c>
       <c r="C22" s="40"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="99"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
       <c r="F22" s="41" t="s">
         <v>76</v>
       </c>
@@ -2932,8 +2934,8 @@
         <v>125</v>
       </c>
       <c r="C23" s="40"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
       <c r="F23" s="41" t="s">
         <v>66</v>
       </c>
@@ -2956,10 +2958,10 @@
         <v>119</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="74"/>
+      <c r="E24" s="102"/>
       <c r="F24" s="27" t="s">
         <v>66</v>
       </c>
@@ -2975,15 +2977,15 @@
       <c r="N24" s="27"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="56">
+      <c r="A43" s="63">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="56"/>
       <c r="F43" s="10"/>
       <c r="G43" s="17"/>
       <c r="H43" s="10"/>
@@ -2995,19 +2997,19 @@
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="68" t="s">
+      <c r="D44" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="69"/>
-      <c r="F44" s="63" t="s">
+      <c r="E44" s="67"/>
+      <c r="F44" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="65">
+      <c r="G44" s="97">
         <v>4</v>
       </c>
       <c r="H44" s="10"/>
@@ -3019,15 +3021,15 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="66"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="98"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -3037,15 +3039,15 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="70"/>
       <c r="E46" s="71"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="67"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="99"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -3055,17 +3057,17 @@
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="55"/>
+      <c r="E47" s="56"/>
       <c r="F47" s="15" t="s">
         <v>76</v>
       </c>
@@ -3081,19 +3083,19 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="69"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="65">
+      <c r="G48" s="97">
         <v>4</v>
       </c>
       <c r="H48" s="10"/>
@@ -3105,7 +3107,7 @@
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+      <c r="A49" s="64"/>
       <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
@@ -3115,7 +3117,7 @@
       <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="67"/>
+      <c r="G49" s="99"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -3125,15 +3127,15 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C50" s="10"/>
-      <c r="D50" s="54" t="s">
+      <c r="D50" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="55"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="15" t="s">
         <v>66</v>
       </c>
@@ -3150,6 +3152,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -3162,11 +3169,6 @@
     <mergeCell ref="D8:E11"/>
     <mergeCell ref="D12:E16"/>
     <mergeCell ref="D17:E23"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">
@@ -3182,8 +3184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3197,13 +3199,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
@@ -3223,10 +3225,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="104" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="51" t="s">
@@ -3238,8 +3240,8 @@
       <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="102"/>
-      <c r="B5" s="103"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="51" t="s">
         <v>137</v>
       </c>
@@ -3251,20 +3253,20 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="52" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="53" t="s">
         <v>142</v>
       </c>
       <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="103"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="52" t="s">
         <v>68</v>
       </c>
@@ -3279,10 +3281,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="107" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="49" t="s">
@@ -3292,8 +3294,8 @@
       <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
-      <c r="B9" s="106"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="49" t="s">
         <v>138</v>
       </c>
@@ -3301,7 +3303,7 @@
       <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="50" t="s">
         <v>108</v>
       </c>
@@ -3312,7 +3314,7 @@
       <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="50" t="s">
         <v>68</v>
       </c>
@@ -3323,7 +3325,7 @@
       <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="106" t="s">
         <v>135</v>
       </c>
       <c r="B12" s="50" t="s">
@@ -3336,7 +3338,7 @@
       <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="106"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="50" t="s">
         <v>108</v>
       </c>
@@ -3347,7 +3349,7 @@
       <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="106"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="50" t="s">
         <v>68</v>
       </c>
@@ -3358,7 +3360,7 @@
       <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="106" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="50" t="s">
@@ -3371,7 +3373,7 @@
       <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="106"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="50" t="s">
         <v>108</v>
       </c>
@@ -3382,7 +3384,7 @@
       <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="106"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="50" t="s">
         <v>68</v>
       </c>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -447,17 +447,17 @@
     <t>Wait for approve</t>
   </si>
   <si>
-    <t>Not meet the deadline</t>
-  </si>
-  <si>
     <t>Not working on it</t>
   </si>
   <si>
-    <t>In time:
-Not meet the demand</t>
+    <t>In time</t>
   </si>
   <si>
     <t>Design site page builder</t>
+  </si>
+  <si>
+    <t>Not meet the deadline:
+lack of some enities, confuse about entity relation</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1044,6 +1044,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,7 +1111,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1140,7 +1146,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2382,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,7 +2891,7 @@
       <c r="D21" s="93"/>
       <c r="E21" s="94"/>
       <c r="F21" s="41" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G21" s="39">
         <v>2</v>
@@ -2895,36 +2901,34 @@
       <c r="J21" s="39">
         <v>1.5</v>
       </c>
-      <c r="K21" s="40">
-        <v>1</v>
-      </c>
+      <c r="K21" s="40"/>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
       <c r="N21" s="41"/>
     </row>
-    <row r="22" spans="1:14" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+    <row r="22" spans="1:14" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="43">
         <v>19</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="93"/>
       <c r="E22" s="94"/>
-      <c r="F22" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="39">
-        <v>2</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="41"/>
+      <c r="F22" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="44">
+        <v>2</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="109"/>
     </row>
     <row r="23" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
@@ -3185,7 +3189,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3224,7 +3228,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="103" t="s">
         <v>132</v>
       </c>
@@ -3234,10 +3238,12 @@
       <c r="C4" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="51"/>
+      <c r="D4" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="51">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="103"/>
@@ -3246,24 +3252,26 @@
         <v>137</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="104"/>
       <c r="B6" s="52" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="51"/>
+        <v>141</v>
+      </c>
+      <c r="E6" s="51">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="104"/>
@@ -3274,7 +3282,7 @@
         <v>137</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="51">
         <v>0</v>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -728,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -880,8 +880,11 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -892,6 +895,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,13 +923,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -925,18 +937,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -946,18 +967,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1012,24 +1021,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1046,10 +1037,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1414,10 +1424,10 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1431,8 +1441,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1444,8 +1454,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1457,7 +1467,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1472,10 +1482,10 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1489,8 +1499,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1519,10 +1529,10 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1536,8 +1546,8 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1549,8 +1559,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1562,10 +1572,10 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1579,8 +1589,8 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1592,8 +1602,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1615,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1618,10 +1628,10 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="55" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1635,8 +1645,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1648,10 +1658,10 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1665,8 +1675,8 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1676,18 +1686,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1715,11 +1725,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1728,9 +1738,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1748,10 +1758,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="60"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1790,10 +1800,10 @@
       <c r="C5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="10" t="s">
         <v>92</v>
       </c>
@@ -1832,10 +1842,10 @@
       <c r="C6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="56"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="10" t="s">
         <v>92</v>
       </c>
@@ -1872,10 +1882,10 @@
         <v>95</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="10" t="s">
         <v>92</v>
       </c>
@@ -1908,10 +1918,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="56"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="10" t="s">
         <v>92</v>
       </c>
@@ -1948,10 +1958,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="56"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="10" t="s">
         <v>92</v>
       </c>
@@ -1987,13 +1997,13 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="10" t="s">
         <v>92</v>
       </c>
@@ -2029,11 +2039,11 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="55" t="s">
+      <c r="C11" s="66"/>
+      <c r="D11" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="56"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="10" t="s">
         <v>92</v>
       </c>
@@ -2070,10 +2080,10 @@
         <v>85</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="56"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="10" t="s">
         <v>76</v>
       </c>
@@ -2110,10 +2120,10 @@
         <v>86</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="56"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="10" t="s">
         <v>92</v>
       </c>
@@ -2143,15 +2153,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="63">
+      <c r="A14" s="58">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2163,15 +2173,15 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="10" t="s">
         <v>92</v>
       </c>
@@ -2201,15 +2211,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="56"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="10" t="s">
         <v>92</v>
       </c>
@@ -2239,15 +2249,15 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="56"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="10" t="s">
         <v>92</v>
       </c>
@@ -2277,15 +2287,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="56"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="10" t="s">
         <v>92</v>
       </c>
@@ -2315,15 +2325,15 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="56"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="10" t="s">
         <v>92</v>
       </c>
@@ -2354,15 +2364,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2373,6 +2374,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2388,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,11 +2415,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2418,9 +2428,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2438,10 +2448,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="60"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2480,10 +2490,10 @@
       <c r="C5" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="74"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="44" t="s">
         <v>92</v>
       </c>
@@ -2500,67 +2510,67 @@
       <c r="M5" s="44"/>
       <c r="N5" s="44"/>
     </row>
-    <row r="6" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+    <row r="6" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
         <v>3</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="75" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="111"/>
+      <c r="F6" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="25">
-        <v>2</v>
-      </c>
-      <c r="H6" s="25">
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <v>2</v>
-      </c>
-      <c r="J6" s="25">
-        <v>0</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-    </row>
-    <row r="7" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="G6" s="44">
+        <v>2</v>
+      </c>
+      <c r="H6" s="44">
+        <v>0</v>
+      </c>
+      <c r="I6" s="44">
+        <v>2</v>
+      </c>
+      <c r="J6" s="44">
+        <v>0</v>
+      </c>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+    </row>
+    <row r="7" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="27" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="25">
-        <v>2</v>
-      </c>
-      <c r="H7" s="25">
-        <v>0</v>
-      </c>
-      <c r="I7" s="25">
-        <v>0</v>
-      </c>
-      <c r="J7" s="25">
-        <v>2</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
+      <c r="G7" s="44">
+        <v>2</v>
+      </c>
+      <c r="H7" s="44">
+        <v>0</v>
+      </c>
+      <c r="I7" s="44">
+        <v>0</v>
+      </c>
+      <c r="J7" s="44">
+        <v>2</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -2570,10 +2580,10 @@
         <v>109</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="80"/>
+      <c r="E8" s="83"/>
       <c r="F8" s="22" t="s">
         <v>66</v>
       </c>
@@ -2596,8 +2606,8 @@
         <v>111</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="22" t="s">
         <v>66</v>
       </c>
@@ -2620,8 +2630,8 @@
         <v>112</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="22" t="s">
         <v>66</v>
       </c>
@@ -2644,8 +2654,8 @@
         <v>113</v>
       </c>
       <c r="C11" s="21"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="22" t="s">
         <v>66</v>
       </c>
@@ -2668,10 +2678,10 @@
         <v>110</v>
       </c>
       <c r="C12" s="31"/>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="86"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="32" t="s">
         <v>66</v>
       </c>
@@ -2694,8 +2704,8 @@
         <v>114</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
       <c r="F13" s="32" t="s">
         <v>66</v>
       </c>
@@ -2718,8 +2728,8 @@
         <v>126</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
       <c r="F14" s="32" t="s">
         <v>66</v>
       </c>
@@ -2742,8 +2752,8 @@
         <v>115</v>
       </c>
       <c r="C15" s="37"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
       <c r="F15" s="32" t="s">
         <v>66</v>
       </c>
@@ -2766,8 +2776,8 @@
         <v>116</v>
       </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="32" t="s">
         <v>66</v>
       </c>
@@ -2790,10 +2800,10 @@
         <v>127</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="92"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="41" t="s">
         <v>76</v>
       </c>
@@ -2816,8 +2826,8 @@
         <v>122</v>
       </c>
       <c r="C18" s="40"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="41" t="s">
         <v>66</v>
       </c>
@@ -2840,8 +2850,8 @@
         <v>123</v>
       </c>
       <c r="C19" s="40"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="41" t="s">
         <v>66</v>
       </c>
@@ -2864,8 +2874,8 @@
         <v>124</v>
       </c>
       <c r="C20" s="40"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="41" t="s">
         <v>66</v>
       </c>
@@ -2880,55 +2890,55 @@
       <c r="M20" s="40"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+    <row r="21" spans="1:14" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43">
         <v>18</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="41" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="44">
+        <v>2</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="54"/>
+    </row>
+    <row r="22" spans="1:14" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <v>19</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="39">
-        <v>2</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39">
-        <v>1.5</v>
-      </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="41"/>
-    </row>
-    <row r="22" spans="1:14" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
-        <v>19</v>
-      </c>
-      <c r="B22" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="109" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="44">
-        <v>2</v>
-      </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="109"/>
+      <c r="G22" s="39">
+        <v>2</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="23" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
@@ -2938,8 +2948,8 @@
         <v>125</v>
       </c>
       <c r="C23" s="40"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="96"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="99"/>
       <c r="F23" s="41" t="s">
         <v>66</v>
       </c>
@@ -2962,12 +2972,12 @@
         <v>119</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="102"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="27" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G24" s="25">
         <v>5</v>
@@ -2981,15 +2991,15 @@
       <c r="N24" s="27"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="63">
+      <c r="A43" s="58">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="57"/>
       <c r="F43" s="10"/>
       <c r="G43" s="17"/>
       <c r="H43" s="10"/>
@@ -3001,19 +3011,19 @@
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="67"/>
-      <c r="F44" s="61" t="s">
+      <c r="E44" s="71"/>
+      <c r="F44" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="97">
+      <c r="G44" s="67">
         <v>4</v>
       </c>
       <c r="H44" s="10"/>
@@ -3025,15 +3035,15 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="98"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="68"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -3043,15 +3053,15 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="99"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="69"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -3061,17 +3071,17 @@
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="56"/>
+      <c r="E47" s="57"/>
       <c r="F47" s="15" t="s">
         <v>76</v>
       </c>
@@ -3087,19 +3097,19 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="66" t="s">
+      <c r="D48" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="67"/>
+      <c r="E48" s="71"/>
       <c r="F48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="97">
+      <c r="G48" s="67">
         <v>4</v>
       </c>
       <c r="H48" s="10"/>
@@ -3111,17 +3121,17 @@
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="71"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="73"/>
       <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="99"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -3131,15 +3141,15 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="72"/>
+      <c r="A50" s="79"/>
       <c r="B50" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C50" s="10"/>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="56"/>
+      <c r="E50" s="57"/>
       <c r="F50" s="15" t="s">
         <v>66</v>
       </c>
@@ -3156,11 +3166,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -3173,6 +3178,11 @@
     <mergeCell ref="D8:E11"/>
     <mergeCell ref="D12:E16"/>
     <mergeCell ref="D17:E23"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">
@@ -3189,7 +3199,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3203,13 +3213,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
@@ -3229,111 +3239,111 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="107">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="51" t="s">
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="107">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="104"/>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="106"/>
+      <c r="B6" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="107">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="104"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="106"/>
+      <c r="B7" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="107">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="106"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="49" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="107"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="101"/>
+      <c r="B11" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="103" t="s">
         <v>135</v>
       </c>
       <c r="B12" s="50" t="s">
@@ -3346,7 +3356,7 @@
       <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="107"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="50" t="s">
         <v>108</v>
       </c>
@@ -3357,7 +3367,7 @@
       <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="107"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="50" t="s">
         <v>68</v>
       </c>
@@ -3368,7 +3378,7 @@
       <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="103" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="50" t="s">
@@ -3381,7 +3391,7 @@
       <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="107"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="50" t="s">
         <v>108</v>
       </c>
@@ -3392,7 +3402,7 @@
       <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="107"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="50" t="s">
         <v>68</v>
       </c>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -2398,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,8 +2984,12 @@
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="26"/>
+      <c r="J24" s="25">
+        <v>2</v>
+      </c>
+      <c r="K24" s="26">
+        <v>2</v>
+      </c>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
       <c r="N24" s="27"/>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -441,9 +441,6 @@
     <t>Design</t>
   </si>
   <si>
-    <t>Physical DB</t>
-  </si>
-  <si>
     <t>Wait for approve</t>
   </si>
   <si>
@@ -456,8 +453,17 @@
     <t>Design site page builder</t>
   </si>
   <si>
+    <t>Not meet the deadline.
+Delay 1 former task 
+Not fill in the backlog</t>
+  </si>
+  <si>
+    <t>In time
+Need more focus to complete assigned  task</t>
+  </si>
+  <si>
     <t>Not meet the deadline:
-lack of some enities, confuse about entity relation</t>
+Lack of some enities, confuse about entity relation</t>
   </si>
 </sst>
 </file>
@@ -728,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -873,193 +879,196 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1424,10 +1433,10 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="57" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1441,8 +1450,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1454,8 +1463,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1467,7 +1476,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1482,10 +1491,10 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1499,8 +1508,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1529,10 +1538,10 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="57" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1546,8 +1555,8 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1559,8 +1568,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1572,10 +1581,10 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="57" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1589,8 +1598,8 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1602,8 +1611,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1615,8 +1624,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1628,10 +1637,10 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="57" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1645,8 +1654,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1658,10 +1667,10 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="57" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1675,8 +1684,8 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1686,18 +1695,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1725,11 +1734,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1738,9 +1747,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1758,10 +1767,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="64"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1800,10 +1809,10 @@
       <c r="C5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="57"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="10" t="s">
         <v>92</v>
       </c>
@@ -1842,10 +1851,10 @@
       <c r="C6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="10" t="s">
         <v>92</v>
       </c>
@@ -1882,10 +1891,10 @@
         <v>95</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="10" t="s">
         <v>92</v>
       </c>
@@ -1918,10 +1927,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="10" t="s">
         <v>92</v>
       </c>
@@ -1958,10 +1967,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="57"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="10" t="s">
         <v>92</v>
       </c>
@@ -1997,13 +2006,13 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="10" t="s">
         <v>92</v>
       </c>
@@ -2039,11 +2048,11 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="56" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="57"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="10" t="s">
         <v>92</v>
       </c>
@@ -2080,10 +2089,10 @@
         <v>85</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="57"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="10" t="s">
         <v>76</v>
       </c>
@@ -2120,10 +2129,10 @@
         <v>86</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="57"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="10" t="s">
         <v>92</v>
       </c>
@@ -2153,15 +2162,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
+      <c r="A14" s="66">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2173,15 +2182,15 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="10" t="s">
         <v>92</v>
       </c>
@@ -2211,15 +2220,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="57"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="10" t="s">
         <v>92</v>
       </c>
@@ -2249,15 +2258,15 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="57"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="10" t="s">
         <v>92</v>
       </c>
@@ -2287,15 +2296,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="57"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="10" t="s">
         <v>92</v>
       </c>
@@ -2325,15 +2334,15 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="57"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="10" t="s">
         <v>92</v>
       </c>
@@ -2364,6 +2373,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2374,15 +2392,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2398,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,11 +2424,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2428,9 +2437,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2448,10 +2457,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="64"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2490,10 +2499,10 @@
       <c r="C5" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="81"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="44" t="s">
         <v>92</v>
       </c>
@@ -2517,12 +2526,12 @@
       <c r="B6" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="110" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="54" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="52" t="s">
         <v>92</v>
       </c>
       <c r="G6" s="44">
@@ -2549,10 +2558,10 @@
       <c r="B7" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="54" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="52" t="s">
         <v>92</v>
       </c>
       <c r="G7" s="44">
@@ -2897,10 +2906,10 @@
       <c r="B21" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="96"/>
       <c r="E21" s="97"/>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="52" t="s">
         <v>92</v>
       </c>
       <c r="G21" s="44">
@@ -2911,10 +2920,10 @@
       <c r="J21" s="44">
         <v>1.5</v>
       </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="54"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="52"/>
     </row>
     <row r="22" spans="1:14" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
@@ -2972,10 +2981,10 @@
         <v>119</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="76"/>
+      <c r="E24" s="105"/>
       <c r="F24" s="27" t="s">
         <v>76</v>
       </c>
@@ -2995,15 +3004,15 @@
       <c r="N24" s="27"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="58">
+      <c r="A43" s="66">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="59"/>
       <c r="F43" s="10"/>
       <c r="G43" s="17"/>
       <c r="H43" s="10"/>
@@ -3015,19 +3024,19 @@
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="70" t="s">
+      <c r="D44" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="65" t="s">
+      <c r="E44" s="70"/>
+      <c r="F44" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="67">
+      <c r="G44" s="100">
         <v>4</v>
       </c>
       <c r="H44" s="10"/>
@@ -3039,15 +3048,15 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="68"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="101"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -3057,15 +3066,15 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="69"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="102"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -3075,17 +3084,17 @@
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="56" t="s">
+      <c r="D47" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="57"/>
+      <c r="E47" s="59"/>
       <c r="F47" s="15" t="s">
         <v>76</v>
       </c>
@@ -3101,19 +3110,19 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="71"/>
+      <c r="E48" s="70"/>
       <c r="F48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="67">
+      <c r="G48" s="100">
         <v>4</v>
       </c>
       <c r="H48" s="10"/>
@@ -3125,17 +3134,17 @@
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="74"/>
       <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="69"/>
+      <c r="G49" s="102"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -3145,15 +3154,15 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
+      <c r="A50" s="75"/>
       <c r="B50" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C50" s="10"/>
-      <c r="D50" s="56" t="s">
+      <c r="D50" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="57"/>
+      <c r="E50" s="59"/>
       <c r="F50" s="15" t="s">
         <v>66</v>
       </c>
@@ -3170,6 +3179,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -3182,11 +3196,6 @@
     <mergeCell ref="D8:E11"/>
     <mergeCell ref="D12:E16"/>
     <mergeCell ref="D17:E23"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">
@@ -3200,10 +3209,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3217,13 +3226,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
@@ -3243,188 +3252,190 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="106"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="107"/>
+      <c r="B6" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="107"/>
+      <c r="B7" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="109" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A9" s="110"/>
+      <c r="B9" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="107">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107" t="s">
+      <c r="E9" s="50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="110"/>
+      <c r="B10" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="107" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
-      <c r="B6" s="109" t="s">
+      <c r="D10" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="112"/>
+      <c r="B12" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="107">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="106"/>
-      <c r="B7" s="109" t="s">
+      <c r="C12" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="112"/>
+      <c r="B13" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C13" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="107" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="101" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="49"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C14" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="101"/>
-      <c r="B10" s="52" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="49"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="112"/>
+      <c r="B15" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C15" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="101"/>
-      <c r="B11" s="52" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="49"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="112"/>
+      <c r="B16" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C16" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="104"/>
-      <c r="B13" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="104"/>
-      <c r="B14" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="104"/>
-      <c r="B16" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="49"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="104"/>
-      <c r="B17" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3456,7 +3467,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -448,9 +448,6 @@
   </si>
   <si>
     <t>In time</t>
-  </si>
-  <si>
-    <t>Design site page builder</t>
   </si>
   <si>
     <t>Not meet the deadline.
@@ -458,12 +455,13 @@
 Not fill in the backlog</t>
   </si>
   <si>
-    <t>In time
-Need more focus to complete assigned  task</t>
-  </si>
-  <si>
     <t>Not meet the deadline:
 Lack of some enities, confuse about entity relation</t>
+  </si>
+  <si>
+    <t>Not meet the deadline.
+Missing some relative page
+Need more focus to complete assigned  task</t>
   </si>
 </sst>
 </file>
@@ -734,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -878,8 +876,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -892,10 +888,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -905,6 +906,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,13 +934,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,18 +948,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1025,24 +1044,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1063,12 +1064,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,10 +1428,10 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="56" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1450,8 +1445,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1463,8 +1458,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1476,7 +1471,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1491,10 +1486,10 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1508,8 +1503,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1538,10 +1533,10 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="56" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1555,8 +1550,8 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1568,8 +1563,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1581,10 +1576,10 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="56" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1598,8 +1593,8 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1611,8 +1606,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1624,8 +1619,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1637,10 +1632,10 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="56" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1654,8 +1649,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1667,10 +1662,10 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="56" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1684,8 +1679,8 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1695,18 +1690,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1734,11 +1729,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1747,9 +1742,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1767,10 +1762,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1809,10 +1804,10 @@
       <c r="C5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="10" t="s">
         <v>92</v>
       </c>
@@ -1851,10 +1846,10 @@
       <c r="C6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="10" t="s">
         <v>92</v>
       </c>
@@ -1891,10 +1886,10 @@
         <v>95</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="10" t="s">
         <v>92</v>
       </c>
@@ -1927,10 +1922,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="10" t="s">
         <v>92</v>
       </c>
@@ -1967,10 +1962,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="59"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="10" t="s">
         <v>92</v>
       </c>
@@ -2006,13 +2001,13 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="59"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="10" t="s">
         <v>92</v>
       </c>
@@ -2048,11 +2043,11 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="58" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="59"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="10" t="s">
         <v>92</v>
       </c>
@@ -2089,10 +2084,10 @@
         <v>85</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="59"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="10" t="s">
         <v>76</v>
       </c>
@@ -2129,10 +2124,10 @@
         <v>86</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="59"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="10" t="s">
         <v>92</v>
       </c>
@@ -2162,15 +2157,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="66">
+      <c r="A14" s="59">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2182,15 +2177,15 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="59"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="10" t="s">
         <v>92</v>
       </c>
@@ -2220,15 +2215,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="59"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="10" t="s">
         <v>92</v>
       </c>
@@ -2258,15 +2253,15 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="59"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="10" t="s">
         <v>92</v>
       </c>
@@ -2296,15 +2291,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="59"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="10" t="s">
         <v>92</v>
       </c>
@@ -2334,15 +2329,15 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="59"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="10" t="s">
         <v>92</v>
       </c>
@@ -2373,15 +2368,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2392,6 +2378,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2407,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,11 +2419,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2437,9 +2432,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2457,10 +2452,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2499,10 +2494,10 @@
       <c r="C5" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="77"/>
+      <c r="E5" s="82"/>
       <c r="F5" s="44" t="s">
         <v>92</v>
       </c>
@@ -2526,12 +2521,12 @@
       <c r="B6" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="78" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="50" t="s">
         <v>92</v>
       </c>
       <c r="G6" s="44">
@@ -2558,10 +2553,10 @@
       <c r="B7" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="52" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="50" t="s">
         <v>92</v>
       </c>
       <c r="G7" s="44">
@@ -2589,10 +2584,10 @@
         <v>109</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="83"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="22" t="s">
         <v>66</v>
       </c>
@@ -2615,8 +2610,8 @@
         <v>111</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="22" t="s">
         <v>66</v>
       </c>
@@ -2639,8 +2634,8 @@
         <v>112</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="22" t="s">
         <v>66</v>
       </c>
@@ -2663,8 +2658,8 @@
         <v>113</v>
       </c>
       <c r="C11" s="21"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="22" t="s">
         <v>66</v>
       </c>
@@ -2687,10 +2682,10 @@
         <v>110</v>
       </c>
       <c r="C12" s="31"/>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="89"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="32" t="s">
         <v>66</v>
       </c>
@@ -2713,8 +2708,8 @@
         <v>114</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="32" t="s">
         <v>66</v>
       </c>
@@ -2737,8 +2732,8 @@
         <v>126</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
       <c r="F14" s="32" t="s">
         <v>66</v>
       </c>
@@ -2761,8 +2756,8 @@
         <v>115</v>
       </c>
       <c r="C15" s="37"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="96"/>
       <c r="F15" s="32" t="s">
         <v>66</v>
       </c>
@@ -2785,8 +2780,8 @@
         <v>116</v>
       </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="32" t="s">
         <v>66</v>
       </c>
@@ -2809,10 +2804,10 @@
         <v>127</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="95"/>
+      <c r="E17" s="100"/>
       <c r="F17" s="41" t="s">
         <v>76</v>
       </c>
@@ -2835,8 +2830,8 @@
         <v>122</v>
       </c>
       <c r="C18" s="40"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
       <c r="F18" s="41" t="s">
         <v>66</v>
       </c>
@@ -2859,8 +2854,8 @@
         <v>123</v>
       </c>
       <c r="C19" s="40"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="97"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="41" t="s">
         <v>66</v>
       </c>
@@ -2883,8 +2878,8 @@
         <v>124</v>
       </c>
       <c r="C20" s="40"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
       <c r="F20" s="41" t="s">
         <v>66</v>
       </c>
@@ -2906,10 +2901,10 @@
       <c r="B21" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="52" t="s">
+      <c r="C21" s="49"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="50" t="s">
         <v>92</v>
       </c>
       <c r="G21" s="44">
@@ -2920,10 +2915,10 @@
       <c r="J21" s="44">
         <v>1.5</v>
       </c>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="52"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="50"/>
     </row>
     <row r="22" spans="1:14" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
@@ -2933,8 +2928,8 @@
         <v>118</v>
       </c>
       <c r="C22" s="40"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
       <c r="F22" s="41" t="s">
         <v>76</v>
       </c>
@@ -2957,8 +2952,8 @@
         <v>125</v>
       </c>
       <c r="C23" s="40"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="99"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="41" t="s">
         <v>66</v>
       </c>
@@ -2981,10 +2976,10 @@
         <v>119</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="104" t="s">
+      <c r="D24" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="105"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="27" t="s">
         <v>76</v>
       </c>
@@ -3004,15 +2999,15 @@
       <c r="N24" s="27"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="66">
+      <c r="A43" s="59">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="59"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
       <c r="F43" s="10"/>
       <c r="G43" s="17"/>
       <c r="H43" s="10"/>
@@ -3024,19 +3019,19 @@
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="69" t="s">
+      <c r="D44" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="64" t="s">
+      <c r="E44" s="72"/>
+      <c r="F44" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="100">
+      <c r="G44" s="68">
         <v>4</v>
       </c>
       <c r="H44" s="10"/>
@@ -3048,15 +3043,15 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="101"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="69"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -3066,15 +3061,15 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="73"/>
       <c r="E46" s="74"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="102"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="70"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -3084,17 +3079,17 @@
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="D47" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="59"/>
+      <c r="E47" s="58"/>
       <c r="F47" s="15" t="s">
         <v>76</v>
       </c>
@@ -3110,19 +3105,19 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="70"/>
+      <c r="E48" s="72"/>
       <c r="F48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="100">
+      <c r="G48" s="68">
         <v>4</v>
       </c>
       <c r="H48" s="10"/>
@@ -3134,7 +3129,7 @@
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
@@ -3144,7 +3139,7 @@
       <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="102"/>
+      <c r="G49" s="70"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -3154,15 +3149,15 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="75"/>
+      <c r="A50" s="80"/>
       <c r="B50" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C50" s="10"/>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="59"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="15" t="s">
         <v>66</v>
       </c>
@@ -3179,11 +3174,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -3196,6 +3186,11 @@
     <mergeCell ref="D8:E11"/>
     <mergeCell ref="D12:E16"/>
     <mergeCell ref="D17:E23"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">
@@ -3212,7 +3207,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A8" sqref="A8:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3226,13 +3221,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
@@ -3252,53 +3247,53 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="106" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="55">
+      <c r="D4" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="44" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="106"/>
+      <c r="B6" s="53" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="44">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="107"/>
-      <c r="B7" s="56" t="s">
+      <c r="A7" s="106"/>
+      <c r="B7" s="53" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -3307,126 +3302,126 @@
       <c r="D7" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="110"/>
-      <c r="B9" s="53" t="s">
+      <c r="D8" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="109"/>
+      <c r="B9" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="109"/>
+      <c r="B10" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="114" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="50">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="110"/>
-      <c r="B10" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="113" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="52" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="49"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="112"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="111"/>
+      <c r="B12" s="52" t="s">
         <v>108</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="49"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="112"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="111"/>
+      <c r="B13" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="49"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="52" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="49"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="112"/>
-      <c r="B15" s="54" t="s">
+      <c r="A15" s="111"/>
+      <c r="B15" s="52" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="49"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="112"/>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="111"/>
+      <c r="B16" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="49"/>
+      <c r="E16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -882,20 +882,20 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3207,7 +3207,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="106"/>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -3293,7 +3293,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="106"/>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -3307,92 +3307,92 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="109"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="106"/>
+      <c r="B9" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="109"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="106"/>
+      <c r="B10" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="111"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="109"/>
+      <c r="B12" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="111"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="109"/>
+      <c r="B13" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3403,7 +3403,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="111"/>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -3414,7 +3414,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="111"/>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="51" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="10" t="s">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -906,6 +906,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -915,23 +933,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -942,18 +1035,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -961,87 +1042,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,7 +1125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1160,7 +1160,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1690,18 +1690,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1729,11 +1729,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1742,9 +1742,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1762,10 +1762,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="65"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="63" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="57" t="s">
@@ -2043,7 +2043,7 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="57" t="s">
         <v>71</v>
       </c>
@@ -2157,7 +2157,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="59">
+      <c r="A14" s="65">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2177,7 +2177,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
@@ -2215,7 +2215,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
@@ -2253,7 +2253,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
@@ -2291,7 +2291,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
@@ -2329,7 +2329,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
@@ -2368,6 +2368,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2378,15 +2387,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2402,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,11 +2419,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2432,9 +2432,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2452,10 +2452,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="65"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2494,10 +2494,10 @@
       <c r="C5" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="82"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="44" t="s">
         <v>92</v>
       </c>
@@ -2522,10 +2522,10 @@
         <v>120</v>
       </c>
       <c r="C6" s="49"/>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="84"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="50" t="s">
         <v>92</v>
       </c>
@@ -2554,8 +2554,8 @@
         <v>121</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="50" t="s">
         <v>92</v>
       </c>
@@ -2584,10 +2584,10 @@
         <v>109</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="88"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="22" t="s">
         <v>66</v>
       </c>
@@ -2610,8 +2610,8 @@
         <v>111</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="22" t="s">
         <v>66</v>
       </c>
@@ -2634,8 +2634,8 @@
         <v>112</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
       <c r="F10" s="22" t="s">
         <v>66</v>
       </c>
@@ -2658,8 +2658,8 @@
         <v>113</v>
       </c>
       <c r="C11" s="21"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="22" t="s">
         <v>66</v>
       </c>
@@ -2682,10 +2682,10 @@
         <v>110</v>
       </c>
       <c r="C12" s="31"/>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="94"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="32" t="s">
         <v>66</v>
       </c>
@@ -2708,8 +2708,8 @@
         <v>114</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
       <c r="F13" s="32" t="s">
         <v>66</v>
       </c>
@@ -2732,8 +2732,8 @@
         <v>126</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="32" t="s">
         <v>66</v>
       </c>
@@ -2756,8 +2756,8 @@
         <v>115</v>
       </c>
       <c r="C15" s="37"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="32" t="s">
         <v>66</v>
       </c>
@@ -2780,8 +2780,8 @@
         <v>116</v>
       </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="98"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="32" t="s">
         <v>66</v>
       </c>
@@ -2804,10 +2804,10 @@
         <v>127</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="100"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="41" t="s">
         <v>76</v>
       </c>
@@ -2830,10 +2830,10 @@
         <v>122</v>
       </c>
       <c r="C18" s="40"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="41" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G18" s="39">
         <v>2</v>
@@ -2854,8 +2854,8 @@
         <v>123</v>
       </c>
       <c r="C19" s="40"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="96"/>
       <c r="F19" s="41" t="s">
         <v>66</v>
       </c>
@@ -2878,8 +2878,8 @@
         <v>124</v>
       </c>
       <c r="C20" s="40"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
       <c r="F20" s="41" t="s">
         <v>66</v>
       </c>
@@ -2902,8 +2902,8 @@
         <v>117</v>
       </c>
       <c r="C21" s="49"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="96"/>
       <c r="F21" s="50" t="s">
         <v>92</v>
       </c>
@@ -2915,7 +2915,9 @@
       <c r="J21" s="44">
         <v>1.5</v>
       </c>
-      <c r="K21" s="49"/>
+      <c r="K21" s="49">
+        <v>2</v>
+      </c>
       <c r="L21" s="49"/>
       <c r="M21" s="49"/>
       <c r="N21" s="50"/>
@@ -2928,10 +2930,10 @@
         <v>118</v>
       </c>
       <c r="C22" s="40"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="41" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G22" s="39">
         <v>2</v>
@@ -2952,10 +2954,10 @@
         <v>125</v>
       </c>
       <c r="C23" s="40"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="104"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
       <c r="F23" s="41" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G23" s="39">
         <v>2</v>
@@ -2963,7 +2965,9 @@
       <c r="H23" s="39"/>
       <c r="I23" s="38"/>
       <c r="J23" s="39"/>
-      <c r="K23" s="40"/>
+      <c r="K23" s="40">
+        <v>1</v>
+      </c>
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
       <c r="N23" s="41"/>
@@ -2976,10 +2980,10 @@
         <v>119</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="77"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="27" t="s">
         <v>76</v>
       </c>
@@ -2999,7 +3003,7 @@
       <c r="N24" s="27"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="59">
+      <c r="A43" s="65">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -3019,19 +3023,19 @@
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="71" t="s">
+      <c r="D44" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="66" t="s">
+      <c r="E44" s="69"/>
+      <c r="F44" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="68">
+      <c r="G44" s="99">
         <v>4</v>
       </c>
       <c r="H44" s="10"/>
@@ -3043,15 +3047,15 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="69"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="100"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -3061,15 +3065,15 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="70"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="101"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -3079,7 +3083,7 @@
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="10" t="s">
         <v>102</v>
       </c>
@@ -3105,19 +3109,19 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="71" t="s">
+      <c r="D48" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="72"/>
+      <c r="E48" s="69"/>
       <c r="F48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="68">
+      <c r="G48" s="99">
         <v>4</v>
       </c>
       <c r="H48" s="10"/>
@@ -3129,17 +3133,17 @@
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
+      <c r="A49" s="66"/>
       <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="74"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="73"/>
       <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="70"/>
+      <c r="G49" s="101"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -3149,7 +3153,7 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="80"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="6" t="s">
         <v>106</v>
       </c>
@@ -3174,6 +3178,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -3186,11 +3195,6 @@
     <mergeCell ref="D8:E11"/>
     <mergeCell ref="D12:E16"/>
     <mergeCell ref="D17:E23"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">
@@ -3206,7 +3210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -906,6 +906,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,13 +934,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -939,18 +948,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1024,24 +1042,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,7 +1125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1160,7 +1160,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1690,18 +1690,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1729,11 +1729,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1742,9 +1742,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1762,10 +1762,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="66" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="57" t="s">
@@ -2043,7 +2043,7 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="57" t="s">
         <v>71</v>
       </c>
@@ -2157,7 +2157,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="65">
+      <c r="A14" s="59">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2177,7 +2177,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
@@ -2215,7 +2215,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
@@ -2253,7 +2253,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
@@ -2291,7 +2291,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
@@ -2329,7 +2329,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
@@ -2368,15 +2368,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2387,6 +2378,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2402,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,11 +2419,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2432,9 +2432,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2452,10 +2452,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2494,10 +2494,10 @@
       <c r="C5" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="76"/>
+      <c r="E5" s="82"/>
       <c r="F5" s="44" t="s">
         <v>92</v>
       </c>
@@ -2522,10 +2522,10 @@
         <v>120</v>
       </c>
       <c r="C6" s="49"/>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="78"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="50" t="s">
         <v>92</v>
       </c>
@@ -2554,8 +2554,8 @@
         <v>121</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="50" t="s">
         <v>92</v>
       </c>
@@ -2584,10 +2584,10 @@
         <v>109</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="82"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="22" t="s">
         <v>66</v>
       </c>
@@ -2610,8 +2610,8 @@
         <v>111</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="22" t="s">
         <v>66</v>
       </c>
@@ -2634,8 +2634,8 @@
         <v>112</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="22" t="s">
         <v>66</v>
       </c>
@@ -2658,8 +2658,8 @@
         <v>113</v>
       </c>
       <c r="C11" s="21"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="22" t="s">
         <v>66</v>
       </c>
@@ -2682,10 +2682,10 @@
         <v>110</v>
       </c>
       <c r="C12" s="31"/>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="88"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="32" t="s">
         <v>66</v>
       </c>
@@ -2708,8 +2708,8 @@
         <v>114</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="32" t="s">
         <v>66</v>
       </c>
@@ -2732,8 +2732,8 @@
         <v>126</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
       <c r="F14" s="32" t="s">
         <v>66</v>
       </c>
@@ -2756,8 +2756,8 @@
         <v>115</v>
       </c>
       <c r="C15" s="37"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="96"/>
       <c r="F15" s="32" t="s">
         <v>66</v>
       </c>
@@ -2780,8 +2780,8 @@
         <v>116</v>
       </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="32" t="s">
         <v>66</v>
       </c>
@@ -2804,10 +2804,10 @@
         <v>127</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="94"/>
+      <c r="E17" s="100"/>
       <c r="F17" s="41" t="s">
         <v>76</v>
       </c>
@@ -2830,8 +2830,8 @@
         <v>122</v>
       </c>
       <c r="C18" s="40"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
       <c r="F18" s="41" t="s">
         <v>76</v>
       </c>
@@ -2854,8 +2854,8 @@
         <v>123</v>
       </c>
       <c r="C19" s="40"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="41" t="s">
         <v>66</v>
       </c>
@@ -2878,8 +2878,8 @@
         <v>124</v>
       </c>
       <c r="C20" s="40"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="96"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
       <c r="F20" s="41" t="s">
         <v>66</v>
       </c>
@@ -2902,8 +2902,8 @@
         <v>117</v>
       </c>
       <c r="C21" s="49"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
       <c r="F21" s="50" t="s">
         <v>92</v>
       </c>
@@ -2930,10 +2930,10 @@
         <v>118</v>
       </c>
       <c r="C22" s="40"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
       <c r="F22" s="41" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G22" s="39">
         <v>2</v>
@@ -2954,8 +2954,8 @@
         <v>125</v>
       </c>
       <c r="C23" s="40"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="98"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="41" t="s">
         <v>76</v>
       </c>
@@ -2980,10 +2980,10 @@
         <v>119</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="103" t="s">
+      <c r="D24" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="104"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="27" t="s">
         <v>76</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="N24" s="27"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="65">
+      <c r="A43" s="59">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -3023,19 +3023,19 @@
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="66"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="68" t="s">
+      <c r="D44" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="69"/>
-      <c r="F44" s="63" t="s">
+      <c r="E44" s="72"/>
+      <c r="F44" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="99">
+      <c r="G44" s="68">
         <v>4</v>
       </c>
       <c r="H44" s="10"/>
@@ -3047,15 +3047,15 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="100"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="69"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -3065,15 +3065,15 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="101"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="70"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -3083,7 +3083,7 @@
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="10" t="s">
         <v>102</v>
       </c>
@@ -3109,19 +3109,19 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="69"/>
+      <c r="E48" s="72"/>
       <c r="F48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="99">
+      <c r="G48" s="68">
         <v>4</v>
       </c>
       <c r="H48" s="10"/>
@@ -3133,17 +3133,17 @@
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="66"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="74"/>
       <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="101"/>
+      <c r="G49" s="70"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -3153,7 +3153,7 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="74"/>
+      <c r="A50" s="80"/>
       <c r="B50" s="6" t="s">
         <v>106</v>
       </c>
@@ -3178,11 +3178,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -3195,6 +3190,11 @@
     <mergeCell ref="D8:E11"/>
     <mergeCell ref="D12:E16"/>
     <mergeCell ref="D17:E23"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">
@@ -3210,17 +3210,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" style="47" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="20" style="47" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="47" customWidth="1"/>
     <col min="4" max="4" width="45.42578125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="47" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="47" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="47"/>
   </cols>
   <sheetData>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -2403,7 +2403,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D12" sqref="D12:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3211,15 +3211,15 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A11" sqref="A11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="47" customWidth="1"/>
     <col min="2" max="2" width="20" style="47" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="47" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" style="47" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" style="47" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="47"/>
   </cols>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -467,8 +467,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,6 +906,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -915,23 +933,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -942,18 +1035,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -961,87 +1042,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,7 +1125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1157,10 +1157,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1192,7 +1191,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1368,15 +1366,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
@@ -1387,7 +1385,7 @@
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1407,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1424,7 +1422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1441,7 +1439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1454,7 +1452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1467,7 +1465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1482,7 +1480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1499,7 +1497,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1512,7 +1510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1529,7 +1527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1546,7 +1544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1559,7 +1557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1589,7 +1587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1602,7 +1600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1615,7 +1613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1628,7 +1626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1645,7 +1643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1658,7 +1656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1675,7 +1673,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1690,18 +1688,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1709,14 +1707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
@@ -1728,12 +1726,12 @@
     <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1">
+      <c r="A1" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1741,10 +1739,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+    <row r="2" spans="1:14">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1752,7 +1750,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1762,10 +1760,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="65"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1794,7 +1792,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1836,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="45">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1878,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -1914,7 +1912,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -1954,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -1994,14 +1992,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="63" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="57" t="s">
@@ -2036,14 +2034,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="57" t="s">
         <v>71</v>
       </c>
@@ -2076,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -2116,7 +2114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -2156,8 +2154,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="59">
+    <row r="14" spans="1:14">
+      <c r="A14" s="65">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2176,8 +2174,8 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+    <row r="15" spans="1:14">
+      <c r="A15" s="66"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
@@ -2214,8 +2212,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
+    <row r="16" spans="1:14">
+      <c r="A16" s="66"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
@@ -2252,8 +2250,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+    <row r="17" spans="1:14">
+      <c r="A17" s="66"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
@@ -2290,8 +2288,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
+    <row r="18" spans="1:14">
+      <c r="A18" s="66"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
@@ -2328,8 +2326,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+    <row r="19" spans="1:14">
+      <c r="A19" s="67"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
@@ -2368,6 +2366,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2378,15 +2385,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2399,14 +2397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
@@ -2418,12 +2416,12 @@
     <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1">
+      <c r="A1" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2431,10 +2429,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+    <row r="2" spans="1:14">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2442,7 +2440,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2452,10 +2450,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="65"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2484,7 +2482,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="46" customFormat="1">
       <c r="A5" s="43">
         <v>1</v>
       </c>
@@ -2494,10 +2492,10 @@
       <c r="C5" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="82"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="44" t="s">
         <v>92</v>
       </c>
@@ -2514,7 +2512,7 @@
       <c r="M5" s="44"/>
       <c r="N5" s="44"/>
     </row>
-    <row r="6" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="46" customFormat="1">
       <c r="A6" s="43">
         <v>3</v>
       </c>
@@ -2522,10 +2520,10 @@
         <v>120</v>
       </c>
       <c r="C6" s="49"/>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="84"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="50" t="s">
         <v>92</v>
       </c>
@@ -2546,7 +2544,7 @@
       <c r="M6" s="44"/>
       <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="46" customFormat="1">
       <c r="A7" s="43">
         <v>4</v>
       </c>
@@ -2554,8 +2552,8 @@
         <v>121</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="50" t="s">
         <v>92</v>
       </c>
@@ -2576,7 +2574,7 @@
       <c r="M7" s="44"/>
       <c r="N7" s="44"/>
     </row>
-    <row r="8" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="23" customFormat="1">
       <c r="A8" s="19">
         <v>5</v>
       </c>
@@ -2584,12 +2582,12 @@
         <v>109</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="88"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="22" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G8" s="20">
         <v>2</v>
@@ -2602,7 +2600,7 @@
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="23" customFormat="1">
       <c r="A9" s="19">
         <v>6</v>
       </c>
@@ -2610,10 +2608,10 @@
         <v>111</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="22" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G9" s="20">
         <v>2</v>
@@ -2626,7 +2624,7 @@
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="1:14" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="23" customFormat="1" ht="30">
       <c r="A10" s="19">
         <v>7</v>
       </c>
@@ -2634,10 +2632,10 @@
         <v>112</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
       <c r="F10" s="22" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G10" s="20">
         <v>2</v>
@@ -2650,7 +2648,7 @@
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="23" customFormat="1">
       <c r="A11" s="19">
         <v>8</v>
       </c>
@@ -2658,10 +2656,10 @@
         <v>113</v>
       </c>
       <c r="C11" s="21"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="22" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G11" s="20">
         <v>2</v>
@@ -2674,7 +2672,7 @@
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="34" customFormat="1">
       <c r="A12" s="29">
         <v>9</v>
       </c>
@@ -2682,10 +2680,10 @@
         <v>110</v>
       </c>
       <c r="C12" s="31"/>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="94"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="32" t="s">
         <v>66</v>
       </c>
@@ -2700,7 +2698,7 @@
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
     </row>
-    <row r="13" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="34" customFormat="1">
       <c r="A13" s="29">
         <v>10</v>
       </c>
@@ -2708,8 +2706,8 @@
         <v>114</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
       <c r="F13" s="32" t="s">
         <v>66</v>
       </c>
@@ -2724,7 +2722,7 @@
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
     </row>
-    <row r="14" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="34" customFormat="1">
       <c r="A14" s="29">
         <v>11</v>
       </c>
@@ -2732,8 +2730,8 @@
         <v>126</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="32" t="s">
         <v>66</v>
       </c>
@@ -2748,7 +2746,7 @@
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
     </row>
-    <row r="15" spans="1:14" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="34" customFormat="1" ht="30">
       <c r="A15" s="29">
         <v>12</v>
       </c>
@@ -2756,8 +2754,8 @@
         <v>115</v>
       </c>
       <c r="C15" s="37"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="32" t="s">
         <v>66</v>
       </c>
@@ -2772,7 +2770,7 @@
       <c r="M15" s="37"/>
       <c r="N15" s="32"/>
     </row>
-    <row r="16" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="34" customFormat="1">
       <c r="A16" s="29">
         <v>13</v>
       </c>
@@ -2780,8 +2778,8 @@
         <v>116</v>
       </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="98"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="32" t="s">
         <v>66</v>
       </c>
@@ -2796,7 +2794,7 @@
       <c r="M16" s="37"/>
       <c r="N16" s="32"/>
     </row>
-    <row r="17" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="42" customFormat="1">
       <c r="A17" s="38">
         <v>14</v>
       </c>
@@ -2804,10 +2802,10 @@
         <v>127</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="100"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="41" t="s">
         <v>76</v>
       </c>
@@ -2822,7 +2820,7 @@
       <c r="M17" s="40"/>
       <c r="N17" s="41"/>
     </row>
-    <row r="18" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="42" customFormat="1">
       <c r="A18" s="38">
         <v>15</v>
       </c>
@@ -2830,8 +2828,8 @@
         <v>122</v>
       </c>
       <c r="C18" s="40"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="41" t="s">
         <v>76</v>
       </c>
@@ -2846,7 +2844,7 @@
       <c r="M18" s="40"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="42" customFormat="1">
       <c r="A19" s="38">
         <v>16</v>
       </c>
@@ -2854,8 +2852,8 @@
         <v>123</v>
       </c>
       <c r="C19" s="40"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="96"/>
       <c r="F19" s="41" t="s">
         <v>66</v>
       </c>
@@ -2870,7 +2868,7 @@
       <c r="M19" s="40"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="42" customFormat="1">
       <c r="A20" s="38">
         <v>17</v>
       </c>
@@ -2878,8 +2876,8 @@
         <v>124</v>
       </c>
       <c r="C20" s="40"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
       <c r="F20" s="41" t="s">
         <v>66</v>
       </c>
@@ -2894,7 +2892,7 @@
       <c r="M20" s="40"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="1:14" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="46" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="43">
         <v>18</v>
       </c>
@@ -2902,8 +2900,8 @@
         <v>117</v>
       </c>
       <c r="C21" s="49"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="96"/>
       <c r="F21" s="50" t="s">
         <v>92</v>
       </c>
@@ -2922,7 +2920,7 @@
       <c r="M21" s="49"/>
       <c r="N21" s="50"/>
     </row>
-    <row r="22" spans="1:14" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="42" customFormat="1" ht="30">
       <c r="A22" s="38">
         <v>19</v>
       </c>
@@ -2930,8 +2928,8 @@
         <v>118</v>
       </c>
       <c r="C22" s="40"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="41" t="s">
         <v>76</v>
       </c>
@@ -2946,7 +2944,7 @@
       <c r="M22" s="40"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="42" customFormat="1">
       <c r="A23" s="38">
         <v>20</v>
       </c>
@@ -2954,8 +2952,8 @@
         <v>125</v>
       </c>
       <c r="C23" s="40"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="104"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
       <c r="F23" s="41" t="s">
         <v>76</v>
       </c>
@@ -2972,7 +2970,7 @@
       <c r="M23" s="40"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="28" customFormat="1">
       <c r="A24" s="24">
         <v>21</v>
       </c>
@@ -2980,10 +2978,10 @@
         <v>119</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="77"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="27" t="s">
         <v>76</v>
       </c>
@@ -3002,8 +3000,8 @@
       <c r="M24" s="26"/>
       <c r="N24" s="27"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="59">
+    <row r="43" spans="1:14">
+      <c r="A43" s="65">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -3022,20 +3020,20 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
+    <row r="44" spans="1:14">
+      <c r="A44" s="66"/>
       <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="71" t="s">
+      <c r="D44" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="66" t="s">
+      <c r="E44" s="69"/>
+      <c r="F44" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="68">
+      <c r="G44" s="99">
         <v>4</v>
       </c>
       <c r="H44" s="10"/>
@@ -3046,16 +3044,16 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
+    <row r="45" spans="1:14">
+      <c r="A45" s="66"/>
       <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="69"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="100"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -3064,16 +3062,16 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
+    <row r="46" spans="1:14">
+      <c r="A46" s="66"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="70"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="101"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -3082,8 +3080,8 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
+    <row r="47" spans="1:14">
+      <c r="A47" s="66"/>
       <c r="B47" s="10" t="s">
         <v>102</v>
       </c>
@@ -3108,20 +3106,20 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
+    <row r="48" spans="1:14">
+      <c r="A48" s="66"/>
       <c r="B48" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="71" t="s">
+      <c r="D48" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="72"/>
+      <c r="E48" s="69"/>
       <c r="F48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="68">
+      <c r="G48" s="99">
         <v>4</v>
       </c>
       <c r="H48" s="10"/>
@@ -3132,18 +3130,18 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
+    <row r="49" spans="1:14">
+      <c r="A49" s="66"/>
       <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="74"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="73"/>
       <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="70"/>
+      <c r="G49" s="101"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -3152,8 +3150,8 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="80"/>
+    <row r="50" spans="1:14">
+      <c r="A50" s="74"/>
       <c r="B50" s="6" t="s">
         <v>106</v>
       </c>
@@ -3178,6 +3176,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -3190,11 +3193,6 @@
     <mergeCell ref="D8:E11"/>
     <mergeCell ref="D12:E16"/>
     <mergeCell ref="D17:E23"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">
@@ -3207,14 +3205,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="47" customWidth="1"/>
     <col min="2" max="2" width="20" style="47" customWidth="1"/>
@@ -3224,7 +3222,7 @@
     <col min="6" max="16384" width="9.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="23.25">
       <c r="A1" s="107" t="s">
         <v>128</v>
       </c>
@@ -3233,7 +3231,7 @@
       <c r="D1" s="107"/>
       <c r="E1" s="107"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18">
       <c r="A3" s="48" t="s">
         <v>130</v>
       </c>
@@ -3250,7 +3248,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="105" t="s">
         <v>132</v>
       </c>
@@ -3267,7 +3265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="105"/>
       <c r="B5" s="106"/>
       <c r="C5" s="44" t="s">
@@ -3280,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="106"/>
       <c r="B6" s="52" t="s">
         <v>108</v>
@@ -3295,7 +3293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="106"/>
       <c r="B7" s="52" t="s">
         <v>68</v>
@@ -3310,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" s="105" t="s">
         <v>133</v>
       </c>
@@ -3327,7 +3325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="45">
       <c r="A9" s="106"/>
       <c r="B9" s="53" t="s">
         <v>108</v>
@@ -3342,7 +3340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="106"/>
       <c r="B10" s="53" t="s">
         <v>68</v>
@@ -3357,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="108" t="s">
         <v>135</v>
       </c>
@@ -3370,7 +3368,7 @@
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="109"/>
       <c r="B12" s="54" t="s">
         <v>108</v>
@@ -3381,7 +3379,7 @@
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="109"/>
       <c r="B13" s="54" t="s">
         <v>68</v>
@@ -3392,7 +3390,7 @@
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="110" t="s">
         <v>134</v>
       </c>
@@ -3405,7 +3403,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="111"/>
       <c r="B15" s="51" t="s">
         <v>108</v>
@@ -3416,7 +3414,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="111"/>
       <c r="B16" s="51" t="s">
         <v>68</v>
@@ -3442,34 +3440,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>92</v>
       </c>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -467,12 +467,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -906,6 +906,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,13 +934,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -939,18 +948,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1024,24 +1042,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,6 +1157,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1191,6 +1192,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1366,7 +1368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -1374,18 +1376,18 @@
       <selection activeCell="C13" sqref="C13:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="52.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="38.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="52.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1405,7 +1407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1422,7 +1424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1439,7 +1441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1452,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1480,7 +1482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1497,7 +1499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1510,7 +1512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1527,7 +1529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1570,7 +1572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1587,7 +1589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1600,7 +1602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1626,7 +1628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1643,7 +1645,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1656,7 +1658,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1673,7 +1675,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1688,18 +1690,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1707,31 +1709,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1739,10 +1741,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1750,7 +1752,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1760,10 +1762,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1792,7 +1794,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1834,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1876,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -1912,7 +1914,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -1952,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -1992,14 +1994,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="66" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="57" t="s">
@@ -2034,14 +2036,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="57" t="s">
         <v>71</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -2114,7 +2116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -2154,8 +2156,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="65">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="59">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2174,8 +2176,8 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="66"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="60"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
@@ -2212,8 +2214,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="66"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="60"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
@@ -2250,8 +2252,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="66"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="60"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
@@ -2288,8 +2290,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="66"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="60"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
@@ -2326,8 +2328,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="67"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="61"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
@@ -2366,15 +2368,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2385,6 +2378,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2397,31 +2399,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="7" max="7" width="13.375" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2429,10 +2431,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2440,7 +2442,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2450,10 +2452,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2482,7 +2484,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="46" customFormat="1">
+    <row r="5" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43">
         <v>1</v>
       </c>
@@ -2492,10 +2494,10 @@
       <c r="C5" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="76"/>
+      <c r="E5" s="82"/>
       <c r="F5" s="44" t="s">
         <v>92</v>
       </c>
@@ -2512,7 +2514,7 @@
       <c r="M5" s="44"/>
       <c r="N5" s="44"/>
     </row>
-    <row r="6" spans="1:14" s="46" customFormat="1">
+    <row r="6" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="43">
         <v>3</v>
       </c>
@@ -2520,10 +2522,10 @@
         <v>120</v>
       </c>
       <c r="C6" s="49"/>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="78"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="50" t="s">
         <v>92</v>
       </c>
@@ -2544,7 +2546,7 @@
       <c r="M6" s="44"/>
       <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="1:14" s="46" customFormat="1">
+    <row r="7" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43">
         <v>4</v>
       </c>
@@ -2552,8 +2554,8 @@
         <v>121</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="50" t="s">
         <v>92</v>
       </c>
@@ -2574,7 +2576,7 @@
       <c r="M7" s="44"/>
       <c r="N7" s="44"/>
     </row>
-    <row r="8" spans="1:14" s="23" customFormat="1">
+    <row r="8" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>5</v>
       </c>
@@ -2582,10 +2584,10 @@
         <v>109</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="82"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="22" t="s">
         <v>92</v>
       </c>
@@ -2600,7 +2602,7 @@
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="1:14" s="23" customFormat="1">
+    <row r="9" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>6</v>
       </c>
@@ -2608,8 +2610,8 @@
         <v>111</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="22" t="s">
         <v>92</v>
       </c>
@@ -2624,7 +2626,7 @@
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="1:14" s="23" customFormat="1" ht="30">
+    <row r="10" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>7</v>
       </c>
@@ -2632,8 +2634,8 @@
         <v>112</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="22" t="s">
         <v>92</v>
       </c>
@@ -2648,7 +2650,7 @@
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="1:14" s="23" customFormat="1">
+    <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>8</v>
       </c>
@@ -2656,8 +2658,8 @@
         <v>113</v>
       </c>
       <c r="C11" s="21"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="22" t="s">
         <v>92</v>
       </c>
@@ -2672,7 +2674,7 @@
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:14" s="34" customFormat="1">
+    <row r="12" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>9</v>
       </c>
@@ -2680,10 +2682,10 @@
         <v>110</v>
       </c>
       <c r="C12" s="31"/>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="88"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="32" t="s">
         <v>66</v>
       </c>
@@ -2698,7 +2700,7 @@
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
     </row>
-    <row r="13" spans="1:14" s="34" customFormat="1">
+    <row r="13" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>10</v>
       </c>
@@ -2706,10 +2708,10 @@
         <v>114</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="32" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G13" s="33">
         <v>2</v>
@@ -2718,11 +2720,13 @@
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
+      <c r="L13" s="33">
+        <v>2</v>
+      </c>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
     </row>
-    <row r="14" spans="1:14" s="34" customFormat="1">
+    <row r="14" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>11</v>
       </c>
@@ -2730,10 +2734,10 @@
         <v>126</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
       <c r="F14" s="32" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G14" s="33">
         <v>2</v>
@@ -2742,11 +2746,15 @@
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
+      <c r="L14" s="33">
+        <v>1</v>
+      </c>
+      <c r="M14" s="33">
+        <v>1</v>
+      </c>
       <c r="N14" s="33"/>
     </row>
-    <row r="15" spans="1:14" s="34" customFormat="1" ht="30">
+    <row r="15" spans="1:14" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>12</v>
       </c>
@@ -2754,10 +2762,10 @@
         <v>115</v>
       </c>
       <c r="C15" s="37"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="96"/>
       <c r="F15" s="32" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="G15" s="33">
         <v>2</v>
@@ -2767,10 +2775,12 @@
       <c r="J15" s="33"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
+      <c r="M15" s="37">
+        <v>2</v>
+      </c>
       <c r="N15" s="32"/>
     </row>
-    <row r="16" spans="1:14" s="34" customFormat="1">
+    <row r="16" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>13</v>
       </c>
@@ -2778,10 +2788,10 @@
         <v>116</v>
       </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="32" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G16" s="33">
         <v>2</v>
@@ -2791,10 +2801,12 @@
       <c r="J16" s="33"/>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
+      <c r="M16" s="37">
+        <v>1</v>
+      </c>
       <c r="N16" s="32"/>
     </row>
-    <row r="17" spans="1:14" s="42" customFormat="1">
+    <row r="17" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <v>14</v>
       </c>
@@ -2802,10 +2814,10 @@
         <v>127</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="94"/>
+      <c r="E17" s="100"/>
       <c r="F17" s="41" t="s">
         <v>76</v>
       </c>
@@ -2820,7 +2832,7 @@
       <c r="M17" s="40"/>
       <c r="N17" s="41"/>
     </row>
-    <row r="18" spans="1:14" s="42" customFormat="1">
+    <row r="18" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="38">
         <v>15</v>
       </c>
@@ -2828,8 +2840,8 @@
         <v>122</v>
       </c>
       <c r="C18" s="40"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
       <c r="F18" s="41" t="s">
         <v>76</v>
       </c>
@@ -2844,7 +2856,7 @@
       <c r="M18" s="40"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="1:14" s="42" customFormat="1">
+    <row r="19" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38">
         <v>16</v>
       </c>
@@ -2852,8 +2864,8 @@
         <v>123</v>
       </c>
       <c r="C19" s="40"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="41" t="s">
         <v>66</v>
       </c>
@@ -2868,7 +2880,7 @@
       <c r="M19" s="40"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="1:14" s="42" customFormat="1">
+    <row r="20" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="38">
         <v>17</v>
       </c>
@@ -2876,8 +2888,8 @@
         <v>124</v>
       </c>
       <c r="C20" s="40"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="96"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
       <c r="F20" s="41" t="s">
         <v>66</v>
       </c>
@@ -2892,7 +2904,7 @@
       <c r="M20" s="40"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="1:14" s="46" customFormat="1" ht="12.75" customHeight="1">
+    <row r="21" spans="1:14" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="43">
         <v>18</v>
       </c>
@@ -2900,8 +2912,8 @@
         <v>117</v>
       </c>
       <c r="C21" s="49"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
       <c r="F21" s="50" t="s">
         <v>92</v>
       </c>
@@ -2920,7 +2932,7 @@
       <c r="M21" s="49"/>
       <c r="N21" s="50"/>
     </row>
-    <row r="22" spans="1:14" s="42" customFormat="1" ht="30">
+    <row r="22" spans="1:14" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <v>19</v>
       </c>
@@ -2928,8 +2940,8 @@
         <v>118</v>
       </c>
       <c r="C22" s="40"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
       <c r="F22" s="41" t="s">
         <v>76</v>
       </c>
@@ -2944,7 +2956,7 @@
       <c r="M22" s="40"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="1:14" s="42" customFormat="1">
+    <row r="23" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="38">
         <v>20</v>
       </c>
@@ -2952,8 +2964,8 @@
         <v>125</v>
       </c>
       <c r="C23" s="40"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="98"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="41" t="s">
         <v>76</v>
       </c>
@@ -2970,7 +2982,7 @@
       <c r="M23" s="40"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="1:14" s="28" customFormat="1">
+    <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24">
         <v>21</v>
       </c>
@@ -2978,10 +2990,10 @@
         <v>119</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="103" t="s">
+      <c r="D24" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="104"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="27" t="s">
         <v>76</v>
       </c>
@@ -3000,8 +3012,8 @@
       <c r="M24" s="26"/>
       <c r="N24" s="27"/>
     </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="65">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="59">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -3020,20 +3032,20 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
     </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="66"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="60"/>
       <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="68" t="s">
+      <c r="D44" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="69"/>
-      <c r="F44" s="63" t="s">
+      <c r="E44" s="72"/>
+      <c r="F44" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="99">
+      <c r="G44" s="68">
         <v>4</v>
       </c>
       <c r="H44" s="10"/>
@@ -3044,16 +3056,16 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="66"/>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="60"/>
       <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="100"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="69"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -3062,16 +3074,16 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="66"/>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="60"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="101"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="70"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -3080,8 +3092,8 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="66"/>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="60"/>
       <c r="B47" s="10" t="s">
         <v>102</v>
       </c>
@@ -3106,20 +3118,20 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="66"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="60"/>
       <c r="B48" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="69"/>
+      <c r="E48" s="72"/>
       <c r="F48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="99">
+      <c r="G48" s="68">
         <v>4</v>
       </c>
       <c r="H48" s="10"/>
@@ -3130,18 +3142,18 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="66"/>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="60"/>
       <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="74"/>
       <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="101"/>
+      <c r="G49" s="70"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -3150,8 +3162,8 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="74"/>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="80"/>
       <c r="B50" s="6" t="s">
         <v>106</v>
       </c>
@@ -3176,11 +3188,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -3193,6 +3200,11 @@
     <mergeCell ref="D8:E11"/>
     <mergeCell ref="D12:E16"/>
     <mergeCell ref="D17:E23"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">
@@ -3205,24 +3217,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="14.25" style="47" customWidth="1"/>
     <col min="2" max="2" width="20" style="47" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="47" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="47"/>
+    <col min="3" max="3" width="51.375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="56.625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="107" t="s">
         <v>128</v>
       </c>
@@ -3231,7 +3243,7 @@
       <c r="D1" s="107"/>
       <c r="E1" s="107"/>
     </row>
-    <row r="3" spans="1:5" ht="18">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>130</v>
       </c>
@@ -3248,7 +3260,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="105" t="s">
         <v>132</v>
       </c>
@@ -3265,7 +3277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="105"/>
       <c r="B5" s="106"/>
       <c r="C5" s="44" t="s">
@@ -3278,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="106"/>
       <c r="B6" s="52" t="s">
         <v>108</v>
@@ -3293,7 +3305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="106"/>
       <c r="B7" s="52" t="s">
         <v>68</v>
@@ -3308,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="105" t="s">
         <v>133</v>
       </c>
@@ -3325,7 +3337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="106"/>
       <c r="B9" s="53" t="s">
         <v>108</v>
@@ -3340,7 +3352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="106"/>
       <c r="B10" s="53" t="s">
         <v>68</v>
@@ -3355,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="108" t="s">
         <v>135</v>
       </c>
@@ -3368,7 +3380,7 @@
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="109"/>
       <c r="B12" s="54" t="s">
         <v>108</v>
@@ -3379,7 +3391,7 @@
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="109"/>
       <c r="B13" s="54" t="s">
         <v>68</v>
@@ -3390,7 +3402,7 @@
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="110" t="s">
         <v>134</v>
       </c>
@@ -3403,7 +3415,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="111"/>
       <c r="B15" s="51" t="s">
         <v>108</v>
@@ -3414,7 +3426,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="111"/>
       <c r="B16" s="51" t="s">
         <v>68</v>
@@ -3440,34 +3452,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -472,7 +472,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -906,6 +906,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -915,23 +933,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -942,18 +1035,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -961,87 +1042,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1376,18 +1376,18 @@
       <selection activeCell="C13" sqref="C13:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="52.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="3"/>
+    <col min="4" max="4" width="38.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="52.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1690,18 +1690,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1716,24 +1716,24 @@
       <selection activeCell="B7" sqref="B7:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="6"/>
+    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1741,10 +1741,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1762,10 +1762,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="65"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -1994,14 +1994,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="63" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="57" t="s">
@@ -2036,14 +2036,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="57" t="s">
         <v>71</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -2156,8 +2156,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="59">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="65">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2176,8 +2176,8 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="66"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
@@ -2214,8 +2214,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
@@ -2252,8 +2252,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="66"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
@@ -2290,8 +2290,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="66"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
@@ -2328,8 +2328,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
@@ -2368,6 +2368,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2378,15 +2387,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2402,28 +2402,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="6"/>
+    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2431,10 +2431,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2452,10 +2452,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="65"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43">
         <v>1</v>
       </c>
@@ -2494,10 +2494,10 @@
       <c r="C5" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="82"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="44" t="s">
         <v>92</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="M5" s="44"/>
       <c r="N5" s="44"/>
     </row>
-    <row r="6" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43">
         <v>3</v>
       </c>
@@ -2522,10 +2522,10 @@
         <v>120</v>
       </c>
       <c r="C6" s="49"/>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="84"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="50" t="s">
         <v>92</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="M6" s="44"/>
       <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
         <v>4</v>
       </c>
@@ -2554,8 +2554,8 @@
         <v>121</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="50" t="s">
         <v>92</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="M7" s="44"/>
       <c r="N7" s="44"/>
     </row>
-    <row r="8" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>5</v>
       </c>
@@ -2584,10 +2584,10 @@
         <v>109</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="88"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="22" t="s">
         <v>92</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>6</v>
       </c>
@@ -2610,8 +2610,8 @@
         <v>111</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="22" t="s">
         <v>92</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>7</v>
       </c>
@@ -2634,8 +2634,8 @@
         <v>112</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
       <c r="F10" s="22" t="s">
         <v>92</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>8</v>
       </c>
@@ -2658,8 +2658,8 @@
         <v>113</v>
       </c>
       <c r="C11" s="21"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="22" t="s">
         <v>92</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>9</v>
       </c>
@@ -2682,10 +2682,10 @@
         <v>110</v>
       </c>
       <c r="C12" s="31"/>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="94"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="32" t="s">
         <v>66</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
     </row>
-    <row r="13" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>10</v>
       </c>
@@ -2708,8 +2708,8 @@
         <v>114</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
       <c r="F13" s="32" t="s">
         <v>76</v>
       </c>
@@ -2726,7 +2726,7 @@
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
     </row>
-    <row r="14" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>11</v>
       </c>
@@ -2734,8 +2734,8 @@
         <v>126</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="32" t="s">
         <v>76</v>
       </c>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="N14" s="33"/>
     </row>
-    <row r="15" spans="1:14" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>12</v>
       </c>
@@ -2762,8 +2762,8 @@
         <v>115</v>
       </c>
       <c r="C15" s="37"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="32" t="s">
         <v>138</v>
       </c>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="N15" s="32"/>
     </row>
-    <row r="16" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>13</v>
       </c>
@@ -2788,8 +2788,8 @@
         <v>116</v>
       </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="98"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="32" t="s">
         <v>76</v>
       </c>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="N16" s="32"/>
     </row>
-    <row r="17" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>14</v>
       </c>
@@ -2814,10 +2814,10 @@
         <v>127</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="100"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="41" t="s">
         <v>76</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="M17" s="40"/>
       <c r="N17" s="41"/>
     </row>
-    <row r="18" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>15</v>
       </c>
@@ -2840,8 +2840,8 @@
         <v>122</v>
       </c>
       <c r="C18" s="40"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="41" t="s">
         <v>76</v>
       </c>
@@ -2850,13 +2850,17 @@
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
+      <c r="J18" s="39">
+        <v>1</v>
+      </c>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
+      <c r="M18" s="40">
+        <v>1</v>
+      </c>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>16</v>
       </c>
@@ -2864,8 +2868,8 @@
         <v>123</v>
       </c>
       <c r="C19" s="40"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="96"/>
       <c r="F19" s="41" t="s">
         <v>66</v>
       </c>
@@ -2880,7 +2884,7 @@
       <c r="M19" s="40"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>17</v>
       </c>
@@ -2888,23 +2892,29 @@
         <v>124</v>
       </c>
       <c r="C20" s="40"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
       <c r="F20" s="41" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G20" s="39">
         <v>2</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="J20" s="39">
+        <v>2</v>
+      </c>
+      <c r="K20" s="40">
+        <v>2</v>
+      </c>
+      <c r="L20" s="40">
+        <v>1</v>
+      </c>
       <c r="M20" s="40"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="1:14" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43">
         <v>18</v>
       </c>
@@ -2912,27 +2922,25 @@
         <v>117</v>
       </c>
       <c r="C21" s="49"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="96"/>
       <c r="F21" s="50" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G21" s="44">
         <v>2</v>
       </c>
       <c r="H21" s="44"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="K21" s="49">
-        <v>2</v>
-      </c>
+      <c r="J21" s="44"/>
+      <c r="K21" s="49"/>
       <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
+      <c r="M21" s="49">
+        <v>1</v>
+      </c>
       <c r="N21" s="50"/>
     </row>
-    <row r="22" spans="1:14" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>19</v>
       </c>
@@ -2940,10 +2948,10 @@
         <v>118</v>
       </c>
       <c r="C22" s="40"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="41" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G22" s="39">
         <v>2</v>
@@ -2951,12 +2959,16 @@
       <c r="H22" s="39"/>
       <c r="I22" s="38"/>
       <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
+      <c r="K22" s="40">
+        <v>2</v>
+      </c>
+      <c r="L22" s="40">
+        <v>2</v>
+      </c>
       <c r="M22" s="40"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>20</v>
       </c>
@@ -2964,10 +2976,10 @@
         <v>125</v>
       </c>
       <c r="C23" s="40"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="104"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
       <c r="F23" s="41" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G23" s="39">
         <v>2</v>
@@ -2975,14 +2987,16 @@
       <c r="H23" s="39"/>
       <c r="I23" s="38"/>
       <c r="J23" s="39"/>
-      <c r="K23" s="40">
+      <c r="K23" s="40"/>
+      <c r="L23" s="40">
         <v>1</v>
       </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
+      <c r="M23" s="40">
+        <v>2</v>
+      </c>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>21</v>
       </c>
@@ -2990,10 +3004,10 @@
         <v>119</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="77"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="27" t="s">
         <v>76</v>
       </c>
@@ -3012,8 +3026,8 @@
       <c r="M24" s="26"/>
       <c r="N24" s="27"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="59">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="65">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -3032,20 +3046,20 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="60"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="66"/>
       <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="71" t="s">
+      <c r="D44" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="66" t="s">
+      <c r="E44" s="69"/>
+      <c r="F44" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="68">
+      <c r="G44" s="99">
         <v>4</v>
       </c>
       <c r="H44" s="10"/>
@@ -3056,16 +3070,16 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="60"/>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="66"/>
       <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="69"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="100"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -3074,16 +3088,16 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="60"/>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="66"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="70"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="101"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -3092,8 +3106,8 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="60"/>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="66"/>
       <c r="B47" s="10" t="s">
         <v>102</v>
       </c>
@@ -3118,20 +3132,20 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="60"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="66"/>
       <c r="B48" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="71" t="s">
+      <c r="D48" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="72"/>
+      <c r="E48" s="69"/>
       <c r="F48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="68">
+      <c r="G48" s="99">
         <v>4</v>
       </c>
       <c r="H48" s="10"/>
@@ -3142,18 +3156,18 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="60"/>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="66"/>
       <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="74"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="73"/>
       <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="70"/>
+      <c r="G49" s="101"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -3162,8 +3176,8 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="80"/>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="74"/>
       <c r="B50" s="6" t="s">
         <v>106</v>
       </c>
@@ -3188,6 +3202,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -3200,11 +3219,6 @@
     <mergeCell ref="D8:E11"/>
     <mergeCell ref="D12:E16"/>
     <mergeCell ref="D17:E23"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">
@@ -3224,14 +3238,14 @@
       <selection activeCell="A11" sqref="A11:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="47" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="47" customWidth="1"/>
     <col min="2" max="2" width="20" style="47" customWidth="1"/>
-    <col min="3" max="3" width="51.375" style="47" customWidth="1"/>
-    <col min="4" max="4" width="56.625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="47" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="47"/>
+    <col min="3" max="3" width="51.42578125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -3459,27 +3473,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -515,7 +515,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,30 +525,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -794,276 +770,213 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,7 +1038,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1160,7 +1073,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1428,10 +1341,10 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1445,8 +1358,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1458,8 +1371,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1471,7 +1384,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1486,10 +1399,10 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="32" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1503,8 +1416,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1533,10 +1446,10 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1550,8 +1463,8 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1563,8 +1476,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1576,10 +1489,10 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1593,8 +1506,8 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1606,8 +1519,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1619,8 +1532,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1632,10 +1545,10 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="32" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1649,8 +1562,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1662,10 +1575,10 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1679,8 +1592,8 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1712,7 +1625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:F8"/>
     </sheetView>
   </sheetViews>
@@ -1729,11 +1642,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1742,9 +1655,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1762,10 +1675,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1804,10 +1717,10 @@
       <c r="C5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="10" t="s">
         <v>92</v>
       </c>
@@ -1846,10 +1759,10 @@
       <c r="C6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="10" t="s">
         <v>92</v>
       </c>
@@ -1886,10 +1799,10 @@
         <v>95</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="10" t="s">
         <v>92</v>
       </c>
@@ -1922,10 +1835,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="58"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="10" t="s">
         <v>92</v>
       </c>
@@ -1962,10 +1875,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="58"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="10" t="s">
         <v>92</v>
       </c>
@@ -2001,13 +1914,13 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="58"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="10" t="s">
         <v>92</v>
       </c>
@@ -2043,11 +1956,11 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="57" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="58"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="10" t="s">
         <v>92</v>
       </c>
@@ -2084,10 +1997,10 @@
         <v>85</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="58"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="10" t="s">
         <v>76</v>
       </c>
@@ -2124,10 +2037,10 @@
         <v>86</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="58"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="10" t="s">
         <v>92</v>
       </c>
@@ -2157,15 +2070,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="65">
+      <c r="A14" s="41">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2177,15 +2090,15 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="58"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="10" t="s">
         <v>92</v>
       </c>
@@ -2215,15 +2128,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="58"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="10" t="s">
         <v>92</v>
       </c>
@@ -2253,15 +2166,15 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="58"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="10" t="s">
         <v>92</v>
       </c>
@@ -2291,15 +2204,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="58"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="10" t="s">
         <v>92</v>
       </c>
@@ -2329,15 +2242,15 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="58"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="10" t="s">
         <v>92</v>
       </c>
@@ -2402,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,11 +2332,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2432,9 +2345,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2452,10 +2365,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2484,111 +2397,111 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+    <row r="5" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="44" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="45">
-        <v>2</v>
-      </c>
-      <c r="H5" s="44">
-        <v>2</v>
-      </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-    </row>
-    <row r="6" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="G5" s="21">
+        <v>2</v>
+      </c>
+      <c r="H5" s="20">
+        <v>2</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
         <v>3</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="77" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="50" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="44">
-        <v>2</v>
-      </c>
-      <c r="H6" s="44">
-        <v>0</v>
-      </c>
-      <c r="I6" s="44">
-        <v>2</v>
-      </c>
-      <c r="J6" s="44">
-        <v>0</v>
-      </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-    </row>
-    <row r="7" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="G6" s="20">
+        <v>2</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>2</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
         <v>4</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="50" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="44">
-        <v>2</v>
-      </c>
-      <c r="H7" s="44">
-        <v>0</v>
-      </c>
-      <c r="I7" s="44">
-        <v>0</v>
-      </c>
-      <c r="J7" s="44">
-        <v>2</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-    </row>
-    <row r="8" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="20">
+        <v>2</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
+        <v>2</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="81" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="54"/>
+      <c r="F8" s="26" t="s">
         <v>92</v>
       </c>
       <c r="G8" s="20">
@@ -2602,440 +2515,458 @@
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+    <row r="9" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70">
         <v>6</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="22" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="79"/>
+      <c r="F9" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="31">
+        <v>2</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+    </row>
+    <row r="10" spans="1:14" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="70">
+        <v>7</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="79"/>
+      <c r="F10" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="31">
+        <v>2</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="70">
+        <v>8</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="31">
+        <v>2</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70">
+        <v>9</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="88"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+    </row>
+    <row r="13" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="70">
+        <v>10</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="31">
+        <v>2</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31">
+        <v>2</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="70">
+        <v>11</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="31">
+        <v>2</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31">
+        <v>1</v>
+      </c>
+      <c r="M14" s="31">
+        <v>1</v>
+      </c>
+      <c r="N14" s="31"/>
+    </row>
+    <row r="15" spans="1:14" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>12</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="69"/>
+      <c r="F15" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="20">
-        <v>2</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-    </row>
-    <row r="10" spans="1:14" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>7</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="22" t="s">
+      <c r="G15" s="20">
+        <v>2</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25">
+        <v>2</v>
+      </c>
+      <c r="N15" s="26"/>
+    </row>
+    <row r="16" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="70">
+        <v>13</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="31">
+        <v>2</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77">
+        <v>1</v>
+      </c>
+      <c r="N16" s="74"/>
+    </row>
+    <row r="17" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="70">
+        <v>14</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="74"/>
+    </row>
+    <row r="18" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70">
+        <v>15</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="79"/>
+      <c r="F18" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="31">
+        <v>2</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="31">
+        <v>1</v>
+      </c>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77">
+        <v>1</v>
+      </c>
+      <c r="N18" s="74"/>
+    </row>
+    <row r="19" spans="1:14" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="80">
+        <v>16</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="81">
+        <v>2</v>
+      </c>
+      <c r="H19" s="81"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="85"/>
+    </row>
+    <row r="20" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>17</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="20">
-        <v>2</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-    </row>
-    <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>8</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="22" t="s">
+      <c r="G20" s="20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20">
+        <v>2</v>
+      </c>
+      <c r="K20" s="25">
+        <v>2</v>
+      </c>
+      <c r="L20" s="25">
+        <v>1</v>
+      </c>
+      <c r="M20" s="25"/>
+      <c r="N20" s="26"/>
+    </row>
+    <row r="21" spans="1:14" s="75" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="70">
+        <v>18</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="79"/>
+      <c r="F21" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="31">
+        <v>2</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77">
+        <v>1</v>
+      </c>
+      <c r="N21" s="74"/>
+    </row>
+    <row r="22" spans="1:14" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>19</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="20">
-        <v>2</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-    </row>
-    <row r="12" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
-        <v>9</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="33">
-        <v>2</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-    </row>
-    <row r="13" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
-        <v>10</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="32" t="s">
+      <c r="G22" s="20">
+        <v>2</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="25">
+        <v>2</v>
+      </c>
+      <c r="L22" s="25">
+        <v>2</v>
+      </c>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>20</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="33">
-        <v>2</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33">
-        <v>2</v>
-      </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-    </row>
-    <row r="14" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
-        <v>11</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="32" t="s">
+      <c r="G23" s="20">
+        <v>2</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25">
+        <v>1</v>
+      </c>
+      <c r="M23" s="25">
+        <v>2</v>
+      </c>
+      <c r="N23" s="26"/>
+    </row>
+    <row r="24" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="70">
+        <v>21</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="90"/>
+      <c r="F24" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="33">
-        <v>2</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33">
-        <v>1</v>
-      </c>
-      <c r="M14" s="33">
-        <v>1</v>
-      </c>
-      <c r="N14" s="33"/>
-    </row>
-    <row r="15" spans="1:14" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
-        <v>12</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="33">
-        <v>2</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37">
-        <v>2</v>
-      </c>
-      <c r="N15" s="32"/>
-    </row>
-    <row r="16" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
-        <v>13</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="33">
-        <v>2</v>
-      </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37">
-        <v>1</v>
-      </c>
-      <c r="N16" s="32"/>
-    </row>
-    <row r="17" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
-        <v>14</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="39">
-        <v>2</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
-    </row>
-    <row r="18" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
-        <v>15</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="39">
-        <v>2</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39">
-        <v>1</v>
-      </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40">
-        <v>1</v>
-      </c>
-      <c r="N18" s="41"/>
-    </row>
-    <row r="19" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
-        <v>16</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="39">
-        <v>2</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="41"/>
-    </row>
-    <row r="20" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
-        <v>17</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="39">
-        <v>2</v>
-      </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39">
-        <v>2</v>
-      </c>
-      <c r="K20" s="40">
-        <v>2</v>
-      </c>
-      <c r="L20" s="40">
-        <v>1</v>
-      </c>
-      <c r="M20" s="40"/>
-      <c r="N20" s="41"/>
-    </row>
-    <row r="21" spans="1:14" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
-        <v>18</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="44">
-        <v>2</v>
-      </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49">
-        <v>1</v>
-      </c>
-      <c r="N21" s="50"/>
-    </row>
-    <row r="22" spans="1:14" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
-        <v>19</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="39">
-        <v>2</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40">
-        <v>2</v>
-      </c>
-      <c r="L22" s="40">
-        <v>2</v>
-      </c>
-      <c r="M22" s="40"/>
-      <c r="N22" s="41"/>
-    </row>
-    <row r="23" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
-        <v>20</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="39">
-        <v>2</v>
-      </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40">
-        <v>1</v>
-      </c>
-      <c r="M23" s="40">
-        <v>2</v>
-      </c>
-      <c r="N23" s="41"/>
-    </row>
-    <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
-        <v>21</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="104"/>
-      <c r="F24" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="25">
+      <c r="G24" s="31">
         <v>5</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25">
-        <v>2</v>
-      </c>
-      <c r="K24" s="26">
-        <v>2</v>
-      </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="27"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="31">
+        <v>2</v>
+      </c>
+      <c r="K24" s="77">
+        <v>2</v>
+      </c>
+      <c r="L24" s="77">
+        <v>2</v>
+      </c>
+      <c r="M24" s="77">
+        <v>4</v>
+      </c>
+      <c r="N24" s="74"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="65">
+      <c r="A43" s="41">
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="58"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="10"/>
       <c r="G43" s="17"/>
       <c r="H43" s="10"/>
@@ -3047,19 +2978,19 @@
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="66"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="68" t="s">
+      <c r="D44" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="69"/>
-      <c r="F44" s="63" t="s">
+      <c r="E44" s="45"/>
+      <c r="F44" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="99">
+      <c r="G44" s="57">
         <v>4</v>
       </c>
       <c r="H44" s="10"/>
@@ -3071,15 +3002,15 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="100"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="58"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -3089,15 +3020,15 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="101"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="59"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -3107,17 +3038,17 @@
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="58"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="15" t="s">
         <v>76</v>
       </c>
@@ -3133,19 +3064,19 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="69"/>
+      <c r="E48" s="45"/>
       <c r="F48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="99">
+      <c r="G48" s="57">
         <v>4</v>
       </c>
       <c r="H48" s="10"/>
@@ -3157,17 +3088,17 @@
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="66"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="73"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="101"/>
+      <c r="G49" s="59"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -3177,15 +3108,15 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="74"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C50" s="10"/>
-      <c r="D50" s="57" t="s">
+      <c r="D50" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="58"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="15" t="s">
         <v>66</v>
       </c>
@@ -3201,7 +3132,19 @@
       <c r="N50" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="30">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="G44:G46"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="D48:E49"/>
@@ -3216,9 +3159,10 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D8:E11"/>
-    <mergeCell ref="D12:E16"/>
-    <mergeCell ref="D17:E23"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">
@@ -3234,193 +3178,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="20" style="47" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="47" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="47"/>
+    <col min="1" max="1" width="14.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20" style="23" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="44" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="20">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="106"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="106"/>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="109"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="109"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="27" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3430,8 +3374,8 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="111"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="27" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -3441,8 +3385,8 @@
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="111"/>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="27" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="10" t="s">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="4" r:id="rId3"/>
-    <sheet name="Temporary Performance Rate" sheetId="5" r:id="rId4"/>
-    <sheet name="Refrence" sheetId="3" r:id="rId5"/>
+    <sheet name="Sprint 3" sheetId="6" r:id="rId4"/>
+    <sheet name="Temporary Performance Rate" sheetId="5" r:id="rId5"/>
+    <sheet name="Refrence" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="StatusList">Refrence!$A$1:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="176">
   <si>
     <t>Name</t>
   </si>
@@ -378,9 +379,6 @@
   </si>
   <si>
     <t>2.5.5 Design product management(CRUD)</t>
-  </si>
-  <si>
-    <t>Review and merge</t>
   </si>
   <si>
     <t>Design Home page</t>
@@ -462,13 +460,126 @@
     <t>Not meet the deadline.
 Missing some relative page
 Need more focus to complete assigned  task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing account type features management
+Need more property to create new account type </t>
+  </si>
+  <si>
+    <t>Table's form error</t>
+  </si>
+  <si>
+    <t>Missing account type information, go premium link
+Avatar is not necessary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not enough features
+Lack of check out </t>
+  </si>
+  <si>
+    <t>Table's form error
+Error header visibility
+Missing feature import template (see more in ERD)</t>
+  </si>
+  <si>
+    <t>Delay task
+Not fill in the backlog
+Not meet the deadline</t>
+  </si>
+  <si>
+    <t>Not meet the deadline
+Some tasks are not done</t>
+  </si>
+  <si>
+    <t>Delay task
+Not fill in the backlog
+finished task not meet the criteria</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Continue form sprint 2</t>
+  </si>
+  <si>
+    <t>Design User management</t>
+  </si>
+  <si>
+    <t>Design Account type management</t>
+  </si>
+  <si>
+    <t>Design Template management</t>
+  </si>
+  <si>
+    <t>Design Profile management</t>
+  </si>
+  <si>
+    <t>Design account type, check out</t>
+  </si>
+  <si>
+    <t>Design statistic management</t>
+  </si>
+  <si>
+    <t>Design search, view template</t>
+  </si>
+  <si>
+    <t>Design site layout builder</t>
+  </si>
+  <si>
+    <t>Design site page builder</t>
+  </si>
+  <si>
+    <t>Create project database</t>
+  </si>
+  <si>
+    <t>Using entity framwork, code first approach</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>1.1 Design User management
+1.2 Design Account type management
+1.3 Design Template management</t>
+  </si>
+  <si>
+    <t>2.3 Design Site management(Edit, remove, duplicate)
+2.4 Design statistic management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5.5 Design product management(CRUD)
+2.5.6 Design map domain </t>
+  </si>
+  <si>
+    <t>Code Authentication, authorization</t>
+  </si>
+  <si>
+    <t>Commited</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Design some template for builder</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Not commited</t>
+  </si>
+  <si>
+    <t>Wrong .... Adjust all by ThangPV</t>
+  </si>
+  <si>
+    <t>Class diagram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,8 +625,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,6 +660,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -761,9 +902,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -789,18 +927,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -876,6 +1057,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -888,95 +1081,90 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,10 +1529,10 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="46" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1358,8 +1546,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1371,8 +1559,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1384,7 +1572,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1399,10 +1587,10 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1416,8 +1604,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1446,10 +1634,10 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1463,8 +1651,8 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1476,8 +1664,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1489,10 +1677,10 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1506,8 +1694,8 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1519,8 +1707,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1532,8 +1720,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1545,10 +1733,10 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="46" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1562,8 +1750,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1575,10 +1763,10 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1592,8 +1780,8 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1626,7 +1814,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,11 +1830,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1655,9 +1843,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1675,10 +1863,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1717,10 +1905,10 @@
       <c r="C5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="10" t="s">
         <v>92</v>
       </c>
@@ -1759,10 +1947,10 @@
       <c r="C6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="10" t="s">
         <v>92</v>
       </c>
@@ -1799,10 +1987,10 @@
         <v>95</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="10" t="s">
         <v>92</v>
       </c>
@@ -1835,10 +2023,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="10" t="s">
         <v>92</v>
       </c>
@@ -1875,10 +2063,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="10" t="s">
         <v>92</v>
       </c>
@@ -1914,13 +2102,13 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="34"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="10" t="s">
         <v>92</v>
       </c>
@@ -1956,11 +2144,11 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="33" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="10" t="s">
         <v>92</v>
       </c>
@@ -1997,10 +2185,10 @@
         <v>85</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="10" t="s">
         <v>76</v>
       </c>
@@ -2037,10 +2225,10 @@
         <v>86</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="10" t="s">
         <v>92</v>
       </c>
@@ -2070,15 +2258,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+      <c r="A14" s="55">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2090,15 +2278,15 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="10" t="s">
         <v>92</v>
       </c>
@@ -2128,15 +2316,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="34"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="10" t="s">
         <v>92</v>
       </c>
@@ -2166,15 +2354,15 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="34"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="10" t="s">
         <v>92</v>
       </c>
@@ -2204,15 +2392,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="34"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="10" t="s">
         <v>92</v>
       </c>
@@ -2242,15 +2430,15 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="34"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="10" t="s">
         <v>92</v>
       </c>
@@ -2313,17 +2501,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:BK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="41" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
@@ -2331,12 +2519,12 @@
     <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2344,10 +2532,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2355,7 +2543,52 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="39"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="39"/>
+      <c r="AV3" s="39"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="39"/>
+      <c r="AZ3" s="39"/>
+      <c r="BA3" s="39"/>
+      <c r="BB3" s="39"/>
+      <c r="BC3" s="39"/>
+      <c r="BD3" s="39"/>
+      <c r="BE3" s="39"/>
+      <c r="BF3" s="39"/>
+      <c r="BG3" s="39"/>
+      <c r="BH3" s="39"/>
+      <c r="BI3" s="39"/>
+      <c r="BJ3" s="39"/>
+      <c r="BK3" s="39"/>
+    </row>
+    <row r="4" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2365,10 +2598,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2396,776 +2629,1827 @@
       <c r="N4" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39"/>
+    </row>
+    <row r="5" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="21">
-        <v>2</v>
-      </c>
-      <c r="H5" s="20">
-        <v>2</v>
-      </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-    </row>
-    <row r="6" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="G5" s="20">
+        <v>2</v>
+      </c>
+      <c r="H5" s="19">
+        <v>2</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="39"/>
+      <c r="BB5" s="39"/>
+      <c r="BC5" s="39"/>
+      <c r="BD5" s="39"/>
+      <c r="BE5" s="39"/>
+      <c r="BF5" s="39"/>
+      <c r="BG5" s="39"/>
+      <c r="BH5" s="39"/>
+      <c r="BI5" s="39"/>
+      <c r="BJ5" s="39"/>
+      <c r="BK5" s="39"/>
+    </row>
+    <row r="6" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="68"/>
+      <c r="F6" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>2</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+      <c r="L6" s="19">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <v>0</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="39"/>
+      <c r="BB6" s="39"/>
+      <c r="BC6" s="39"/>
+      <c r="BD6" s="39"/>
+      <c r="BE6" s="39"/>
+      <c r="BF6" s="39"/>
+      <c r="BG6" s="39"/>
+      <c r="BH6" s="39"/>
+      <c r="BI6" s="39"/>
+      <c r="BJ6" s="39"/>
+      <c r="BK6" s="39"/>
+    </row>
+    <row r="7" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="53" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="19">
+        <v>2</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>2</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="39"/>
+      <c r="AX7" s="39"/>
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="39"/>
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="39"/>
+      <c r="BD7" s="39"/>
+      <c r="BE7" s="39"/>
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="39"/>
+      <c r="BH7" s="39"/>
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="39"/>
+      <c r="BK7" s="39"/>
+    </row>
+    <row r="8" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>5</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="19">
+        <v>2</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="39"/>
+      <c r="AV8" s="39"/>
+      <c r="AW8" s="39"/>
+      <c r="AX8" s="39"/>
+      <c r="AY8" s="39"/>
+      <c r="AZ8" s="39"/>
+      <c r="BA8" s="39"/>
+      <c r="BB8" s="39"/>
+      <c r="BC8" s="39"/>
+      <c r="BD8" s="39"/>
+      <c r="BE8" s="39"/>
+      <c r="BF8" s="39"/>
+      <c r="BG8" s="39"/>
+      <c r="BH8" s="39"/>
+      <c r="BI8" s="39"/>
+      <c r="BJ8" s="39"/>
+      <c r="BK8" s="39"/>
+    </row>
+    <row r="9" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>6</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="80"/>
+      <c r="F9" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="27">
+        <v>2</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39"/>
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39"/>
+      <c r="AY9" s="39"/>
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="39"/>
+      <c r="BB9" s="39"/>
+      <c r="BC9" s="39"/>
+      <c r="BD9" s="39"/>
+      <c r="BE9" s="39"/>
+      <c r="BF9" s="39"/>
+      <c r="BG9" s="39"/>
+      <c r="BH9" s="39"/>
+      <c r="BI9" s="39"/>
+      <c r="BJ9" s="39"/>
+      <c r="BK9" s="39"/>
+    </row>
+    <row r="10" spans="1:63" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>7</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="80"/>
+      <c r="F10" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="27">
+        <v>2</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="39"/>
+      <c r="AR10" s="39"/>
+      <c r="AS10" s="39"/>
+      <c r="AT10" s="39"/>
+      <c r="AU10" s="39"/>
+      <c r="AV10" s="39"/>
+      <c r="AW10" s="39"/>
+      <c r="AX10" s="39"/>
+      <c r="AY10" s="39"/>
+      <c r="AZ10" s="39"/>
+      <c r="BA10" s="39"/>
+      <c r="BB10" s="39"/>
+      <c r="BC10" s="39"/>
+      <c r="BD10" s="39"/>
+      <c r="BE10" s="39"/>
+      <c r="BF10" s="39"/>
+      <c r="BG10" s="39"/>
+      <c r="BH10" s="39"/>
+      <c r="BI10" s="39"/>
+      <c r="BJ10" s="39"/>
+      <c r="BK10" s="39"/>
+    </row>
+    <row r="11" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>8</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="80"/>
+      <c r="F11" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="27">
+        <v>2</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="39"/>
+      <c r="AR11" s="39"/>
+      <c r="AS11" s="39"/>
+      <c r="AT11" s="39"/>
+      <c r="AU11" s="39"/>
+      <c r="AV11" s="39"/>
+      <c r="AW11" s="39"/>
+      <c r="AX11" s="39"/>
+      <c r="AY11" s="39"/>
+      <c r="AZ11" s="39"/>
+      <c r="BA11" s="39"/>
+      <c r="BB11" s="39"/>
+      <c r="BC11" s="39"/>
+      <c r="BD11" s="39"/>
+      <c r="BE11" s="39"/>
+      <c r="BF11" s="39"/>
+      <c r="BG11" s="39"/>
+      <c r="BH11" s="39"/>
+      <c r="BI11" s="39"/>
+      <c r="BJ11" s="39"/>
+      <c r="BK11" s="39"/>
+    </row>
+    <row r="12" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>9</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="39"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="39"/>
+      <c r="AU12" s="39"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="39"/>
+      <c r="AX12" s="39"/>
+      <c r="AY12" s="39"/>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="39"/>
+      <c r="BB12" s="39"/>
+      <c r="BC12" s="39"/>
+      <c r="BD12" s="39"/>
+      <c r="BE12" s="39"/>
+      <c r="BF12" s="39"/>
+      <c r="BG12" s="39"/>
+      <c r="BH12" s="39"/>
+      <c r="BI12" s="39"/>
+      <c r="BJ12" s="39"/>
+      <c r="BK12" s="39"/>
+    </row>
+    <row r="13" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>10</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="72"/>
+      <c r="F13" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="27">
+        <v>2</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0</v>
+      </c>
+      <c r="K13" s="27">
+        <v>0</v>
+      </c>
+      <c r="L13" s="27">
+        <v>2</v>
+      </c>
+      <c r="M13" s="27">
+        <v>0</v>
+      </c>
+      <c r="N13" s="27"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="39"/>
+      <c r="AY13" s="39"/>
+      <c r="AZ13" s="39"/>
+      <c r="BA13" s="39"/>
+      <c r="BB13" s="39"/>
+      <c r="BC13" s="39"/>
+      <c r="BD13" s="39"/>
+      <c r="BE13" s="39"/>
+      <c r="BF13" s="39"/>
+      <c r="BG13" s="39"/>
+      <c r="BH13" s="39"/>
+      <c r="BI13" s="39"/>
+      <c r="BJ13" s="39"/>
+      <c r="BK13" s="39"/>
+    </row>
+    <row r="14" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>11</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="72"/>
+      <c r="F14" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="27">
+        <v>2</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0</v>
+      </c>
+      <c r="K14" s="27">
+        <v>0</v>
+      </c>
+      <c r="L14" s="27">
+        <v>1</v>
+      </c>
+      <c r="M14" s="27">
+        <v>1</v>
+      </c>
+      <c r="N14" s="27"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="39"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="39"/>
+      <c r="AP14" s="39"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="39"/>
+      <c r="AS14" s="39"/>
+      <c r="AT14" s="39"/>
+      <c r="AU14" s="39"/>
+      <c r="AV14" s="39"/>
+      <c r="AW14" s="39"/>
+      <c r="AX14" s="39"/>
+      <c r="AY14" s="39"/>
+      <c r="AZ14" s="39"/>
+      <c r="BA14" s="39"/>
+      <c r="BB14" s="39"/>
+      <c r="BC14" s="39"/>
+      <c r="BD14" s="39"/>
+      <c r="BE14" s="39"/>
+      <c r="BF14" s="39"/>
+      <c r="BG14" s="39"/>
+      <c r="BH14" s="39"/>
+      <c r="BI14" s="39"/>
+      <c r="BJ14" s="39"/>
+      <c r="BK14" s="39"/>
+    </row>
+    <row r="15" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>12</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="F15" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="19">
+        <v>2</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0</v>
+      </c>
+      <c r="M15" s="24">
+        <v>2</v>
+      </c>
+      <c r="N15" s="25"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="39"/>
+      <c r="AN15" s="39"/>
+      <c r="AO15" s="39"/>
+      <c r="AP15" s="39"/>
+      <c r="AQ15" s="39"/>
+      <c r="AR15" s="39"/>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="39"/>
+      <c r="AU15" s="39"/>
+      <c r="AV15" s="39"/>
+      <c r="AW15" s="39"/>
+      <c r="AX15" s="39"/>
+      <c r="AY15" s="39"/>
+      <c r="AZ15" s="39"/>
+      <c r="BA15" s="39"/>
+      <c r="BB15" s="39"/>
+      <c r="BC15" s="39"/>
+      <c r="BD15" s="39"/>
+      <c r="BE15" s="39"/>
+      <c r="BF15" s="39"/>
+      <c r="BG15" s="39"/>
+      <c r="BH15" s="39"/>
+      <c r="BI15" s="39"/>
+      <c r="BJ15" s="39"/>
+      <c r="BK15" s="39"/>
+    </row>
+    <row r="16" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>13</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="72"/>
+      <c r="F16" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="27">
+        <v>2</v>
+      </c>
+      <c r="H16" s="27">
+        <v>0</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0</v>
+      </c>
+      <c r="J16" s="27">
+        <v>0</v>
+      </c>
+      <c r="K16" s="34">
+        <v>0</v>
+      </c>
+      <c r="L16" s="34">
+        <v>0</v>
+      </c>
+      <c r="M16" s="34">
+        <v>1</v>
+      </c>
+      <c r="N16" s="31"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="39"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="39"/>
+      <c r="AU16" s="39"/>
+      <c r="AV16" s="39"/>
+      <c r="AW16" s="39"/>
+      <c r="AX16" s="39"/>
+      <c r="AY16" s="39"/>
+      <c r="AZ16" s="39"/>
+      <c r="BA16" s="39"/>
+      <c r="BB16" s="39"/>
+      <c r="BC16" s="39"/>
+      <c r="BD16" s="39"/>
+      <c r="BE16" s="39"/>
+      <c r="BF16" s="39"/>
+      <c r="BG16" s="39"/>
+      <c r="BH16" s="39"/>
+      <c r="BI16" s="39"/>
+      <c r="BJ16" s="39"/>
+      <c r="BK16" s="39"/>
+    </row>
+    <row r="17" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>14</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="39"/>
+      <c r="AN17" s="39"/>
+      <c r="AO17" s="39"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="39"/>
+      <c r="AS17" s="39"/>
+      <c r="AT17" s="39"/>
+      <c r="AU17" s="39"/>
+      <c r="AV17" s="39"/>
+      <c r="AW17" s="39"/>
+      <c r="AX17" s="39"/>
+      <c r="AY17" s="39"/>
+      <c r="AZ17" s="39"/>
+      <c r="BA17" s="39"/>
+      <c r="BB17" s="39"/>
+      <c r="BC17" s="39"/>
+      <c r="BD17" s="39"/>
+      <c r="BE17" s="39"/>
+      <c r="BF17" s="39"/>
+      <c r="BG17" s="39"/>
+      <c r="BH17" s="39"/>
+      <c r="BI17" s="39"/>
+      <c r="BJ17" s="39"/>
+      <c r="BK17" s="39"/>
+    </row>
+    <row r="18" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>15</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="80"/>
+      <c r="F18" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="27">
+        <v>2</v>
+      </c>
+      <c r="H18" s="27">
+        <v>0</v>
+      </c>
+      <c r="I18" s="29">
+        <v>0</v>
+      </c>
+      <c r="J18" s="27">
+        <v>1</v>
+      </c>
+      <c r="K18" s="34">
+        <v>0</v>
+      </c>
+      <c r="L18" s="34">
+        <v>0</v>
+      </c>
+      <c r="M18" s="34">
+        <v>1</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="39"/>
+      <c r="AU18" s="39"/>
+      <c r="AV18" s="39"/>
+      <c r="AW18" s="39"/>
+      <c r="AX18" s="39"/>
+      <c r="AY18" s="39"/>
+      <c r="AZ18" s="39"/>
+      <c r="BA18" s="39"/>
+      <c r="BB18" s="39"/>
+      <c r="BC18" s="39"/>
+      <c r="BD18" s="39"/>
+      <c r="BE18" s="39"/>
+      <c r="BF18" s="39"/>
+      <c r="BG18" s="39"/>
+      <c r="BH18" s="39"/>
+      <c r="BI18" s="39"/>
+      <c r="BJ18" s="39"/>
+      <c r="BK18" s="39"/>
+    </row>
+    <row r="19" spans="1:63" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
+        <v>16</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="82"/>
+      <c r="F19" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="36">
+        <v>2</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="38"/>
+    </row>
+    <row r="20" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>17</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="68"/>
+      <c r="F20" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
+      <c r="J20" s="19">
+        <v>2</v>
+      </c>
+      <c r="K20" s="24">
+        <v>2</v>
+      </c>
+      <c r="L20" s="24">
+        <v>1</v>
+      </c>
+      <c r="M20" s="24">
+        <v>0</v>
+      </c>
+      <c r="N20" s="25"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="39"/>
+      <c r="AR20" s="39"/>
+      <c r="AS20" s="39"/>
+      <c r="AT20" s="39"/>
+      <c r="AU20" s="39"/>
+      <c r="AV20" s="39"/>
+      <c r="AW20" s="39"/>
+      <c r="AX20" s="39"/>
+      <c r="AY20" s="39"/>
+      <c r="AZ20" s="39"/>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="39"/>
+      <c r="BC20" s="39"/>
+      <c r="BD20" s="39"/>
+      <c r="BE20" s="39"/>
+      <c r="BF20" s="39"/>
+      <c r="BG20" s="39"/>
+      <c r="BH20" s="39"/>
+      <c r="BI20" s="39"/>
+      <c r="BJ20" s="39"/>
+      <c r="BK20" s="39"/>
+    </row>
+    <row r="21" spans="1:63" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>18</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="80"/>
+      <c r="F21" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="27">
+        <v>2</v>
+      </c>
+      <c r="H21" s="27">
+        <v>0</v>
+      </c>
+      <c r="I21" s="29">
+        <v>0</v>
+      </c>
+      <c r="J21" s="27">
+        <v>0</v>
+      </c>
+      <c r="K21" s="34">
+        <v>0</v>
+      </c>
+      <c r="L21" s="34">
+        <v>0</v>
+      </c>
+      <c r="M21" s="34">
+        <v>1</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39"/>
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39"/>
+      <c r="AX21" s="39"/>
+      <c r="AY21" s="39"/>
+      <c r="AZ21" s="39"/>
+      <c r="BA21" s="39"/>
+      <c r="BB21" s="39"/>
+      <c r="BC21" s="39"/>
+      <c r="BD21" s="39"/>
+      <c r="BE21" s="39"/>
+      <c r="BF21" s="39"/>
+      <c r="BG21" s="39"/>
+      <c r="BH21" s="39"/>
+      <c r="BI21" s="39"/>
+      <c r="BJ21" s="39"/>
+      <c r="BK21" s="39"/>
+    </row>
+    <row r="22" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>19</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="68"/>
+      <c r="F22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="19">
+        <v>2</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+      <c r="I22" s="18">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
+        <v>0</v>
+      </c>
+      <c r="K22" s="24">
+        <v>2</v>
+      </c>
+      <c r="L22" s="24">
+        <v>2</v>
+      </c>
+      <c r="M22" s="24">
+        <v>0</v>
+      </c>
+      <c r="N22" s="25"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="39"/>
+      <c r="AU22" s="39"/>
+      <c r="AV22" s="39"/>
+      <c r="AW22" s="39"/>
+      <c r="AX22" s="39"/>
+      <c r="AY22" s="39"/>
+      <c r="AZ22" s="39"/>
+      <c r="BA22" s="39"/>
+      <c r="BB22" s="39"/>
+      <c r="BC22" s="39"/>
+      <c r="BD22" s="39"/>
+      <c r="BE22" s="39"/>
+      <c r="BF22" s="39"/>
+      <c r="BG22" s="39"/>
+      <c r="BH22" s="39"/>
+      <c r="BI22" s="39"/>
+      <c r="BJ22" s="39"/>
+      <c r="BK22" s="39"/>
+    </row>
+    <row r="23" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>20</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="68"/>
+      <c r="F23" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="19">
+        <v>2</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
+      <c r="J23" s="19">
+        <v>0</v>
+      </c>
+      <c r="K23" s="24">
+        <v>0</v>
+      </c>
+      <c r="L23" s="24">
+        <v>1</v>
+      </c>
+      <c r="M23" s="24">
+        <v>2</v>
+      </c>
+      <c r="N23" s="25"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="39"/>
+      <c r="AT23" s="39"/>
+      <c r="AU23" s="39"/>
+      <c r="AV23" s="39"/>
+      <c r="AW23" s="39"/>
+      <c r="AX23" s="39"/>
+      <c r="AY23" s="39"/>
+      <c r="AZ23" s="39"/>
+      <c r="BA23" s="39"/>
+      <c r="BB23" s="39"/>
+      <c r="BC23" s="39"/>
+      <c r="BD23" s="39"/>
+      <c r="BE23" s="39"/>
+      <c r="BF23" s="39"/>
+      <c r="BG23" s="39"/>
+      <c r="BH23" s="39"/>
+      <c r="BI23" s="39"/>
+      <c r="BJ23" s="39"/>
+      <c r="BK23" s="39"/>
+    </row>
+    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="39"/>
+      <c r="AW24" s="39"/>
+      <c r="AX24" s="39"/>
+      <c r="AY24" s="39"/>
+      <c r="AZ24" s="39"/>
+      <c r="BA24" s="39"/>
+      <c r="BB24" s="39"/>
+      <c r="BC24" s="39"/>
+      <c r="BD24" s="39"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="39"/>
+      <c r="BG24" s="39"/>
+      <c r="BH24" s="39"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="39"/>
+      <c r="BK24" s="39"/>
+    </row>
+    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="B25" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="39"/>
+      <c r="BA25" s="39"/>
+      <c r="BB25" s="39"/>
+      <c r="BC25" s="39"/>
+      <c r="BD25" s="39"/>
+      <c r="BE25" s="39"/>
+      <c r="BF25" s="39"/>
+      <c r="BG25" s="39"/>
+      <c r="BH25" s="39"/>
+      <c r="BI25" s="39"/>
+      <c r="BJ25" s="39"/>
+      <c r="BK25" s="39"/>
+    </row>
+    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="B26" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="99">
+        <v>7</v>
+      </c>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="39"/>
+      <c r="AL26" s="39"/>
+      <c r="AM26" s="39"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="39"/>
+      <c r="AP26" s="39"/>
+      <c r="AQ26" s="39"/>
+      <c r="AR26" s="39"/>
+      <c r="AS26" s="39"/>
+      <c r="AT26" s="39"/>
+      <c r="AU26" s="39"/>
+      <c r="AV26" s="39"/>
+      <c r="AW26" s="39"/>
+      <c r="AX26" s="39"/>
+      <c r="AY26" s="39"/>
+      <c r="AZ26" s="39"/>
+      <c r="BA26" s="39"/>
+      <c r="BB26" s="39"/>
+      <c r="BC26" s="39"/>
+      <c r="BD26" s="39"/>
+      <c r="BE26" s="39"/>
+      <c r="BF26" s="39"/>
+      <c r="BG26" s="39"/>
+      <c r="BH26" s="39"/>
+      <c r="BI26" s="39"/>
+      <c r="BJ26" s="39"/>
+      <c r="BK26" s="39"/>
+    </row>
+    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="B27" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="99">
+        <v>5</v>
+      </c>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39"/>
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="39"/>
+      <c r="AW27" s="39"/>
+      <c r="AX27" s="39"/>
+      <c r="AY27" s="39"/>
+      <c r="AZ27" s="39"/>
+      <c r="BA27" s="39"/>
+      <c r="BB27" s="39"/>
+      <c r="BC27" s="39"/>
+      <c r="BD27" s="39"/>
+      <c r="BE27" s="39"/>
+      <c r="BF27" s="39"/>
+      <c r="BG27" s="39"/>
+      <c r="BH27" s="39"/>
+      <c r="BI27" s="39"/>
+      <c r="BJ27" s="39"/>
+      <c r="BK27" s="39"/>
+    </row>
+    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="B28" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="20">
-        <v>2</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20">
-        <v>2</v>
-      </c>
-      <c r="J6" s="20">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-    </row>
-    <row r="7" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="C29" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="20">
-        <v>2</v>
-      </c>
-      <c r="H7" s="20">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20">
-        <v>2</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-    </row>
-    <row r="8" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>5</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="20">
-        <v>2</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-    </row>
-    <row r="9" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
-        <v>6</v>
-      </c>
-      <c r="B9" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="31">
-        <v>2</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-    </row>
-    <row r="10" spans="1:14" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
-        <v>7</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="31">
-        <v>2</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-    </row>
-    <row r="11" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
-        <v>8</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="31">
-        <v>2</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-    </row>
-    <row r="12" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
-        <v>9</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-    </row>
-    <row r="13" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
-        <v>10</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="31">
-        <v>2</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31">
-        <v>2</v>
-      </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-    </row>
-    <row r="14" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
-        <v>11</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="31">
-        <v>2</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31">
-        <v>1</v>
-      </c>
-      <c r="M14" s="31">
-        <v>1</v>
-      </c>
-      <c r="N14" s="31"/>
-    </row>
-    <row r="15" spans="1:14" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>12</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="20">
-        <v>2</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25">
-        <v>2</v>
-      </c>
-      <c r="N15" s="26"/>
-    </row>
-    <row r="16" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70">
-        <v>13</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="31">
-        <v>2</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77">
-        <v>1</v>
-      </c>
-      <c r="N16" s="74"/>
-    </row>
-    <row r="17" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70">
-        <v>14</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="74"/>
-    </row>
-    <row r="18" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70">
-        <v>15</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="31">
-        <v>2</v>
-      </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="31">
-        <v>1</v>
-      </c>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77">
-        <v>1</v>
-      </c>
-      <c r="N18" s="74"/>
-    </row>
-    <row r="19" spans="1:14" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="80">
-        <v>16</v>
-      </c>
-      <c r="B19" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="81">
-        <v>2</v>
-      </c>
-      <c r="H19" s="81"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="85"/>
-    </row>
-    <row r="20" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>17</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="20">
-        <v>2</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20">
-        <v>2</v>
-      </c>
-      <c r="K20" s="25">
-        <v>2</v>
-      </c>
-      <c r="L20" s="25">
-        <v>1</v>
-      </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="26"/>
-    </row>
-    <row r="21" spans="1:14" s="75" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70">
-        <v>18</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="31">
-        <v>2</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77">
-        <v>1</v>
-      </c>
-      <c r="N21" s="74"/>
-    </row>
-    <row r="22" spans="1:14" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
-        <v>19</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="20">
-        <v>2</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="25">
-        <v>2</v>
-      </c>
-      <c r="L22" s="25">
-        <v>2</v>
-      </c>
-      <c r="M22" s="25"/>
-      <c r="N22" s="26"/>
-    </row>
-    <row r="23" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <v>20</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="20">
-        <v>2</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25">
-        <v>1</v>
-      </c>
-      <c r="M23" s="25">
-        <v>2</v>
-      </c>
-      <c r="N23" s="26"/>
-    </row>
-    <row r="24" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="70">
-        <v>21</v>
-      </c>
-      <c r="B24" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="31">
-        <v>5</v>
-      </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="31">
-        <v>2</v>
-      </c>
-      <c r="K24" s="77">
-        <v>2</v>
-      </c>
-      <c r="L24" s="77">
-        <v>2</v>
-      </c>
-      <c r="M24" s="77">
-        <v>4</v>
-      </c>
-      <c r="N24" s="74"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="41">
-        <v>1</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="45"/>
-      <c r="F44" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="57">
-        <v>4</v>
-      </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="10">
-        <v>10</v>
-      </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" s="57">
-        <v>4</v>
-      </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="59"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
-      <c r="B50" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="34"/>
-      <c r="F50" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" s="18">
-        <v>2</v>
-      </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+  <mergeCells count="20">
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E46"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="D47:E47"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E7"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F47:F50 F5:F24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F23">
       <formula1>StatusList</formula1>
     </dataValidation>
   </dataValidations>
@@ -3176,224 +4460,1098 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="41" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="101">
+        <v>42065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>1</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="80"/>
+      <c r="F5" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+    </row>
+    <row r="6" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>2</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="92"/>
+      <c r="D6" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="80"/>
+      <c r="F6" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+    </row>
+    <row r="7" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>3</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="80"/>
+      <c r="F7" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+    </row>
+    <row r="8" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>4</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="27">
+        <v>1</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+    </row>
+    <row r="9" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>5</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="92"/>
+      <c r="D9" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="27">
+        <v>1</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+    </row>
+    <row r="10" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>6</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="92"/>
+      <c r="D10" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="72"/>
+      <c r="F10" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="27">
+        <v>1</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>7</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="80"/>
+      <c r="F11" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="27">
+        <v>1</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="1:14" s="39" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>8</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="92"/>
+      <c r="D12" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="80"/>
+      <c r="F12" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="27">
+        <v>1</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="31"/>
+    </row>
+    <row r="13" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="86">
+        <v>9</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="94"/>
+      <c r="F13" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="87">
+        <v>2</v>
+      </c>
+      <c r="H13" s="87"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="89"/>
+    </row>
+    <row r="14" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="86">
+        <v>10</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="88"/>
+      <c r="D14" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="94"/>
+      <c r="F14" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="89"/>
+    </row>
+    <row r="15" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="86">
+        <v>11</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="88"/>
+      <c r="D15" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="94"/>
+      <c r="F15" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="89"/>
+    </row>
+    <row r="16" spans="1:14" s="90" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="86">
+        <v>12</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="94"/>
+      <c r="F16" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="87">
+        <v>2</v>
+      </c>
+      <c r="H16" s="87"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="89"/>
+    </row>
+    <row r="17" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="86">
+        <v>13</v>
+      </c>
+      <c r="B17" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="88"/>
+      <c r="D17" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="94"/>
+      <c r="F17" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="87">
+        <v>2</v>
+      </c>
+      <c r="H17" s="87"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="89"/>
+    </row>
+    <row r="18" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="45"/>
+    </row>
+    <row r="19" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="45"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="55">
+        <v>1</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="75">
+        <v>4</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
+      <c r="B29" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="48"/>
+      <c r="F29" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="10">
+        <v>10</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="56"/>
+      <c r="B30" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="75">
+        <v>4</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="56"/>
+      <c r="B31" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="77"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="64"/>
+      <c r="B32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="28">
+        <v>2</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E28"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="G30:G31"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F26 F29:F32 F5:F17">
+      <formula1>StatusList</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="20" style="23" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="14.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="20" style="22" customWidth="1"/>
+    <col min="3" max="3" width="48" style="22" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="22" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="22"/>
+    <col min="8" max="8" width="56" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="22" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.85546875" style="22" customWidth="1"/>
+    <col min="12" max="12" width="51.140625" style="22" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="C3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="24" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="95" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+      <c r="B4" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="96"/>
+      <c r="B6" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="96"/>
+      <c r="B7" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B8" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C8" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A9" s="96"/>
+      <c r="B9" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="96"/>
+      <c r="B10" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="D10" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="87">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
-      <c r="B6" s="28" t="s">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="96"/>
+      <c r="B12" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
-      <c r="B7" s="28" t="s">
+      <c r="C12" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="96"/>
+      <c r="B13" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
+      <c r="C13" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
-      <c r="B9" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
-      <c r="B10" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>69</v>
-      </c>
       <c r="C14" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="85"/>
+      <c r="B15" s="26" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="10"/>
+        <v>136</v>
+      </c>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="85"/>
+      <c r="B16" s="26" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="22">
+        <v>8</v>
+      </c>
+      <c r="H18" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="103" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="22">
+        <v>4</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="22">
+        <v>3</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="H21" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="H22" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="H23" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="H24" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H25" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="107" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H26" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="105"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H27" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="105"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H29" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H30" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="J30" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="105"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H31" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="J31" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" s="105"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H32" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="J32" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3409,7 +5567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -3434,7 +5592,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="175">
   <si>
     <t>Name</t>
   </si>
@@ -337,9 +337,6 @@
   </si>
   <si>
     <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Continue sprint 1, design usecase</t>
   </si>
   <si>
     <t xml:space="preserve">Review </t>
@@ -982,126 +979,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1116,24 +993,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1165,6 +1024,144 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,10 +1526,10 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="62" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1546,8 +1543,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1559,8 +1556,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1572,7 +1569,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1587,10 +1584,10 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1604,8 +1601,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1634,10 +1631,10 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="62" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1651,8 +1648,8 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1664,8 +1661,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1677,10 +1674,10 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="62" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1694,8 +1691,8 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1707,8 +1704,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1717,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1733,10 +1730,10 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="62" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1750,8 +1747,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1763,10 +1760,10 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="62" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1780,8 +1777,8 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1791,18 +1788,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1830,11 +1827,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1843,9 +1840,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1863,10 +1860,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="52"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1905,10 +1902,10 @@
       <c r="C5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="48"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="10" t="s">
         <v>92</v>
       </c>
@@ -1947,10 +1944,10 @@
       <c r="C6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="48"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="10" t="s">
         <v>92</v>
       </c>
@@ -1987,10 +1984,10 @@
         <v>95</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="48"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="10" t="s">
         <v>92</v>
       </c>
@@ -2023,10 +2020,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="48"/>
+      <c r="D8" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="64"/>
       <c r="F8" s="10" t="s">
         <v>92</v>
       </c>
@@ -2063,10 +2060,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="48"/>
+      <c r="D9" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="64"/>
       <c r="F9" s="10" t="s">
         <v>92</v>
       </c>
@@ -2102,13 +2099,13 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="48"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="10" t="s">
         <v>92</v>
       </c>
@@ -2144,11 +2141,11 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="48"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="10" t="s">
         <v>92</v>
       </c>
@@ -2185,10 +2182,10 @@
         <v>85</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="48"/>
+      <c r="D12" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="64"/>
       <c r="F12" s="10" t="s">
         <v>76</v>
       </c>
@@ -2225,10 +2222,10 @@
         <v>86</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="48"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="10" t="s">
         <v>92</v>
       </c>
@@ -2258,15 +2255,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="55">
+      <c r="A14" s="65">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2278,15 +2275,15 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="48"/>
+      <c r="D15" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="64"/>
       <c r="F15" s="10" t="s">
         <v>92</v>
       </c>
@@ -2316,15 +2313,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="48"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="10" t="s">
         <v>92</v>
       </c>
@@ -2354,15 +2351,15 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="48"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="10" t="s">
         <v>92</v>
       </c>
@@ -2392,15 +2389,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="48"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="10" t="s">
         <v>92</v>
       </c>
@@ -2430,15 +2427,15 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="48"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="10" t="s">
         <v>92</v>
       </c>
@@ -2469,15 +2466,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2488,6 +2476,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2520,11 +2517,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2533,9 +2530,9 @@
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2598,10 +2595,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="52"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2687,12 +2684,12 @@
         <v>85</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="66"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="19" t="s">
         <v>92</v>
       </c>
@@ -2773,13 +2770,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="24"/>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="68"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="25" t="s">
         <v>92</v>
       </c>
@@ -2860,11 +2857,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="24"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
       <c r="F7" s="25" t="s">
         <v>92</v>
       </c>
@@ -2945,13 +2942,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="24"/>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="68"/>
+      <c r="E8" s="79"/>
       <c r="F8" s="25" t="s">
         <v>92</v>
       </c>
@@ -3020,13 +3017,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="27"/>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="80"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="31" t="s">
         <v>76</v>
       </c>
@@ -3095,13 +3092,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="27"/>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="80"/>
+      <c r="E10" s="75"/>
       <c r="F10" s="31" t="s">
         <v>76</v>
       </c>
@@ -3170,13 +3167,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="34"/>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="80"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="31" t="s">
         <v>76</v>
       </c>
@@ -3245,11 +3242,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="41"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
       <c r="F12" s="31"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -3314,13 +3311,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="72"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="31" t="s">
         <v>76</v>
       </c>
@@ -3401,13 +3398,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="27"/>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="72"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="31" t="s">
         <v>76</v>
       </c>
@@ -3488,13 +3485,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="24"/>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="74"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="25" t="s">
         <v>92</v>
       </c>
@@ -3575,13 +3572,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="34"/>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="72"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="31" t="s">
         <v>76</v>
       </c>
@@ -3662,11 +3659,11 @@
         <v>14</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="34"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="31"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -3731,13 +3728,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="34"/>
-      <c r="D18" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="80"/>
+      <c r="D18" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="75"/>
       <c r="F18" s="31" t="s">
         <v>76</v>
       </c>
@@ -3818,13 +3815,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="37"/>
-      <c r="D19" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="82"/>
+      <c r="D19" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="77"/>
       <c r="F19" s="38" t="s">
         <v>66</v>
       </c>
@@ -3844,13 +3841,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="68"/>
+      <c r="D20" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="79"/>
       <c r="F20" s="25" t="s">
         <v>92</v>
       </c>
@@ -3931,13 +3928,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="34"/>
-      <c r="D21" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="80"/>
+      <c r="D21" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="75"/>
       <c r="F21" s="31" t="s">
         <v>76</v>
       </c>
@@ -4018,13 +4015,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="68"/>
+      <c r="D22" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="79"/>
       <c r="F22" s="25" t="s">
         <v>92</v>
       </c>
@@ -4105,13 +4102,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="68"/>
+      <c r="D23" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="79"/>
       <c r="F23" s="25" t="s">
         <v>92</v>
       </c>
@@ -4239,11 +4236,11 @@
       <c r="BK24" s="39"/>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="B25" s="98" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="98" t="s">
-        <v>130</v>
+      <c r="B25" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>129</v>
       </c>
       <c r="O25" s="39"/>
       <c r="P25" s="39"/>
@@ -4297,9 +4294,9 @@
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B26" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="99">
+        <v>107</v>
+      </c>
+      <c r="C26" s="53">
         <v>7</v>
       </c>
       <c r="O26" s="39"/>
@@ -4356,7 +4353,7 @@
       <c r="B27" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="99">
+      <c r="C27" s="53">
         <v>5</v>
       </c>
       <c r="O27" s="39"/>
@@ -4413,7 +4410,7 @@
       <c r="B28" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="99">
+      <c r="C28" s="53">
         <v>5</v>
       </c>
     </row>
@@ -4427,6 +4424,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
@@ -4436,17 +4441,9 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F23">
@@ -4462,8 +4459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4479,26 +4476,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="A1" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="54" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="101">
+      <c r="E2" s="55">
         <v>42065</v>
       </c>
     </row>
@@ -4512,10 +4509,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="52"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -4549,15 +4546,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="C5" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="80"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="31" t="s">
         <v>76</v>
       </c>
@@ -4577,13 +4574,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="91"/>
+      <c r="D6" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="80"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="31" t="s">
         <v>76</v>
       </c>
@@ -4603,13 +4600,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="80"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="31" t="s">
         <v>76</v>
       </c>
@@ -4629,13 +4626,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="91"/>
+      <c r="D8" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="72"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="31" t="s">
         <v>76</v>
       </c>
@@ -4655,13 +4652,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="91"/>
+      <c r="D9" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="72"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="31" t="s">
         <v>76</v>
       </c>
@@ -4681,13 +4678,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="91"/>
+      <c r="D10" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="72"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="31" t="s">
         <v>76</v>
       </c>
@@ -4707,13 +4704,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="80"/>
+        <v>158</v>
+      </c>
+      <c r="C11" s="91"/>
+      <c r="D11" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="75"/>
       <c r="F11" s="31" t="s">
         <v>76</v>
       </c>
@@ -4733,13 +4730,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="80"/>
+        <v>160</v>
+      </c>
+      <c r="C12" s="91"/>
+      <c r="D12" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="75"/>
       <c r="F12" s="31" t="s">
         <v>76</v>
       </c>
@@ -4754,135 +4751,135 @@
       <c r="M12" s="34"/>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86">
+    <row r="13" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46">
         <v>9</v>
       </c>
-      <c r="B13" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="89" t="s">
+      <c r="B13" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="89"/>
+      <c r="F13" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="87">
-        <v>2</v>
-      </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="89"/>
-    </row>
-    <row r="14" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="86">
+      <c r="G13" s="47">
+        <v>2</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="49"/>
+    </row>
+    <row r="14" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46">
         <v>10</v>
       </c>
-      <c r="B14" s="87" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="94"/>
-      <c r="F14" s="89" t="s">
+      <c r="B14" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="89"/>
+      <c r="F14" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="89"/>
-    </row>
-    <row r="15" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="86">
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="49"/>
+    </row>
+    <row r="15" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46">
         <v>11</v>
       </c>
-      <c r="B15" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="93" t="s">
+      <c r="B15" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="89" t="s">
+      <c r="E15" s="89"/>
+      <c r="F15" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="89"/>
-    </row>
-    <row r="16" spans="1:14" s="90" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="86">
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="49"/>
+    </row>
+    <row r="16" spans="1:14" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="46">
         <v>12</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="88" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="89" t="s">
+      <c r="E16" s="89"/>
+      <c r="F16" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="87">
-        <v>2</v>
-      </c>
-      <c r="H16" s="87"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="89"/>
-    </row>
-    <row r="17" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86">
+      <c r="G16" s="47">
+        <v>2</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="49"/>
+    </row>
+    <row r="17" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46">
         <v>13</v>
       </c>
-      <c r="B17" s="87" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="93" t="s">
+      <c r="B17" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="89" t="s">
+      <c r="E17" s="89"/>
+      <c r="F17" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="87">
-        <v>2</v>
-      </c>
-      <c r="H17" s="87"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="89"/>
+      <c r="G17" s="47">
+        <v>2</v>
+      </c>
+      <c r="H17" s="47"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="49"/>
     </row>
     <row r="18" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G18" s="45"/>
@@ -4894,15 +4891,15 @@
       <c r="G20" s="45"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="55">
+      <c r="A25" s="65">
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="10"/>
       <c r="G25" s="17"/>
       <c r="H25" s="10"/>
@@ -4914,21 +4911,15 @@
       <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="75">
-        <v>4</v>
-      </c>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="100"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -4938,15 +4929,15 @@
       <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="76"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="101"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -4956,15 +4947,15 @@
       <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="77"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="102"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -4974,23 +4965,15 @@
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="10">
-        <v>10</v>
-      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -5000,21 +4983,15 @@
       <c r="N29" s="10"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="75">
-        <v>4</v>
-      </c>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="100"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -5024,17 +5001,15 @@
       <c r="N30" s="10"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="77"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="102"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -5044,21 +5019,15 @@
       <c r="N31" s="10"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="10"/>
-      <c r="D32" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="28">
-        <v>2</v>
-      </c>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -5069,6 +5038,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E28"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A1:C2"/>
@@ -5083,17 +5063,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E28"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="G30:G31"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F26 F29:F32 F5:F17">
@@ -5109,7 +5078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+    <sheetView topLeftCell="E16" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -5130,20 +5099,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="A1" s="105" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>56</v>
@@ -5152,215 +5121,215 @@
         <v>2</v>
       </c>
       <c r="E3" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="103" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="95" t="s">
+      <c r="B4" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="103"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="104"/>
+      <c r="B6" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="104"/>
+      <c r="B7" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C8" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A9" s="104"/>
+      <c r="B9" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="104"/>
+      <c r="B10" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="87">
+      <c r="D10" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="47">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="87">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="96"/>
-      <c r="B7" s="97" t="s">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="104"/>
+      <c r="B12" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="104"/>
+      <c r="B13" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="C13" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="106" t="s">
         <v>132</v>
-      </c>
-      <c r="B8" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
-      <c r="B9" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="96"/>
-      <c r="B10" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="96"/>
-      <c r="B12" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="88" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="87">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="96"/>
-      <c r="B13" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="88" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="87">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="84" t="s">
-        <v>133</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="85"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="85"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="26" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="22">
         <v>8</v>
       </c>
-      <c r="H18" s="102" t="s">
+      <c r="H18" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="102" t="s">
+      <c r="I18" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="102" t="s">
+      <c r="J18" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="103" t="s">
-        <v>170</v>
+      <c r="K18" s="57" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -5371,7 +5340,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
@@ -5387,171 +5356,171 @@
         <v>3</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J20" s="42" t="s">
         <v>68</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="45" x14ac:dyDescent="0.2">
       <c r="H21" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J21" s="42" t="s">
         <v>68</v>
       </c>
       <c r="K21" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="60" x14ac:dyDescent="0.2">
       <c r="H22" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J22" s="42" t="s">
         <v>68</v>
       </c>
       <c r="K22" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="45" x14ac:dyDescent="0.2">
       <c r="H23" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J23" s="42" t="s">
         <v>69</v>
       </c>
       <c r="K23" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="30" x14ac:dyDescent="0.2">
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J24" s="42" t="s">
         <v>69</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H25" s="106" t="s">
+      <c r="H25" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="J25" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H26" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="I25" s="106" t="s">
-        <v>172</v>
-      </c>
-      <c r="J25" s="106" t="s">
+      <c r="I26" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="J26" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="K25" s="107" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H26" s="104" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" s="104" t="s">
-        <v>172</v>
-      </c>
-      <c r="J26" s="104" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" s="105"/>
+      <c r="K26" s="59"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H27" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="104" t="s">
-        <v>172</v>
-      </c>
-      <c r="J27" s="104" t="s">
-        <v>108</v>
-      </c>
-      <c r="K27" s="105"/>
+      <c r="H27" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="J27" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" s="59"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H28" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H29" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H30" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="J30" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" s="59"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H31" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="J31" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="59"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H32" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H30" s="104" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="104" t="s">
-        <v>172</v>
-      </c>
-      <c r="J30" s="104" t="s">
-        <v>108</v>
-      </c>
-      <c r="K30" s="105"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H31" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="I31" s="104" t="s">
-        <v>172</v>
-      </c>
-      <c r="J31" s="104" t="s">
-        <v>108</v>
-      </c>
-      <c r="K31" s="105"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H32" s="104" t="s">
-        <v>124</v>
-      </c>
-      <c r="I32" s="104" t="s">
-        <v>172</v>
-      </c>
-      <c r="J32" s="104" t="s">
-        <v>108</v>
-      </c>
-      <c r="K32" s="105"/>
+      <c r="I32" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="J32" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5592,7 +5561,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="StatusList">Refrence!$A$1:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -580,7 +580,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1034,6 +1034,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1043,30 +1061,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1074,35 +1098,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1114,39 +1147,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1223,7 +1223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1258,7 +1258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1474,18 +1474,18 @@
       <selection activeCell="C13" sqref="C13:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="52.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="38.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="52.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1788,18 +1788,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1814,24 +1814,24 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1839,10 +1839,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1860,10 +1860,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -2092,14 +2092,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="69" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="63" t="s">
@@ -2134,14 +2134,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="63" t="s">
         <v>71</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -2254,8 +2254,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="65">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="71">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2274,8 +2274,8 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="72"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
@@ -2312,8 +2312,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
@@ -2350,8 +2350,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="72"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
@@ -2388,8 +2388,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="72"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
@@ -2426,8 +2426,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="73"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
@@ -2466,6 +2466,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2476,15 +2485,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2504,24 +2504,24 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
     <col min="3" max="3" width="41" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="7" max="7" width="13.375" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2529,10 +2529,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="U3" s="39"/>
       <c r="V3" s="39"/>
       <c r="W3" s="39"/>
@@ -2585,7 +2585,7 @@
       <c r="BJ3" s="39"/>
       <c r="BK3" s="39"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2595,10 +2595,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="BJ4" s="39"/>
       <c r="BK4" s="39"/>
     </row>
-    <row r="5" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>1</v>
       </c>
@@ -2686,10 +2686,10 @@
       <c r="C5" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="83"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="19" t="s">
         <v>92</v>
       </c>
@@ -2765,7 +2765,7 @@
       <c r="BJ5" s="39"/>
       <c r="BK5" s="39"/>
     </row>
-    <row r="6" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>3</v>
       </c>
@@ -2773,10 +2773,10 @@
         <v>118</v>
       </c>
       <c r="C6" s="24"/>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="79"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="25" t="s">
         <v>92</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="BJ6" s="39"/>
       <c r="BK6" s="39"/>
     </row>
-    <row r="7" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -2860,8 +2860,8 @@
         <v>119</v>
       </c>
       <c r="C7" s="24"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="85"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="25" t="s">
         <v>92</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="BJ7" s="39"/>
       <c r="BK7" s="39"/>
     </row>
-    <row r="8" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -2945,10 +2945,10 @@
         <v>108</v>
       </c>
       <c r="C8" s="24"/>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="79"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="25" t="s">
         <v>92</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="BJ8" s="39"/>
       <c r="BK8" s="39"/>
     </row>
-    <row r="9" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>6</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="BJ9" s="39"/>
       <c r="BK9" s="39"/>
     </row>
-    <row r="10" spans="1:63" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>7</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="BJ10" s="39"/>
       <c r="BK10" s="39"/>
     </row>
-    <row r="11" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>8</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="BJ11" s="39"/>
       <c r="BK11" s="39"/>
     </row>
-    <row r="12" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>9</v>
       </c>
@@ -3245,8 +3245,8 @@
         <v>109</v>
       </c>
       <c r="C12" s="41"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
       <c r="F12" s="31"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -3306,7 +3306,7 @@
       <c r="BJ12" s="39"/>
       <c r="BK12" s="39"/>
     </row>
-    <row r="13" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>10</v>
       </c>
@@ -3314,10 +3314,10 @@
         <v>113</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="81"/>
+      <c r="E13" s="83"/>
       <c r="F13" s="31" t="s">
         <v>76</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="BJ13" s="39"/>
       <c r="BK13" s="39"/>
     </row>
-    <row r="14" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>11</v>
       </c>
@@ -3401,10 +3401,10 @@
         <v>124</v>
       </c>
       <c r="C14" s="27"/>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="81"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="31" t="s">
         <v>76</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="BJ14" s="39"/>
       <c r="BK14" s="39"/>
     </row>
-    <row r="15" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="BJ15" s="39"/>
       <c r="BK15" s="39"/>
     </row>
-    <row r="16" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>13</v>
       </c>
@@ -3575,10 +3575,10 @@
         <v>115</v>
       </c>
       <c r="C16" s="34"/>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="81"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="31" t="s">
         <v>76</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="BJ16" s="39"/>
       <c r="BK16" s="39"/>
     </row>
-    <row r="17" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>14</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="BJ17" s="39"/>
       <c r="BK17" s="39"/>
     </row>
-    <row r="18" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>15</v>
       </c>
@@ -3810,7 +3810,7 @@
       <c r="BJ18" s="39"/>
       <c r="BK18" s="39"/>
     </row>
-    <row r="19" spans="1:63" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
         <v>16</v>
       </c>
@@ -3818,10 +3818,10 @@
         <v>121</v>
       </c>
       <c r="C19" s="37"/>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="77"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="38" t="s">
         <v>66</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
     </row>
-    <row r="20" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -3844,10 +3844,10 @@
         <v>122</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="79"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="25" t="s">
         <v>92</v>
       </c>
@@ -3923,7 +3923,7 @@
       <c r="BJ20" s="39"/>
       <c r="BK20" s="39"/>
     </row>
-    <row r="21" spans="1:63" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>18</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="BJ21" s="39"/>
       <c r="BK21" s="39"/>
     </row>
-    <row r="22" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>19</v>
       </c>
@@ -4018,10 +4018,10 @@
         <v>117</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="79"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="25" t="s">
         <v>92</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="BJ22" s="39"/>
       <c r="BK22" s="39"/>
     </row>
-    <row r="23" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -4105,10 +4105,10 @@
         <v>123</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="79"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="25" t="s">
         <v>92</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="BJ23" s="39"/>
       <c r="BK23" s="39"/>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="O24" s="39"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="39"/>
@@ -4235,7 +4235,7 @@
       <c r="BJ24" s="39"/>
       <c r="BK24" s="39"/>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B25" s="52" t="s">
         <v>163</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>71</v>
       </c>
@@ -4424,6 +4424,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
@@ -4440,10 +4444,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F23">
@@ -4459,28 +4459,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
     <col min="3" max="3" width="41" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="7" max="7" width="13.375" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -4488,10 +4488,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>42065</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -4509,10 +4509,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -4541,14 +4541,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>1</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="101" t="s">
         <v>151</v>
       </c>
       <c r="D5" s="74" t="s">
@@ -4569,14 +4569,14 @@
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>2</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="91"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="74" t="s">
         <v>68</v>
       </c>
@@ -4595,14 +4595,14 @@
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>3</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="91"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="74" t="s">
         <v>68</v>
       </c>
@@ -4621,18 +4621,18 @@
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
     </row>
-    <row r="8" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>4</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="80" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="81"/>
+      <c r="E8" s="83"/>
       <c r="F8" s="31" t="s">
         <v>76</v>
       </c>
@@ -4647,18 +4647,18 @@
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
     </row>
-    <row r="9" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="80" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="81"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="31" t="s">
         <v>76</v>
       </c>
@@ -4673,25 +4673,27 @@
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
     </row>
-    <row r="10" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>6</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="80" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="81"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="31" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="G10" s="27">
         <v>1</v>
       </c>
-      <c r="H10" s="27"/>
+      <c r="H10" s="27">
+        <v>1</v>
+      </c>
       <c r="I10" s="29"/>
       <c r="J10" s="27"/>
       <c r="K10" s="34"/>
@@ -4699,14 +4701,14 @@
       <c r="M10" s="34"/>
       <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="91"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="74" t="s">
         <v>107</v>
       </c>
@@ -4725,14 +4727,14 @@
       <c r="M11" s="34"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:14" s="39" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="39" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>8</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="91"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="74" t="s">
         <v>107</v>
       </c>
@@ -4751,7 +4753,7 @@
       <c r="M12" s="34"/>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46">
         <v>9</v>
       </c>
@@ -4761,10 +4763,10 @@
       <c r="C13" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="89"/>
+      <c r="E13" s="100"/>
       <c r="F13" s="49" t="s">
         <v>66</v>
       </c>
@@ -4779,7 +4781,7 @@
       <c r="M13" s="48"/>
       <c r="N13" s="49"/>
     </row>
-    <row r="14" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46">
         <v>10</v>
       </c>
@@ -4787,10 +4789,10 @@
         <v>174</v>
       </c>
       <c r="C14" s="48"/>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="89"/>
+      <c r="E14" s="100"/>
       <c r="F14" s="49" t="s">
         <v>66</v>
       </c>
@@ -4803,7 +4805,7 @@
       <c r="M14" s="48"/>
       <c r="N14" s="49"/>
     </row>
-    <row r="15" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46">
         <v>11</v>
       </c>
@@ -4811,10 +4813,10 @@
         <v>170</v>
       </c>
       <c r="C15" s="48"/>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="89"/>
+      <c r="E15" s="100"/>
       <c r="F15" s="49" t="s">
         <v>66</v>
       </c>
@@ -4827,7 +4829,7 @@
       <c r="M15" s="48"/>
       <c r="N15" s="49"/>
     </row>
-    <row r="16" spans="1:14" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="46">
         <v>12</v>
       </c>
@@ -4837,10 +4839,10 @@
       <c r="C16" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="89"/>
+      <c r="E16" s="100"/>
       <c r="F16" s="49" t="s">
         <v>66</v>
       </c>
@@ -4855,7 +4857,7 @@
       <c r="M16" s="48"/>
       <c r="N16" s="49"/>
     </row>
-    <row r="17" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46">
         <v>13</v>
       </c>
@@ -4863,10 +4865,10 @@
         <v>167</v>
       </c>
       <c r="C17" s="48"/>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="89"/>
+      <c r="E17" s="100"/>
       <c r="F17" s="49" t="s">
         <v>66</v>
       </c>
@@ -4881,17 +4883,17 @@
       <c r="M17" s="48"/>
       <c r="N17" s="49"/>
     </row>
-    <row r="18" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G18" s="45"/>
     </row>
-    <row r="19" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G19" s="45"/>
     </row>
-    <row r="20" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G20" s="45"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="65">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="71">
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -4910,16 +4912,16 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="72"/>
       <c r="B26" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="100"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -4928,16 +4930,16 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="72"/>
       <c r="B27" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="101"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="90"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -4946,16 +4948,16 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="72"/>
       <c r="B28" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="102"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="91"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -4964,8 +4966,8 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="72"/>
       <c r="B29" s="10" t="s">
         <v>102</v>
       </c>
@@ -4982,16 +4984,16 @@
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="72"/>
       <c r="B30" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="93"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="100"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -5000,16 +5002,16 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="72"/>
       <c r="B31" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="102"/>
+      <c r="G31" s="91"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -5018,8 +5020,8 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="96"/>
       <c r="B32" s="6" t="s">
         <v>105</v>
       </c>
@@ -5038,17 +5040,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E28"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A1:C2"/>
@@ -5063,6 +5054,17 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E28"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="G30:G31"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F26 F29:F32 F5:F17">
@@ -5082,20 +5084,20 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="14.25" style="22" customWidth="1"/>
     <col min="2" max="2" width="20" style="22" customWidth="1"/>
     <col min="3" max="3" width="48" style="22" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="22" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="22"/>
+    <col min="4" max="4" width="56.625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="22" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="22"/>
     <col min="8" max="8" width="56" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="22" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.85546875" style="22" customWidth="1"/>
-    <col min="12" max="12" width="51.140625" style="22" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="22"/>
+    <col min="10" max="10" width="20.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.875" style="22" customWidth="1"/>
+    <col min="12" max="12" width="51.125" style="22" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -5368,7 +5370,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.2">
       <c r="H21" s="42" t="s">
         <v>111</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" ht="45" x14ac:dyDescent="0.2">
       <c r="H22" s="42" t="s">
         <v>112</v>
       </c>
@@ -5396,7 +5398,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" ht="30" x14ac:dyDescent="0.2">
       <c r="H23" s="42" t="s">
         <v>113</v>
       </c>
@@ -5544,27 +5546,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -580,7 +580,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1034,6 +1034,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,14 +1061,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1085,22 +1097,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1114,39 +1147,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1474,18 +1474,18 @@
       <selection activeCell="C13" sqref="C13:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="52.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="3"/>
+    <col min="4" max="4" width="38.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="52.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1788,18 +1788,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1814,24 +1814,24 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="6"/>
+    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1839,10 +1839,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1860,10 +1860,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -2092,14 +2092,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="72" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="63" t="s">
@@ -2134,14 +2134,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="63" t="s">
         <v>71</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -2254,8 +2254,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="71">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="65">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2274,8 +2274,8 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="66"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
@@ -2312,8 +2312,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="72"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
@@ -2350,8 +2350,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="72"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="66"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
@@ -2388,8 +2388,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="72"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="66"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
@@ -2426,8 +2426,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
@@ -2466,15 +2466,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2485,6 +2476,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2504,24 +2504,24 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="41" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="6"/>
+    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2529,10 +2529,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="U3" s="39"/>
       <c r="V3" s="39"/>
       <c r="W3" s="39"/>
@@ -2585,7 +2585,7 @@
       <c r="BJ3" s="39"/>
       <c r="BK3" s="39"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2595,10 +2595,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="BJ4" s="39"/>
       <c r="BK4" s="39"/>
     </row>
-    <row r="5" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>1</v>
       </c>
@@ -2686,10 +2686,10 @@
       <c r="C5" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="79"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="19" t="s">
         <v>92</v>
       </c>
@@ -2765,7 +2765,7 @@
       <c r="BJ5" s="39"/>
       <c r="BK5" s="39"/>
     </row>
-    <row r="6" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>3</v>
       </c>
@@ -2773,10 +2773,10 @@
         <v>118</v>
       </c>
       <c r="C6" s="24"/>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="77"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="25" t="s">
         <v>92</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="BJ6" s="39"/>
       <c r="BK6" s="39"/>
     </row>
-    <row r="7" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -2860,8 +2860,8 @@
         <v>119</v>
       </c>
       <c r="C7" s="24"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
       <c r="F7" s="25" t="s">
         <v>92</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="BJ7" s="39"/>
       <c r="BK7" s="39"/>
     </row>
-    <row r="8" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -2945,10 +2945,10 @@
         <v>108</v>
       </c>
       <c r="C8" s="24"/>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="77"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="25" t="s">
         <v>92</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="BJ8" s="39"/>
       <c r="BK8" s="39"/>
     </row>
-    <row r="9" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>6</v>
       </c>
@@ -3020,10 +3020,10 @@
         <v>110</v>
       </c>
       <c r="C9" s="27"/>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="75"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="31" t="s">
         <v>76</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="BJ9" s="39"/>
       <c r="BK9" s="39"/>
     </row>
-    <row r="10" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>7</v>
       </c>
@@ -3095,10 +3095,10 @@
         <v>111</v>
       </c>
       <c r="C10" s="27"/>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="75"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="31" t="s">
         <v>76</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="BJ10" s="39"/>
       <c r="BK10" s="39"/>
     </row>
-    <row r="11" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>8</v>
       </c>
@@ -3170,10 +3170,10 @@
         <v>112</v>
       </c>
       <c r="C11" s="34"/>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="75"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="31" t="s">
         <v>76</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="BJ11" s="39"/>
       <c r="BK11" s="39"/>
     </row>
-    <row r="12" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>9</v>
       </c>
@@ -3245,8 +3245,8 @@
         <v>109</v>
       </c>
       <c r="C12" s="41"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="31"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -3306,7 +3306,7 @@
       <c r="BJ12" s="39"/>
       <c r="BK12" s="39"/>
     </row>
-    <row r="13" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>10</v>
       </c>
@@ -3314,10 +3314,10 @@
         <v>113</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="E13" s="75"/>
       <c r="F13" s="31" t="s">
         <v>76</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="BJ13" s="39"/>
       <c r="BK13" s="39"/>
     </row>
-    <row r="14" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>11</v>
       </c>
@@ -3401,10 +3401,10 @@
         <v>124</v>
       </c>
       <c r="C14" s="27"/>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="83"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="31" t="s">
         <v>76</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="BJ14" s="39"/>
       <c r="BK14" s="39"/>
     </row>
-    <row r="15" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -3488,10 +3488,10 @@
         <v>114</v>
       </c>
       <c r="C15" s="24"/>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="87"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="25" t="s">
         <v>92</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="BJ15" s="39"/>
       <c r="BK15" s="39"/>
     </row>
-    <row r="16" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>13</v>
       </c>
@@ -3575,10 +3575,10 @@
         <v>115</v>
       </c>
       <c r="C16" s="34"/>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="31" t="s">
         <v>76</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="BJ16" s="39"/>
       <c r="BK16" s="39"/>
     </row>
-    <row r="17" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>14</v>
       </c>
@@ -3662,8 +3662,8 @@
         <v>125</v>
       </c>
       <c r="C17" s="34"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
       <c r="F17" s="31"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -3723,7 +3723,7 @@
       <c r="BJ17" s="39"/>
       <c r="BK17" s="39"/>
     </row>
-    <row r="18" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>15</v>
       </c>
@@ -3731,10 +3731,10 @@
         <v>120</v>
       </c>
       <c r="C18" s="34"/>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="75"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="31" t="s">
         <v>76</v>
       </c>
@@ -3810,7 +3810,7 @@
       <c r="BJ18" s="39"/>
       <c r="BK18" s="39"/>
     </row>
-    <row r="19" spans="1:63" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:63" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>16</v>
       </c>
@@ -3818,10 +3818,10 @@
         <v>121</v>
       </c>
       <c r="C19" s="37"/>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="85"/>
+      <c r="E19" s="87"/>
       <c r="F19" s="38" t="s">
         <v>66</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
     </row>
-    <row r="20" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -3844,10 +3844,10 @@
         <v>122</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="77"/>
+      <c r="E20" s="81"/>
       <c r="F20" s="25" t="s">
         <v>92</v>
       </c>
@@ -3923,7 +3923,7 @@
       <c r="BJ20" s="39"/>
       <c r="BK20" s="39"/>
     </row>
-    <row r="21" spans="1:63" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:63" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>18</v>
       </c>
@@ -3931,10 +3931,10 @@
         <v>116</v>
       </c>
       <c r="C21" s="34"/>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="75"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="31" t="s">
         <v>76</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="BJ21" s="39"/>
       <c r="BK21" s="39"/>
     </row>
-    <row r="22" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>19</v>
       </c>
@@ -4018,10 +4018,10 @@
         <v>117</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="77"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="25" t="s">
         <v>92</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="BJ22" s="39"/>
       <c r="BK22" s="39"/>
     </row>
-    <row r="23" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -4105,10 +4105,10 @@
         <v>123</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="77"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="25" t="s">
         <v>92</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="BJ23" s="39"/>
       <c r="BK23" s="39"/>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
       <c r="O24" s="39"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="39"/>
@@ -4235,7 +4235,7 @@
       <c r="BJ24" s="39"/>
       <c r="BK24" s="39"/>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B25" s="52" t="s">
         <v>163</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>71</v>
       </c>
@@ -4424,11 +4424,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A1:C2"/>
@@ -4444,6 +4439,11 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F23">
@@ -4459,28 +4459,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" activeCellId="3" sqref="D13:F13 F12 F11 F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="41" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="6"/>
+    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -4488,10 +4488,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>42065</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -4509,10 +4509,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -4541,20 +4541,20 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="75"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="31" t="s">
         <v>76</v>
       </c>
@@ -4569,18 +4569,18 @@
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>2</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="74" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="75"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="31" t="s">
         <v>76</v>
       </c>
@@ -4595,18 +4595,18 @@
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>3</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="74" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="75"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="31" t="s">
         <v>76</v>
       </c>
@@ -4621,18 +4621,18 @@
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
     </row>
-    <row r="8" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>4</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="82" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="83"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="31" t="s">
         <v>76</v>
       </c>
@@ -4647,18 +4647,18 @@
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
     </row>
-    <row r="9" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="82" t="s">
+      <c r="C9" s="91"/>
+      <c r="D9" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="31" t="s">
         <v>76</v>
       </c>
@@ -4673,27 +4673,25 @@
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
     </row>
-    <row r="10" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>6</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="82" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="E10" s="75"/>
       <c r="F10" s="31" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="G10" s="27">
         <v>1</v>
       </c>
-      <c r="H10" s="27">
-        <v>1</v>
-      </c>
+      <c r="H10" s="27"/>
       <c r="I10" s="29"/>
       <c r="J10" s="27"/>
       <c r="K10" s="34"/>
@@ -4701,44 +4699,46 @@
       <c r="M10" s="34"/>
       <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="74" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="75"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="31" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="G11" s="27">
         <v>1</v>
       </c>
       <c r="H11" s="27"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="29">
+        <v>1</v>
+      </c>
       <c r="J11" s="27"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:14" s="39" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="39" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>8</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="74" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="75"/>
+      <c r="E12" s="79"/>
       <c r="F12" s="31" t="s">
         <v>76</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="M12" s="34"/>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46">
         <v>9</v>
       </c>
@@ -4763,10 +4763,10 @@
       <c r="C13" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="100"/>
+      <c r="E13" s="89"/>
       <c r="F13" s="49" t="s">
         <v>66</v>
       </c>
@@ -4781,7 +4781,7 @@
       <c r="M13" s="48"/>
       <c r="N13" s="49"/>
     </row>
-    <row r="14" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46">
         <v>10</v>
       </c>
@@ -4789,23 +4789,25 @@
         <v>174</v>
       </c>
       <c r="C14" s="48"/>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="100"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="49" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
-      <c r="I14" s="46"/>
+      <c r="I14" s="46">
+        <v>2</v>
+      </c>
       <c r="J14" s="47"/>
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
       <c r="N14" s="49"/>
     </row>
-    <row r="15" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46">
         <v>11</v>
       </c>
@@ -4813,10 +4815,10 @@
         <v>170</v>
       </c>
       <c r="C15" s="48"/>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="100"/>
+      <c r="E15" s="89"/>
       <c r="F15" s="49" t="s">
         <v>66</v>
       </c>
@@ -4829,7 +4831,7 @@
       <c r="M15" s="48"/>
       <c r="N15" s="49"/>
     </row>
-    <row r="16" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <v>12</v>
       </c>
@@ -4839,10 +4841,10 @@
       <c r="C16" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="99" t="s">
+      <c r="D16" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="100"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="49" t="s">
         <v>66</v>
       </c>
@@ -4857,7 +4859,7 @@
       <c r="M16" s="48"/>
       <c r="N16" s="49"/>
     </row>
-    <row r="17" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46">
         <v>13</v>
       </c>
@@ -4865,10 +4867,10 @@
         <v>167</v>
       </c>
       <c r="C17" s="48"/>
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="100"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="49" t="s">
         <v>66</v>
       </c>
@@ -4883,17 +4885,17 @@
       <c r="M17" s="48"/>
       <c r="N17" s="49"/>
     </row>
-    <row r="18" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G18" s="45"/>
     </row>
-    <row r="19" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G19" s="45"/>
     </row>
-    <row r="20" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G20" s="45"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="71">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="65">
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -4912,16 +4914,16 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="72"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="66"/>
       <c r="B26" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="89"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="100"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -4930,16 +4932,16 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="66"/>
       <c r="B27" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="90"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="101"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -4948,16 +4950,16 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="72"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="66"/>
       <c r="B28" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="91"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="102"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -4966,8 +4968,8 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="72"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
       <c r="B29" s="10" t="s">
         <v>102</v>
       </c>
@@ -4984,16 +4986,16 @@
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="72"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="66"/>
       <c r="B30" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="89"/>
+      <c r="G30" s="100"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -5002,16 +5004,16 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="72"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="66"/>
       <c r="B31" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="91"/>
+      <c r="G31" s="102"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -5020,8 +5022,8 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="96"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
       <c r="B32" s="6" t="s">
         <v>105</v>
       </c>
@@ -5040,6 +5042,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E28"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A1:C2"/>
@@ -5054,17 +5067,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E28"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="G30:G31"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F26 F29:F32 F5:F17">
@@ -5084,20 +5086,20 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="22" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="22" customWidth="1"/>
     <col min="2" max="2" width="20" style="22" customWidth="1"/>
     <col min="3" max="3" width="48" style="22" customWidth="1"/>
-    <col min="4" max="4" width="56.625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="22" customWidth="1"/>
-    <col min="6" max="7" width="9.125" style="22"/>
+    <col min="4" max="4" width="56.5703125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="22" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="22"/>
     <col min="8" max="8" width="56" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="22" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.875" style="22" customWidth="1"/>
-    <col min="12" max="12" width="51.125" style="22" customWidth="1"/>
-    <col min="13" max="16384" width="9.125" style="22"/>
+    <col min="10" max="10" width="20.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.85546875" style="22" customWidth="1"/>
+    <col min="12" max="12" width="51.140625" style="22" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -5370,7 +5372,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="45" x14ac:dyDescent="0.2">
       <c r="H21" s="42" t="s">
         <v>111</v>
       </c>
@@ -5384,7 +5386,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" ht="60" x14ac:dyDescent="0.2">
       <c r="H22" s="42" t="s">
         <v>112</v>
       </c>
@@ -5398,7 +5400,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" ht="45" x14ac:dyDescent="0.2">
       <c r="H23" s="42" t="s">
         <v>113</v>
       </c>
@@ -5546,27 +5548,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -580,7 +580,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1034,6 +1034,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1043,23 +1061,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1067,41 +1085,56 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1114,39 +1147,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1474,18 +1474,18 @@
       <selection activeCell="C13" sqref="C13:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="52.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="38.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="52.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1788,18 +1788,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1814,24 +1814,24 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1839,10 +1839,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1860,10 +1860,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -2092,14 +2092,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="69" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="63" t="s">
@@ -2134,14 +2134,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="63" t="s">
         <v>71</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -2254,8 +2254,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="65">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="71">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2274,8 +2274,8 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="72"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
@@ -2312,8 +2312,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
@@ -2350,8 +2350,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="72"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
@@ -2388,8 +2388,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="72"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
@@ -2426,8 +2426,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="73"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
@@ -2466,6 +2466,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2476,15 +2485,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2504,24 +2504,24 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
     <col min="3" max="3" width="41" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="7" max="7" width="13.375" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2529,10 +2529,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="U3" s="39"/>
       <c r="V3" s="39"/>
       <c r="W3" s="39"/>
@@ -2585,7 +2585,7 @@
       <c r="BJ3" s="39"/>
       <c r="BK3" s="39"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2595,10 +2595,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="BJ4" s="39"/>
       <c r="BK4" s="39"/>
     </row>
-    <row r="5" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>1</v>
       </c>
@@ -2686,10 +2686,10 @@
       <c r="C5" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="83"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="19" t="s">
         <v>92</v>
       </c>
@@ -2765,7 +2765,7 @@
       <c r="BJ5" s="39"/>
       <c r="BK5" s="39"/>
     </row>
-    <row r="6" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>3</v>
       </c>
@@ -2773,10 +2773,10 @@
         <v>118</v>
       </c>
       <c r="C6" s="24"/>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="81"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="25" t="s">
         <v>92</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="BJ6" s="39"/>
       <c r="BK6" s="39"/>
     </row>
-    <row r="7" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -2860,8 +2860,8 @@
         <v>119</v>
       </c>
       <c r="C7" s="24"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="85"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="25" t="s">
         <v>92</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="BJ7" s="39"/>
       <c r="BK7" s="39"/>
     </row>
-    <row r="8" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -2945,10 +2945,10 @@
         <v>108</v>
       </c>
       <c r="C8" s="24"/>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="81"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="25" t="s">
         <v>92</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="BJ8" s="39"/>
       <c r="BK8" s="39"/>
     </row>
-    <row r="9" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>6</v>
       </c>
@@ -3020,10 +3020,10 @@
         <v>110</v>
       </c>
       <c r="C9" s="27"/>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="79"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="31" t="s">
         <v>76</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="BJ9" s="39"/>
       <c r="BK9" s="39"/>
     </row>
-    <row r="10" spans="1:63" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>7</v>
       </c>
@@ -3095,10 +3095,10 @@
         <v>111</v>
       </c>
       <c r="C10" s="27"/>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="79"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="31" t="s">
         <v>76</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="BJ10" s="39"/>
       <c r="BK10" s="39"/>
     </row>
-    <row r="11" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>8</v>
       </c>
@@ -3170,10 +3170,10 @@
         <v>112</v>
       </c>
       <c r="C11" s="34"/>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="79"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="31" t="s">
         <v>76</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="BJ11" s="39"/>
       <c r="BK11" s="39"/>
     </row>
-    <row r="12" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>9</v>
       </c>
@@ -3245,8 +3245,8 @@
         <v>109</v>
       </c>
       <c r="C12" s="41"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
       <c r="F12" s="31"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -3306,7 +3306,7 @@
       <c r="BJ12" s="39"/>
       <c r="BK12" s="39"/>
     </row>
-    <row r="13" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>10</v>
       </c>
@@ -3314,10 +3314,10 @@
         <v>113</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="75"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="31" t="s">
         <v>76</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="BJ13" s="39"/>
       <c r="BK13" s="39"/>
     </row>
-    <row r="14" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>11</v>
       </c>
@@ -3401,10 +3401,10 @@
         <v>124</v>
       </c>
       <c r="C14" s="27"/>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="75"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="31" t="s">
         <v>76</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="BJ14" s="39"/>
       <c r="BK14" s="39"/>
     </row>
-    <row r="15" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -3488,10 +3488,10 @@
         <v>114</v>
       </c>
       <c r="C15" s="24"/>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="77"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="25" t="s">
         <v>92</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="BJ15" s="39"/>
       <c r="BK15" s="39"/>
     </row>
-    <row r="16" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>13</v>
       </c>
@@ -3575,10 +3575,10 @@
         <v>115</v>
       </c>
       <c r="C16" s="34"/>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="75"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="31" t="s">
         <v>76</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="BJ16" s="39"/>
       <c r="BK16" s="39"/>
     </row>
-    <row r="17" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>14</v>
       </c>
@@ -3662,8 +3662,8 @@
         <v>125</v>
       </c>
       <c r="C17" s="34"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="31"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -3723,7 +3723,7 @@
       <c r="BJ17" s="39"/>
       <c r="BK17" s="39"/>
     </row>
-    <row r="18" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>15</v>
       </c>
@@ -3731,10 +3731,10 @@
         <v>120</v>
       </c>
       <c r="C18" s="34"/>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="79"/>
+      <c r="E18" s="83"/>
       <c r="F18" s="31" t="s">
         <v>76</v>
       </c>
@@ -3810,7 +3810,7 @@
       <c r="BJ18" s="39"/>
       <c r="BK18" s="39"/>
     </row>
-    <row r="19" spans="1:63" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
         <v>16</v>
       </c>
@@ -3818,10 +3818,10 @@
         <v>121</v>
       </c>
       <c r="C19" s="37"/>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="87"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="38" t="s">
         <v>66</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
     </row>
-    <row r="20" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -3844,10 +3844,10 @@
         <v>122</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="80" t="s">
+      <c r="D20" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="81"/>
+      <c r="E20" s="75"/>
       <c r="F20" s="25" t="s">
         <v>92</v>
       </c>
@@ -3923,7 +3923,7 @@
       <c r="BJ20" s="39"/>
       <c r="BK20" s="39"/>
     </row>
-    <row r="21" spans="1:63" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>18</v>
       </c>
@@ -3931,10 +3931,10 @@
         <v>116</v>
       </c>
       <c r="C21" s="34"/>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="79"/>
+      <c r="E21" s="83"/>
       <c r="F21" s="31" t="s">
         <v>76</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="BJ21" s="39"/>
       <c r="BK21" s="39"/>
     </row>
-    <row r="22" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>19</v>
       </c>
@@ -4018,10 +4018,10 @@
         <v>117</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="80" t="s">
+      <c r="D22" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="81"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="25" t="s">
         <v>92</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="BJ22" s="39"/>
       <c r="BK22" s="39"/>
     </row>
-    <row r="23" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -4105,10 +4105,10 @@
         <v>123</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="81"/>
+      <c r="E23" s="75"/>
       <c r="F23" s="25" t="s">
         <v>92</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="BJ23" s="39"/>
       <c r="BK23" s="39"/>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="O24" s="39"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="39"/>
@@ -4235,7 +4235,7 @@
       <c r="BJ24" s="39"/>
       <c r="BK24" s="39"/>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B25" s="52" t="s">
         <v>163</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>71</v>
       </c>
@@ -4424,6 +4424,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A1:C2"/>
@@ -4440,10 +4444,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F23">
@@ -4459,28 +4459,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" activeCellId="3" sqref="D13:F13 F12 F11 F14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
     <col min="3" max="3" width="41" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="7" max="7" width="13.375" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -4488,10 +4488,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>42065</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -4509,10 +4509,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -4541,20 +4541,20 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>1</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="79"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="31" t="s">
         <v>76</v>
       </c>
@@ -4569,18 +4569,18 @@
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>2</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="78" t="s">
+      <c r="C6" s="102"/>
+      <c r="D6" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="79"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="31" t="s">
         <v>76</v>
       </c>
@@ -4595,18 +4595,18 @@
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>3</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="78" t="s">
+      <c r="C7" s="102"/>
+      <c r="D7" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="79"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="31" t="s">
         <v>76</v>
       </c>
@@ -4621,18 +4621,18 @@
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
     </row>
-    <row r="8" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>4</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="74" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="75"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="31" t="s">
         <v>76</v>
       </c>
@@ -4647,18 +4647,18 @@
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
     </row>
-    <row r="9" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="74" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="75"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="31" t="s">
         <v>76</v>
       </c>
@@ -4673,72 +4673,72 @@
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
     </row>
-    <row r="10" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>6</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="74" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="75"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="31" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="G10" s="27">
         <v>1</v>
       </c>
       <c r="H10" s="27"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
       <c r="J10" s="27"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="78" t="s">
+      <c r="C11" s="102"/>
+      <c r="D11" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="79"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="31" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="G11" s="27">
         <v>1</v>
       </c>
       <c r="H11" s="27"/>
-      <c r="I11" s="29">
-        <v>1</v>
-      </c>
+      <c r="I11" s="29"/>
       <c r="J11" s="27"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:14" s="39" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="39" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>8</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="78" t="s">
+      <c r="C12" s="102"/>
+      <c r="D12" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="79"/>
+      <c r="E12" s="83"/>
       <c r="F12" s="31" t="s">
         <v>76</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="M12" s="34"/>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46">
         <v>9</v>
       </c>
@@ -4763,10 +4763,10 @@
       <c r="C13" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="89"/>
+      <c r="E13" s="100"/>
       <c r="F13" s="49" t="s">
         <v>66</v>
       </c>
@@ -4781,7 +4781,7 @@
       <c r="M13" s="48"/>
       <c r="N13" s="49"/>
     </row>
-    <row r="14" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46">
         <v>10</v>
       </c>
@@ -4789,10 +4789,10 @@
         <v>174</v>
       </c>
       <c r="C14" s="48"/>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="89"/>
+      <c r="E14" s="100"/>
       <c r="F14" s="49" t="s">
         <v>76</v>
       </c>
@@ -4807,7 +4807,7 @@
       <c r="M14" s="48"/>
       <c r="N14" s="49"/>
     </row>
-    <row r="15" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46">
         <v>11</v>
       </c>
@@ -4815,10 +4815,10 @@
         <v>170</v>
       </c>
       <c r="C15" s="48"/>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="89"/>
+      <c r="E15" s="100"/>
       <c r="F15" s="49" t="s">
         <v>66</v>
       </c>
@@ -4831,7 +4831,7 @@
       <c r="M15" s="48"/>
       <c r="N15" s="49"/>
     </row>
-    <row r="16" spans="1:14" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="46">
         <v>12</v>
       </c>
@@ -4841,10 +4841,10 @@
       <c r="C16" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="89"/>
+      <c r="E16" s="100"/>
       <c r="F16" s="49" t="s">
         <v>66</v>
       </c>
@@ -4859,7 +4859,7 @@
       <c r="M16" s="48"/>
       <c r="N16" s="49"/>
     </row>
-    <row r="17" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46">
         <v>13</v>
       </c>
@@ -4867,10 +4867,10 @@
         <v>167</v>
       </c>
       <c r="C17" s="48"/>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="89"/>
+      <c r="E17" s="100"/>
       <c r="F17" s="49" t="s">
         <v>66</v>
       </c>
@@ -4885,17 +4885,17 @@
       <c r="M17" s="48"/>
       <c r="N17" s="49"/>
     </row>
-    <row r="18" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G18" s="45"/>
     </row>
-    <row r="19" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G19" s="45"/>
     </row>
-    <row r="20" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G20" s="45"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="65">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="71">
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -4914,16 +4914,16 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="72"/>
       <c r="B26" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="100"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -4932,16 +4932,16 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="72"/>
       <c r="B27" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="101"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="90"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -4950,16 +4950,16 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="72"/>
       <c r="B28" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="102"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="91"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -4968,8 +4968,8 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="72"/>
       <c r="B29" s="10" t="s">
         <v>102</v>
       </c>
@@ -4986,16 +4986,16 @@
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="72"/>
       <c r="B30" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="93"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="100"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -5004,16 +5004,16 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="72"/>
       <c r="B31" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="102"/>
+      <c r="G31" s="91"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -5022,8 +5022,8 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="96"/>
       <c r="B32" s="6" t="s">
         <v>105</v>
       </c>
@@ -5042,17 +5042,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E28"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A1:C2"/>
@@ -5067,6 +5056,17 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E28"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="G30:G31"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F26 F29:F32 F5:F17">
@@ -5086,20 +5086,20 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="14.25" style="22" customWidth="1"/>
     <col min="2" max="2" width="20" style="22" customWidth="1"/>
     <col min="3" max="3" width="48" style="22" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="22" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="22"/>
+    <col min="4" max="4" width="56.625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="22" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="22"/>
     <col min="8" max="8" width="56" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="22" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.85546875" style="22" customWidth="1"/>
-    <col min="12" max="12" width="51.140625" style="22" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="22"/>
+    <col min="10" max="10" width="20.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.875" style="22" customWidth="1"/>
+    <col min="12" max="12" width="51.125" style="22" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -5372,7 +5372,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.2">
       <c r="H21" s="42" t="s">
         <v>111</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" ht="45" x14ac:dyDescent="0.2">
       <c r="H22" s="42" t="s">
         <v>112</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" ht="30" x14ac:dyDescent="0.2">
       <c r="H23" s="42" t="s">
         <v>113</v>
       </c>
@@ -5548,27 +5548,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1034,6 +1034,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,14 +1061,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1079,28 +1097,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1114,39 +1147,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1788,18 +1788,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1827,11 +1827,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1840,9 +1840,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1860,10 +1860,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="72" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="63" t="s">
@@ -2141,7 +2141,7 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="63" t="s">
         <v>71</v>
       </c>
@@ -2255,7 +2255,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="71">
+      <c r="A14" s="65">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2275,7 +2275,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
@@ -2313,7 +2313,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="72"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="72"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
@@ -2389,7 +2389,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="72"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
@@ -2427,7 +2427,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
@@ -2466,15 +2466,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2485,6 +2476,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2517,11 +2517,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2530,9 +2530,9 @@
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2595,10 +2595,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2686,10 +2686,10 @@
       <c r="C5" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="77"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="19" t="s">
         <v>92</v>
       </c>
@@ -2773,10 +2773,10 @@
         <v>118</v>
       </c>
       <c r="C6" s="24"/>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="75"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="25" t="s">
         <v>92</v>
       </c>
@@ -2860,8 +2860,8 @@
         <v>119</v>
       </c>
       <c r="C7" s="24"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
       <c r="F7" s="25" t="s">
         <v>92</v>
       </c>
@@ -2945,10 +2945,10 @@
         <v>108</v>
       </c>
       <c r="C8" s="24"/>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="75"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="25" t="s">
         <v>92</v>
       </c>
@@ -3020,10 +3020,10 @@
         <v>110</v>
       </c>
       <c r="C9" s="27"/>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="31" t="s">
         <v>76</v>
       </c>
@@ -3095,10 +3095,10 @@
         <v>111</v>
       </c>
       <c r="C10" s="27"/>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="31" t="s">
         <v>76</v>
       </c>
@@ -3170,10 +3170,10 @@
         <v>112</v>
       </c>
       <c r="C11" s="34"/>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="31" t="s">
         <v>76</v>
       </c>
@@ -3245,8 +3245,8 @@
         <v>109</v>
       </c>
       <c r="C12" s="41"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="31"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -3314,10 +3314,10 @@
         <v>113</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="81"/>
+      <c r="E13" s="75"/>
       <c r="F13" s="31" t="s">
         <v>76</v>
       </c>
@@ -3401,10 +3401,10 @@
         <v>124</v>
       </c>
       <c r="C14" s="27"/>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="81"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="31" t="s">
         <v>76</v>
       </c>
@@ -3488,10 +3488,10 @@
         <v>114</v>
       </c>
       <c r="C15" s="24"/>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="87"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="25" t="s">
         <v>92</v>
       </c>
@@ -3575,10 +3575,10 @@
         <v>115</v>
       </c>
       <c r="C16" s="34"/>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="81"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="31" t="s">
         <v>76</v>
       </c>
@@ -3662,8 +3662,8 @@
         <v>125</v>
       </c>
       <c r="C17" s="34"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
       <c r="F17" s="31"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -3731,10 +3731,10 @@
         <v>120</v>
       </c>
       <c r="C18" s="34"/>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="31" t="s">
         <v>76</v>
       </c>
@@ -3818,10 +3818,10 @@
         <v>121</v>
       </c>
       <c r="C19" s="37"/>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="85"/>
+      <c r="E19" s="87"/>
       <c r="F19" s="38" t="s">
         <v>66</v>
       </c>
@@ -3844,10 +3844,10 @@
         <v>122</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="75"/>
+      <c r="E20" s="81"/>
       <c r="F20" s="25" t="s">
         <v>92</v>
       </c>
@@ -3931,10 +3931,10 @@
         <v>116</v>
       </c>
       <c r="C21" s="34"/>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="83"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="31" t="s">
         <v>76</v>
       </c>
@@ -4018,10 +4018,10 @@
         <v>117</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="75"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="25" t="s">
         <v>92</v>
       </c>
@@ -4105,10 +4105,10 @@
         <v>123</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="75"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="25" t="s">
         <v>92</v>
       </c>
@@ -4424,11 +4424,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -4444,6 +4439,11 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F23">
@@ -4459,8 +4459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4476,11 +4476,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -4489,9 +4489,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -4509,10 +4509,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -4548,13 +4548,13 @@
       <c r="B5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="83"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="31" t="s">
         <v>76</v>
       </c>
@@ -4576,11 +4576,11 @@
       <c r="B6" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="82" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="83"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="31" t="s">
         <v>76</v>
       </c>
@@ -4602,11 +4602,11 @@
       <c r="B7" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="82" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="83"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="31" t="s">
         <v>76</v>
       </c>
@@ -4628,11 +4628,11 @@
       <c r="B8" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="80" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="81"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="31" t="s">
         <v>76</v>
       </c>
@@ -4654,11 +4654,11 @@
       <c r="B9" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="80" t="s">
+      <c r="C9" s="91"/>
+      <c r="D9" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="81"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="31" t="s">
         <v>76</v>
       </c>
@@ -4680,11 +4680,11 @@
       <c r="B10" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="80" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="81"/>
+      <c r="E10" s="75"/>
       <c r="F10" s="31" t="s">
         <v>136</v>
       </c>
@@ -4708,19 +4708,21 @@
       <c r="B11" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="82" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="31" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="G11" s="27">
         <v>1</v>
       </c>
       <c r="H11" s="27"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="29">
+        <v>1</v>
+      </c>
       <c r="J11" s="27"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
@@ -4734,11 +4736,11 @@
       <c r="B12" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="82" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="83"/>
+      <c r="E12" s="79"/>
       <c r="F12" s="31" t="s">
         <v>76</v>
       </c>
@@ -4763,10 +4765,10 @@
       <c r="C13" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="100"/>
+      <c r="E13" s="89"/>
       <c r="F13" s="49" t="s">
         <v>66</v>
       </c>
@@ -4789,10 +4791,10 @@
         <v>174</v>
       </c>
       <c r="C14" s="48"/>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="100"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="49" t="s">
         <v>76</v>
       </c>
@@ -4815,10 +4817,10 @@
         <v>170</v>
       </c>
       <c r="C15" s="48"/>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="100"/>
+      <c r="E15" s="89"/>
       <c r="F15" s="49" t="s">
         <v>66</v>
       </c>
@@ -4841,10 +4843,10 @@
       <c r="C16" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="99" t="s">
+      <c r="D16" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="100"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="49" t="s">
         <v>66</v>
       </c>
@@ -4867,10 +4869,10 @@
         <v>167</v>
       </c>
       <c r="C17" s="48"/>
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="100"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="49" t="s">
         <v>66</v>
       </c>
@@ -4895,7 +4897,7 @@
       <c r="G20" s="45"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="71">
+      <c r="A25" s="65">
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -4915,15 +4917,15 @@
       <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="72"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="89"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="100"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -4933,15 +4935,15 @@
       <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="90"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="101"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -4951,15 +4953,15 @@
       <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="72"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="91"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="102"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -4969,7 +4971,7 @@
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="72"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="10" t="s">
         <v>102</v>
       </c>
@@ -4987,15 +4989,15 @@
       <c r="N29" s="10"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="72"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="89"/>
+      <c r="G30" s="100"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -5005,15 +5007,15 @@
       <c r="N30" s="10"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="72"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="91"/>
+      <c r="G31" s="102"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -5023,7 +5025,7 @@
       <c r="N31" s="10"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="96"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="6" t="s">
         <v>105</v>
       </c>
@@ -5042,6 +5044,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E28"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A1:C2"/>
@@ -5056,17 +5069,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E28"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="G30:G31"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F26 F29:F32 F5:F17">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="180">
   <si>
     <t>Name</t>
   </si>
@@ -570,17 +570,114 @@
   </si>
   <si>
     <t>Class diagram</t>
+  </si>
+  <si>
+    <t>Code send automatic email function</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By using SMTP API of </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sendgrid.com,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> include create email template.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Code validate function </t>
+  </si>
+  <si>
+    <t>implement some available validation in project: register, domain, edit form etc...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Design 3 to 4 separate 'n simple template which include 2 file:  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (define layout structure) and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>style.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> must be defined 5 basic components: title, navigation menu, header, main container and footer. While main container is the bank space allows drag n drop element inside.
+Every id/class have a simple definition name is a must.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -628,6 +725,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -639,12 +756,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,6 +792,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -899,105 +1016,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,17 +1091,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1034,6 +1172,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1043,115 +1199,115 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1223,7 +1379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1258,7 +1414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1470,22 +1626,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="52.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="3"/>
+    <col min="4" max="4" width="38.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="52.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1505,7 +1661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1522,14 +1678,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="69" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1539,12 +1695,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1552,12 +1708,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1565,11 +1721,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1580,14 +1736,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="69" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1597,12 +1753,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1610,7 +1766,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1627,14 +1783,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="69" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1644,12 +1800,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1657,12 +1813,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1670,14 +1826,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="69" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1687,12 +1843,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1700,12 +1856,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1713,12 +1869,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1726,14 +1882,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="69" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1743,12 +1899,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1756,14 +1912,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="69" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1773,12 +1929,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1788,18 +1944,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1814,24 +1970,24 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="6"/>
+    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1839,10 +1995,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1850,7 +2006,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1860,10 +2016,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -1892,7 +2048,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1902,10 +2058,10 @@
       <c r="C5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="64"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="10" t="s">
         <v>92</v>
       </c>
@@ -1934,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1944,10 +2100,10 @@
       <c r="C6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="64"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="10" t="s">
         <v>92</v>
       </c>
@@ -1976,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -1984,10 +2140,10 @@
         <v>95</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="64"/>
+      <c r="E7" s="71"/>
       <c r="F7" s="10" t="s">
         <v>92</v>
       </c>
@@ -2012,7 +2168,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -2020,10 +2176,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="64"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="10" t="s">
         <v>92</v>
       </c>
@@ -2052,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -2060,10 +2216,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="64"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="10" t="s">
         <v>92</v>
       </c>
@@ -2092,20 +2248,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="64"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="10" t="s">
         <v>92</v>
       </c>
@@ -2134,18 +2290,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="63" t="s">
+      <c r="C11" s="77"/>
+      <c r="D11" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="64"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="10" t="s">
         <v>92</v>
       </c>
@@ -2174,7 +2330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -2182,10 +2338,10 @@
         <v>85</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="64"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="10" t="s">
         <v>76</v>
       </c>
@@ -2214,7 +2370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -2222,10 +2378,10 @@
         <v>86</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="64"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="10" t="s">
         <v>92</v>
       </c>
@@ -2254,16 +2410,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="65">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="78">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2274,16 +2430,16 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="79"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="64"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="10" t="s">
         <v>92</v>
       </c>
@@ -2312,16 +2468,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="79"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="64"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="10" t="s">
         <v>92</v>
       </c>
@@ -2350,16 +2506,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="79"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="64"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="10" t="s">
         <v>92</v>
       </c>
@@ -2388,16 +2544,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="79"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="64"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="10" t="s">
         <v>92</v>
       </c>
@@ -2426,16 +2582,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="80"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="64"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="10" t="s">
         <v>92</v>
       </c>
@@ -2466,6 +2622,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2476,15 +2641,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2500,28 +2656,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="41" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="6"/>
+    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2529,10 +2685,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2540,52 +2696,52 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="39"/>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="39"/>
-      <c r="AW3" s="39"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="39"/>
-      <c r="AZ3" s="39"/>
-      <c r="BA3" s="39"/>
-      <c r="BB3" s="39"/>
-      <c r="BC3" s="39"/>
-      <c r="BD3" s="39"/>
-      <c r="BE3" s="39"/>
-      <c r="BF3" s="39"/>
-      <c r="BG3" s="39"/>
-      <c r="BH3" s="39"/>
-      <c r="BI3" s="39"/>
-      <c r="BJ3" s="39"/>
-      <c r="BK3" s="39"/>
-    </row>
-    <row r="4" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="28"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="28"/>
+      <c r="BG3" s="28"/>
+      <c r="BH3" s="28"/>
+      <c r="BI3" s="28"/>
+      <c r="BJ3" s="28"/>
+      <c r="BK3" s="28"/>
+    </row>
+    <row r="4" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2595,10 +2751,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2626,1795 +2782,913 @@
       <c r="N4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39"/>
-    </row>
-    <row r="5" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28"/>
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28"/>
+      <c r="BA4" s="28"/>
+      <c r="BB4" s="28"/>
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="28"/>
+      <c r="BE4" s="28"/>
+      <c r="BF4" s="28"/>
+      <c r="BG4" s="28"/>
+      <c r="BH4" s="28"/>
+      <c r="BI4" s="28"/>
+      <c r="BJ4" s="28"/>
+      <c r="BK4" s="28"/>
+    </row>
+    <row r="5" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="84"/>
+      <c r="F5" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="20">
-        <v>2</v>
-      </c>
-      <c r="H5" s="19">
-        <v>2</v>
-      </c>
-      <c r="I5" s="19">
-        <v>0</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0</v>
-      </c>
-      <c r="L5" s="19">
-        <v>0</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0</v>
-      </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="39"/>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="39"/>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="39"/>
-      <c r="BB5" s="39"/>
-      <c r="BC5" s="39"/>
-      <c r="BD5" s="39"/>
-      <c r="BE5" s="39"/>
-      <c r="BF5" s="39"/>
-      <c r="BG5" s="39"/>
-      <c r="BH5" s="39"/>
-      <c r="BI5" s="39"/>
-      <c r="BJ5" s="39"/>
-      <c r="BK5" s="39"/>
-    </row>
-    <row r="6" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="G5" s="63">
+        <v>2</v>
+      </c>
+      <c r="H5" s="52">
+        <v>2</v>
+      </c>
+      <c r="I5" s="52">
+        <v>0</v>
+      </c>
+      <c r="J5" s="52">
+        <v>0</v>
+      </c>
+      <c r="K5" s="52">
+        <v>0</v>
+      </c>
+      <c r="L5" s="52">
+        <v>0</v>
+      </c>
+      <c r="M5" s="52">
+        <v>0</v>
+      </c>
+      <c r="N5" s="52"/>
+    </row>
+    <row r="6" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49">
         <v>3</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="80" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="86"/>
+      <c r="F6" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="19">
-        <v>2</v>
-      </c>
-      <c r="H6" s="19">
-        <v>0</v>
-      </c>
-      <c r="I6" s="19">
-        <v>2</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0</v>
-      </c>
-      <c r="L6" s="19">
-        <v>0</v>
-      </c>
-      <c r="M6" s="19">
-        <v>0</v>
-      </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="39"/>
-      <c r="AT6" s="39"/>
-      <c r="AU6" s="39"/>
-      <c r="AV6" s="39"/>
-      <c r="AW6" s="39"/>
-      <c r="AX6" s="39"/>
-      <c r="AY6" s="39"/>
-      <c r="AZ6" s="39"/>
-      <c r="BA6" s="39"/>
-      <c r="BB6" s="39"/>
-      <c r="BC6" s="39"/>
-      <c r="BD6" s="39"/>
-      <c r="BE6" s="39"/>
-      <c r="BF6" s="39"/>
-      <c r="BG6" s="39"/>
-      <c r="BH6" s="39"/>
-      <c r="BI6" s="39"/>
-      <c r="BJ6" s="39"/>
-      <c r="BK6" s="39"/>
-    </row>
-    <row r="7" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="G6" s="52">
+        <v>2</v>
+      </c>
+      <c r="H6" s="52">
+        <v>0</v>
+      </c>
+      <c r="I6" s="52">
+        <v>2</v>
+      </c>
+      <c r="J6" s="52">
+        <v>0</v>
+      </c>
+      <c r="K6" s="52">
+        <v>0</v>
+      </c>
+      <c r="L6" s="52">
+        <v>0</v>
+      </c>
+      <c r="M6" s="52">
+        <v>0</v>
+      </c>
+      <c r="N6" s="52"/>
+    </row>
+    <row r="7" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49">
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="19">
-        <v>2</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19">
-        <v>0</v>
-      </c>
-      <c r="J7" s="19">
-        <v>2</v>
-      </c>
-      <c r="K7" s="19">
-        <v>0</v>
-      </c>
-      <c r="L7" s="19">
-        <v>0</v>
-      </c>
-      <c r="M7" s="19">
-        <v>0</v>
-      </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="39"/>
-      <c r="AX7" s="39"/>
-      <c r="AY7" s="39"/>
-      <c r="AZ7" s="39"/>
-      <c r="BA7" s="39"/>
-      <c r="BB7" s="39"/>
-      <c r="BC7" s="39"/>
-      <c r="BD7" s="39"/>
-      <c r="BE7" s="39"/>
-      <c r="BF7" s="39"/>
-      <c r="BG7" s="39"/>
-      <c r="BH7" s="39"/>
-      <c r="BI7" s="39"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="39"/>
-    </row>
-    <row r="8" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="G7" s="52">
+        <v>2</v>
+      </c>
+      <c r="H7" s="52">
+        <v>0</v>
+      </c>
+      <c r="I7" s="52">
+        <v>0</v>
+      </c>
+      <c r="J7" s="52">
+        <v>2</v>
+      </c>
+      <c r="K7" s="52">
+        <v>0</v>
+      </c>
+      <c r="L7" s="52">
+        <v>0</v>
+      </c>
+      <c r="M7" s="52">
+        <v>0</v>
+      </c>
+      <c r="N7" s="52"/>
+    </row>
+    <row r="8" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49">
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="80" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="86"/>
+      <c r="F8" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="19">
-        <v>2</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="39"/>
-      <c r="AT8" s="39"/>
-      <c r="AU8" s="39"/>
-      <c r="AV8" s="39"/>
-      <c r="AW8" s="39"/>
-      <c r="AX8" s="39"/>
-      <c r="AY8" s="39"/>
-      <c r="AZ8" s="39"/>
-      <c r="BA8" s="39"/>
-      <c r="BB8" s="39"/>
-      <c r="BC8" s="39"/>
-      <c r="BD8" s="39"/>
-      <c r="BE8" s="39"/>
-      <c r="BF8" s="39"/>
-      <c r="BG8" s="39"/>
-      <c r="BH8" s="39"/>
-      <c r="BI8" s="39"/>
-      <c r="BJ8" s="39"/>
-      <c r="BK8" s="39"/>
-    </row>
-    <row r="9" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="G8" s="52">
+        <v>2</v>
+      </c>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+    </row>
+    <row r="9" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55">
         <v>6</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="78" t="s">
+      <c r="C9" s="56"/>
+      <c r="D9" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="92"/>
+      <c r="F9" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="27">
-        <v>2</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="39"/>
-      <c r="AQ9" s="39"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="39"/>
-      <c r="AT9" s="39"/>
-      <c r="AU9" s="39"/>
-      <c r="AV9" s="39"/>
-      <c r="AW9" s="39"/>
-      <c r="AX9" s="39"/>
-      <c r="AY9" s="39"/>
-      <c r="AZ9" s="39"/>
-      <c r="BA9" s="39"/>
-      <c r="BB9" s="39"/>
-      <c r="BC9" s="39"/>
-      <c r="BD9" s="39"/>
-      <c r="BE9" s="39"/>
-      <c r="BF9" s="39"/>
-      <c r="BG9" s="39"/>
-      <c r="BH9" s="39"/>
-      <c r="BI9" s="39"/>
-      <c r="BJ9" s="39"/>
-      <c r="BK9" s="39"/>
-    </row>
-    <row r="10" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+      <c r="G9" s="56">
+        <v>2</v>
+      </c>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+    </row>
+    <row r="10" spans="1:63" s="54" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="55">
         <v>7</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="78" t="s">
+      <c r="C10" s="56"/>
+      <c r="D10" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="92"/>
+      <c r="F10" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="27">
-        <v>2</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="39"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="39"/>
-      <c r="AQ10" s="39"/>
-      <c r="AR10" s="39"/>
-      <c r="AS10" s="39"/>
-      <c r="AT10" s="39"/>
-      <c r="AU10" s="39"/>
-      <c r="AV10" s="39"/>
-      <c r="AW10" s="39"/>
-      <c r="AX10" s="39"/>
-      <c r="AY10" s="39"/>
-      <c r="AZ10" s="39"/>
-      <c r="BA10" s="39"/>
-      <c r="BB10" s="39"/>
-      <c r="BC10" s="39"/>
-      <c r="BD10" s="39"/>
-      <c r="BE10" s="39"/>
-      <c r="BF10" s="39"/>
-      <c r="BG10" s="39"/>
-      <c r="BH10" s="39"/>
-      <c r="BI10" s="39"/>
-      <c r="BJ10" s="39"/>
-      <c r="BK10" s="39"/>
-    </row>
-    <row r="11" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="G10" s="56">
+        <v>2</v>
+      </c>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+    </row>
+    <row r="11" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="55">
         <v>8</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="78" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="31" t="s">
+      <c r="E11" s="92"/>
+      <c r="F11" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="27">
-        <v>2</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
-      <c r="AO11" s="39"/>
-      <c r="AP11" s="39"/>
-      <c r="AQ11" s="39"/>
-      <c r="AR11" s="39"/>
-      <c r="AS11" s="39"/>
-      <c r="AT11" s="39"/>
-      <c r="AU11" s="39"/>
-      <c r="AV11" s="39"/>
-      <c r="AW11" s="39"/>
-      <c r="AX11" s="39"/>
-      <c r="AY11" s="39"/>
-      <c r="AZ11" s="39"/>
-      <c r="BA11" s="39"/>
-      <c r="BB11" s="39"/>
-      <c r="BC11" s="39"/>
-      <c r="BD11" s="39"/>
-      <c r="BE11" s="39"/>
-      <c r="BF11" s="39"/>
-      <c r="BG11" s="39"/>
-      <c r="BH11" s="39"/>
-      <c r="BI11" s="39"/>
-      <c r="BJ11" s="39"/>
-      <c r="BK11" s="39"/>
-    </row>
-    <row r="12" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="G11" s="56">
+        <v>2</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+    </row>
+    <row r="12" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55">
         <v>9</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="39"/>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="39"/>
-      <c r="AP12" s="39"/>
-      <c r="AQ12" s="39"/>
-      <c r="AR12" s="39"/>
-      <c r="AS12" s="39"/>
-      <c r="AT12" s="39"/>
-      <c r="AU12" s="39"/>
-      <c r="AV12" s="39"/>
-      <c r="AW12" s="39"/>
-      <c r="AX12" s="39"/>
-      <c r="AY12" s="39"/>
-      <c r="AZ12" s="39"/>
-      <c r="BA12" s="39"/>
-      <c r="BB12" s="39"/>
-      <c r="BC12" s="39"/>
-      <c r="BD12" s="39"/>
-      <c r="BE12" s="39"/>
-      <c r="BF12" s="39"/>
-      <c r="BG12" s="39"/>
-      <c r="BH12" s="39"/>
-      <c r="BI12" s="39"/>
-      <c r="BJ12" s="39"/>
-      <c r="BK12" s="39"/>
-    </row>
-    <row r="13" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="C12" s="62"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+    </row>
+    <row r="13" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55">
         <v>10</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="74" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="31" t="s">
+      <c r="E13" s="90"/>
+      <c r="F13" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="27">
-        <v>2</v>
-      </c>
-      <c r="H13" s="27">
-        <v>0</v>
-      </c>
-      <c r="I13" s="27">
-        <v>0</v>
-      </c>
-      <c r="J13" s="27">
-        <v>0</v>
-      </c>
-      <c r="K13" s="27">
-        <v>0</v>
-      </c>
-      <c r="L13" s="27">
-        <v>2</v>
-      </c>
-      <c r="M13" s="27">
-        <v>0</v>
-      </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
-      <c r="AO13" s="39"/>
-      <c r="AP13" s="39"/>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="39"/>
-      <c r="AS13" s="39"/>
-      <c r="AT13" s="39"/>
-      <c r="AU13" s="39"/>
-      <c r="AV13" s="39"/>
-      <c r="AW13" s="39"/>
-      <c r="AX13" s="39"/>
-      <c r="AY13" s="39"/>
-      <c r="AZ13" s="39"/>
-      <c r="BA13" s="39"/>
-      <c r="BB13" s="39"/>
-      <c r="BC13" s="39"/>
-      <c r="BD13" s="39"/>
-      <c r="BE13" s="39"/>
-      <c r="BF13" s="39"/>
-      <c r="BG13" s="39"/>
-      <c r="BH13" s="39"/>
-      <c r="BI13" s="39"/>
-      <c r="BJ13" s="39"/>
-      <c r="BK13" s="39"/>
-    </row>
-    <row r="14" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="G13" s="56">
+        <v>2</v>
+      </c>
+      <c r="H13" s="56">
+        <v>0</v>
+      </c>
+      <c r="I13" s="56">
+        <v>0</v>
+      </c>
+      <c r="J13" s="56">
+        <v>0</v>
+      </c>
+      <c r="K13" s="56">
+        <v>0</v>
+      </c>
+      <c r="L13" s="56">
+        <v>2</v>
+      </c>
+      <c r="M13" s="56">
+        <v>0</v>
+      </c>
+      <c r="N13" s="56"/>
+    </row>
+    <row r="14" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55">
         <v>11</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="74" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="90"/>
+      <c r="F14" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="27">
-        <v>2</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0</v>
-      </c>
-      <c r="I14" s="27">
-        <v>0</v>
-      </c>
-      <c r="J14" s="27">
-        <v>0</v>
-      </c>
-      <c r="K14" s="27">
-        <v>0</v>
-      </c>
-      <c r="L14" s="27">
+      <c r="G14" s="56">
+        <v>2</v>
+      </c>
+      <c r="H14" s="56">
+        <v>0</v>
+      </c>
+      <c r="I14" s="56">
+        <v>0</v>
+      </c>
+      <c r="J14" s="56">
+        <v>0</v>
+      </c>
+      <c r="K14" s="56">
+        <v>0</v>
+      </c>
+      <c r="L14" s="56">
         <v>1</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="56">
         <v>1</v>
       </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="39"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="39"/>
-      <c r="AP14" s="39"/>
-      <c r="AQ14" s="39"/>
-      <c r="AR14" s="39"/>
-      <c r="AS14" s="39"/>
-      <c r="AT14" s="39"/>
-      <c r="AU14" s="39"/>
-      <c r="AV14" s="39"/>
-      <c r="AW14" s="39"/>
-      <c r="AX14" s="39"/>
-      <c r="AY14" s="39"/>
-      <c r="AZ14" s="39"/>
-      <c r="BA14" s="39"/>
-      <c r="BB14" s="39"/>
-      <c r="BC14" s="39"/>
-      <c r="BD14" s="39"/>
-      <c r="BE14" s="39"/>
-      <c r="BF14" s="39"/>
-      <c r="BG14" s="39"/>
-      <c r="BH14" s="39"/>
-      <c r="BI14" s="39"/>
-      <c r="BJ14" s="39"/>
-      <c r="BK14" s="39"/>
-    </row>
-    <row r="15" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="N14" s="56"/>
+    </row>
+    <row r="15" spans="1:63" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="49">
         <v>12</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="76" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="25" t="s">
+      <c r="E15" s="96"/>
+      <c r="F15" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="19">
-        <v>2</v>
-      </c>
-      <c r="H15" s="19">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19">
-        <v>0</v>
-      </c>
-      <c r="J15" s="19">
-        <v>0</v>
-      </c>
-      <c r="K15" s="19">
-        <v>0</v>
-      </c>
-      <c r="L15" s="19">
-        <v>0</v>
-      </c>
-      <c r="M15" s="24">
-        <v>2</v>
-      </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="39"/>
-      <c r="AJ15" s="39"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="39"/>
-      <c r="AN15" s="39"/>
-      <c r="AO15" s="39"/>
-      <c r="AP15" s="39"/>
-      <c r="AQ15" s="39"/>
-      <c r="AR15" s="39"/>
-      <c r="AS15" s="39"/>
-      <c r="AT15" s="39"/>
-      <c r="AU15" s="39"/>
-      <c r="AV15" s="39"/>
-      <c r="AW15" s="39"/>
-      <c r="AX15" s="39"/>
-      <c r="AY15" s="39"/>
-      <c r="AZ15" s="39"/>
-      <c r="BA15" s="39"/>
-      <c r="BB15" s="39"/>
-      <c r="BC15" s="39"/>
-      <c r="BD15" s="39"/>
-      <c r="BE15" s="39"/>
-      <c r="BF15" s="39"/>
-      <c r="BG15" s="39"/>
-      <c r="BH15" s="39"/>
-      <c r="BI15" s="39"/>
-      <c r="BJ15" s="39"/>
-      <c r="BK15" s="39"/>
-    </row>
-    <row r="16" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="G15" s="52">
+        <v>2</v>
+      </c>
+      <c r="H15" s="52">
+        <v>0</v>
+      </c>
+      <c r="I15" s="52">
+        <v>0</v>
+      </c>
+      <c r="J15" s="52">
+        <v>0</v>
+      </c>
+      <c r="K15" s="52">
+        <v>0</v>
+      </c>
+      <c r="L15" s="52">
+        <v>0</v>
+      </c>
+      <c r="M15" s="50">
+        <v>2</v>
+      </c>
+      <c r="N15" s="51"/>
+    </row>
+    <row r="16" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55">
         <v>13</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="74" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="90"/>
+      <c r="F16" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="27">
-        <v>2</v>
-      </c>
-      <c r="H16" s="27">
-        <v>0</v>
-      </c>
-      <c r="I16" s="29">
-        <v>0</v>
-      </c>
-      <c r="J16" s="27">
-        <v>0</v>
-      </c>
-      <c r="K16" s="34">
-        <v>0</v>
-      </c>
-      <c r="L16" s="34">
-        <v>0</v>
-      </c>
-      <c r="M16" s="34">
+      <c r="G16" s="56">
+        <v>2</v>
+      </c>
+      <c r="H16" s="56">
+        <v>0</v>
+      </c>
+      <c r="I16" s="55">
+        <v>0</v>
+      </c>
+      <c r="J16" s="56">
+        <v>0</v>
+      </c>
+      <c r="K16" s="57">
+        <v>0</v>
+      </c>
+      <c r="L16" s="57">
+        <v>0</v>
+      </c>
+      <c r="M16" s="57">
         <v>1</v>
       </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
-      <c r="AQ16" s="39"/>
-      <c r="AR16" s="39"/>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="39"/>
-      <c r="AU16" s="39"/>
-      <c r="AV16" s="39"/>
-      <c r="AW16" s="39"/>
-      <c r="AX16" s="39"/>
-      <c r="AY16" s="39"/>
-      <c r="AZ16" s="39"/>
-      <c r="BA16" s="39"/>
-      <c r="BB16" s="39"/>
-      <c r="BC16" s="39"/>
-      <c r="BD16" s="39"/>
-      <c r="BE16" s="39"/>
-      <c r="BF16" s="39"/>
-      <c r="BG16" s="39"/>
-      <c r="BH16" s="39"/>
-      <c r="BI16" s="39"/>
-      <c r="BJ16" s="39"/>
-      <c r="BK16" s="39"/>
-    </row>
-    <row r="17" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="N16" s="58"/>
+    </row>
+    <row r="17" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55">
         <v>14</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="39"/>
-      <c r="AZ17" s="39"/>
-      <c r="BA17" s="39"/>
-      <c r="BB17" s="39"/>
-      <c r="BC17" s="39"/>
-      <c r="BD17" s="39"/>
-      <c r="BE17" s="39"/>
-      <c r="BF17" s="39"/>
-      <c r="BG17" s="39"/>
-      <c r="BH17" s="39"/>
-      <c r="BI17" s="39"/>
-      <c r="BJ17" s="39"/>
-      <c r="BK17" s="39"/>
-    </row>
-    <row r="18" spans="1:63" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
+      <c r="C17" s="57"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="58"/>
+    </row>
+    <row r="18" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55">
         <v>15</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="78" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="31" t="s">
+      <c r="E18" s="92"/>
+      <c r="F18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="27">
-        <v>2</v>
-      </c>
-      <c r="H18" s="27">
-        <v>0</v>
-      </c>
-      <c r="I18" s="29">
-        <v>0</v>
-      </c>
-      <c r="J18" s="27">
+      <c r="G18" s="56">
+        <v>2</v>
+      </c>
+      <c r="H18" s="56">
+        <v>0</v>
+      </c>
+      <c r="I18" s="55">
+        <v>0</v>
+      </c>
+      <c r="J18" s="56">
         <v>1</v>
       </c>
-      <c r="K18" s="34">
-        <v>0</v>
-      </c>
-      <c r="L18" s="34">
-        <v>0</v>
-      </c>
-      <c r="M18" s="34">
+      <c r="K18" s="57">
+        <v>0</v>
+      </c>
+      <c r="L18" s="57">
+        <v>0</v>
+      </c>
+      <c r="M18" s="57">
         <v>1</v>
       </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="39"/>
-      <c r="AU18" s="39"/>
-      <c r="AV18" s="39"/>
-      <c r="AW18" s="39"/>
-      <c r="AX18" s="39"/>
-      <c r="AY18" s="39"/>
-      <c r="AZ18" s="39"/>
-      <c r="BA18" s="39"/>
-      <c r="BB18" s="39"/>
-      <c r="BC18" s="39"/>
-      <c r="BD18" s="39"/>
-      <c r="BE18" s="39"/>
-      <c r="BF18" s="39"/>
-      <c r="BG18" s="39"/>
-      <c r="BH18" s="39"/>
-      <c r="BI18" s="39"/>
-      <c r="BJ18" s="39"/>
-      <c r="BK18" s="39"/>
-    </row>
-    <row r="19" spans="1:63" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35">
+      <c r="N18" s="58"/>
+    </row>
+    <row r="19" spans="1:63" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="64">
         <v>16</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="86" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="38" t="s">
+      <c r="E19" s="94"/>
+      <c r="F19" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="36">
-        <v>2</v>
-      </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="38"/>
-    </row>
-    <row r="20" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="G19" s="65">
+        <v>2</v>
+      </c>
+      <c r="H19" s="65"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="67"/>
+    </row>
+    <row r="20" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49">
         <v>17</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="80" t="s">
+      <c r="C20" s="50"/>
+      <c r="D20" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="25" t="s">
+      <c r="E20" s="86"/>
+      <c r="F20" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="19">
-        <v>2</v>
-      </c>
-      <c r="H20" s="19">
-        <v>0</v>
-      </c>
-      <c r="I20" s="18">
-        <v>0</v>
-      </c>
-      <c r="J20" s="19">
-        <v>2</v>
-      </c>
-      <c r="K20" s="24">
-        <v>2</v>
-      </c>
-      <c r="L20" s="24">
+      <c r="G20" s="52">
+        <v>2</v>
+      </c>
+      <c r="H20" s="52">
+        <v>0</v>
+      </c>
+      <c r="I20" s="49">
+        <v>0</v>
+      </c>
+      <c r="J20" s="52">
+        <v>2</v>
+      </c>
+      <c r="K20" s="50">
+        <v>2</v>
+      </c>
+      <c r="L20" s="50">
         <v>1</v>
       </c>
-      <c r="M20" s="24">
-        <v>0</v>
-      </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="39"/>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="39"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="39"/>
-      <c r="AR20" s="39"/>
-      <c r="AS20" s="39"/>
-      <c r="AT20" s="39"/>
-      <c r="AU20" s="39"/>
-      <c r="AV20" s="39"/>
-      <c r="AW20" s="39"/>
-      <c r="AX20" s="39"/>
-      <c r="AY20" s="39"/>
-      <c r="AZ20" s="39"/>
-      <c r="BA20" s="39"/>
-      <c r="BB20" s="39"/>
-      <c r="BC20" s="39"/>
-      <c r="BD20" s="39"/>
-      <c r="BE20" s="39"/>
-      <c r="BF20" s="39"/>
-      <c r="BG20" s="39"/>
-      <c r="BH20" s="39"/>
-      <c r="BI20" s="39"/>
-      <c r="BJ20" s="39"/>
-      <c r="BK20" s="39"/>
-    </row>
-    <row r="21" spans="1:63" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="M20" s="50">
+        <v>0</v>
+      </c>
+      <c r="N20" s="51"/>
+    </row>
+    <row r="21" spans="1:63" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55">
         <v>18</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="78" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="31" t="s">
+      <c r="E21" s="92"/>
+      <c r="F21" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="27">
-        <v>2</v>
-      </c>
-      <c r="H21" s="27">
-        <v>0</v>
-      </c>
-      <c r="I21" s="29">
-        <v>0</v>
-      </c>
-      <c r="J21" s="27">
-        <v>0</v>
-      </c>
-      <c r="K21" s="34">
-        <v>0</v>
-      </c>
-      <c r="L21" s="34">
-        <v>0</v>
-      </c>
-      <c r="M21" s="34">
+      <c r="G21" s="56">
+        <v>2</v>
+      </c>
+      <c r="H21" s="56">
+        <v>0</v>
+      </c>
+      <c r="I21" s="55">
+        <v>0</v>
+      </c>
+      <c r="J21" s="56">
+        <v>0</v>
+      </c>
+      <c r="K21" s="57">
+        <v>0</v>
+      </c>
+      <c r="L21" s="57">
+        <v>0</v>
+      </c>
+      <c r="M21" s="57">
         <v>1</v>
       </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39"/>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="39"/>
-      <c r="AP21" s="39"/>
-      <c r="AQ21" s="39"/>
-      <c r="AR21" s="39"/>
-      <c r="AS21" s="39"/>
-      <c r="AT21" s="39"/>
-      <c r="AU21" s="39"/>
-      <c r="AV21" s="39"/>
-      <c r="AW21" s="39"/>
-      <c r="AX21" s="39"/>
-      <c r="AY21" s="39"/>
-      <c r="AZ21" s="39"/>
-      <c r="BA21" s="39"/>
-      <c r="BB21" s="39"/>
-      <c r="BC21" s="39"/>
-      <c r="BD21" s="39"/>
-      <c r="BE21" s="39"/>
-      <c r="BF21" s="39"/>
-      <c r="BG21" s="39"/>
-      <c r="BH21" s="39"/>
-      <c r="BI21" s="39"/>
-      <c r="BJ21" s="39"/>
-      <c r="BK21" s="39"/>
-    </row>
-    <row r="22" spans="1:63" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+      <c r="N21" s="58"/>
+    </row>
+    <row r="22" spans="1:63" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="49">
         <v>19</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="80" t="s">
+      <c r="C22" s="50"/>
+      <c r="D22" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="81"/>
-      <c r="F22" s="25" t="s">
+      <c r="E22" s="86"/>
+      <c r="F22" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="19">
-        <v>2</v>
-      </c>
-      <c r="H22" s="19">
-        <v>0</v>
-      </c>
-      <c r="I22" s="18">
-        <v>0</v>
-      </c>
-      <c r="J22" s="19">
-        <v>0</v>
-      </c>
-      <c r="K22" s="24">
-        <v>2</v>
-      </c>
-      <c r="L22" s="24">
-        <v>2</v>
-      </c>
-      <c r="M22" s="24">
-        <v>0</v>
-      </c>
-      <c r="N22" s="25"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="39"/>
-      <c r="AJ22" s="39"/>
-      <c r="AK22" s="39"/>
-      <c r="AL22" s="39"/>
-      <c r="AM22" s="39"/>
-      <c r="AN22" s="39"/>
-      <c r="AO22" s="39"/>
-      <c r="AP22" s="39"/>
-      <c r="AQ22" s="39"/>
-      <c r="AR22" s="39"/>
-      <c r="AS22" s="39"/>
-      <c r="AT22" s="39"/>
-      <c r="AU22" s="39"/>
-      <c r="AV22" s="39"/>
-      <c r="AW22" s="39"/>
-      <c r="AX22" s="39"/>
-      <c r="AY22" s="39"/>
-      <c r="AZ22" s="39"/>
-      <c r="BA22" s="39"/>
-      <c r="BB22" s="39"/>
-      <c r="BC22" s="39"/>
-      <c r="BD22" s="39"/>
-      <c r="BE22" s="39"/>
-      <c r="BF22" s="39"/>
-      <c r="BG22" s="39"/>
-      <c r="BH22" s="39"/>
-      <c r="BI22" s="39"/>
-      <c r="BJ22" s="39"/>
-      <c r="BK22" s="39"/>
-    </row>
-    <row r="23" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+      <c r="G22" s="52">
+        <v>2</v>
+      </c>
+      <c r="H22" s="52">
+        <v>0</v>
+      </c>
+      <c r="I22" s="49">
+        <v>0</v>
+      </c>
+      <c r="J22" s="52">
+        <v>0</v>
+      </c>
+      <c r="K22" s="50">
+        <v>2</v>
+      </c>
+      <c r="L22" s="50">
+        <v>2</v>
+      </c>
+      <c r="M22" s="50">
+        <v>0</v>
+      </c>
+      <c r="N22" s="51"/>
+    </row>
+    <row r="23" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="49">
         <v>20</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="80" t="s">
+      <c r="C23" s="50"/>
+      <c r="D23" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="81"/>
-      <c r="F23" s="25" t="s">
+      <c r="E23" s="82"/>
+      <c r="F23" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="19">
-        <v>2</v>
-      </c>
-      <c r="H23" s="19">
-        <v>0</v>
-      </c>
-      <c r="I23" s="18">
-        <v>0</v>
-      </c>
-      <c r="J23" s="19">
-        <v>0</v>
-      </c>
-      <c r="K23" s="24">
-        <v>0</v>
-      </c>
-      <c r="L23" s="24">
+      <c r="G23" s="52">
+        <v>2</v>
+      </c>
+      <c r="H23" s="52">
+        <v>0</v>
+      </c>
+      <c r="I23" s="49">
+        <v>0</v>
+      </c>
+      <c r="J23" s="52">
+        <v>0</v>
+      </c>
+      <c r="K23" s="50">
+        <v>0</v>
+      </c>
+      <c r="L23" s="50">
         <v>1</v>
       </c>
-      <c r="M23" s="24">
-        <v>2</v>
-      </c>
-      <c r="N23" s="25"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39"/>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="39"/>
-      <c r="AK23" s="39"/>
-      <c r="AL23" s="39"/>
-      <c r="AM23" s="39"/>
-      <c r="AN23" s="39"/>
-      <c r="AO23" s="39"/>
-      <c r="AP23" s="39"/>
-      <c r="AQ23" s="39"/>
-      <c r="AR23" s="39"/>
-      <c r="AS23" s="39"/>
-      <c r="AT23" s="39"/>
-      <c r="AU23" s="39"/>
-      <c r="AV23" s="39"/>
-      <c r="AW23" s="39"/>
-      <c r="AX23" s="39"/>
-      <c r="AY23" s="39"/>
-      <c r="AZ23" s="39"/>
-      <c r="BA23" s="39"/>
-      <c r="BB23" s="39"/>
-      <c r="BC23" s="39"/>
-      <c r="BD23" s="39"/>
-      <c r="BE23" s="39"/>
-      <c r="BF23" s="39"/>
-      <c r="BG23" s="39"/>
-      <c r="BH23" s="39"/>
-      <c r="BI23" s="39"/>
-      <c r="BJ23" s="39"/>
-      <c r="BK23" s="39"/>
-    </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="39"/>
-      <c r="AL24" s="39"/>
-      <c r="AM24" s="39"/>
-      <c r="AN24" s="39"/>
-      <c r="AO24" s="39"/>
-      <c r="AP24" s="39"/>
-      <c r="AQ24" s="39"/>
-      <c r="AR24" s="39"/>
-      <c r="AS24" s="39"/>
-      <c r="AT24" s="39"/>
-      <c r="AU24" s="39"/>
-      <c r="AV24" s="39"/>
-      <c r="AW24" s="39"/>
-      <c r="AX24" s="39"/>
-      <c r="AY24" s="39"/>
-      <c r="AZ24" s="39"/>
-      <c r="BA24" s="39"/>
-      <c r="BB24" s="39"/>
-      <c r="BC24" s="39"/>
-      <c r="BD24" s="39"/>
-      <c r="BE24" s="39"/>
-      <c r="BF24" s="39"/>
-      <c r="BG24" s="39"/>
-      <c r="BH24" s="39"/>
-      <c r="BI24" s="39"/>
-      <c r="BJ24" s="39"/>
-      <c r="BK24" s="39"/>
-    </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="B25" s="52" t="s">
+      <c r="M23" s="50">
+        <v>2</v>
+      </c>
+      <c r="N23" s="51"/>
+    </row>
+    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="28"/>
+      <c r="AR24" s="28"/>
+      <c r="AS24" s="28"/>
+      <c r="AT24" s="28"/>
+      <c r="AU24" s="28"/>
+      <c r="AV24" s="28"/>
+      <c r="AW24" s="28"/>
+      <c r="AX24" s="28"/>
+      <c r="AY24" s="28"/>
+      <c r="AZ24" s="28"/>
+      <c r="BA24" s="28"/>
+      <c r="BB24" s="28"/>
+      <c r="BC24" s="28"/>
+      <c r="BD24" s="28"/>
+      <c r="BE24" s="28"/>
+      <c r="BF24" s="28"/>
+      <c r="BG24" s="28"/>
+      <c r="BH24" s="28"/>
+      <c r="BI24" s="28"/>
+      <c r="BJ24" s="28"/>
+      <c r="BK24" s="28"/>
+    </row>
+    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="B25" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39"/>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39"/>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="39"/>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="39"/>
-      <c r="AW25" s="39"/>
-      <c r="AX25" s="39"/>
-      <c r="AY25" s="39"/>
-      <c r="AZ25" s="39"/>
-      <c r="BA25" s="39"/>
-      <c r="BB25" s="39"/>
-      <c r="BC25" s="39"/>
-      <c r="BD25" s="39"/>
-      <c r="BE25" s="39"/>
-      <c r="BF25" s="39"/>
-      <c r="BG25" s="39"/>
-      <c r="BH25" s="39"/>
-      <c r="BI25" s="39"/>
-      <c r="BJ25" s="39"/>
-      <c r="BK25" s="39"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28"/>
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="28"/>
+      <c r="AS25" s="28"/>
+      <c r="AT25" s="28"/>
+      <c r="AU25" s="28"/>
+      <c r="AV25" s="28"/>
+      <c r="AW25" s="28"/>
+      <c r="AX25" s="28"/>
+      <c r="AY25" s="28"/>
+      <c r="AZ25" s="28"/>
+      <c r="BA25" s="28"/>
+      <c r="BB25" s="28"/>
+      <c r="BC25" s="28"/>
+      <c r="BD25" s="28"/>
+      <c r="BE25" s="28"/>
+      <c r="BF25" s="28"/>
+      <c r="BG25" s="28"/>
+      <c r="BH25" s="28"/>
+      <c r="BI25" s="28"/>
+      <c r="BJ25" s="28"/>
+      <c r="BK25" s="28"/>
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="40">
         <v>7</v>
       </c>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="39"/>
-      <c r="AE26" s="39"/>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="39"/>
-      <c r="AJ26" s="39"/>
-      <c r="AK26" s="39"/>
-      <c r="AL26" s="39"/>
-      <c r="AM26" s="39"/>
-      <c r="AN26" s="39"/>
-      <c r="AO26" s="39"/>
-      <c r="AP26" s="39"/>
-      <c r="AQ26" s="39"/>
-      <c r="AR26" s="39"/>
-      <c r="AS26" s="39"/>
-      <c r="AT26" s="39"/>
-      <c r="AU26" s="39"/>
-      <c r="AV26" s="39"/>
-      <c r="AW26" s="39"/>
-      <c r="AX26" s="39"/>
-      <c r="AY26" s="39"/>
-      <c r="AZ26" s="39"/>
-      <c r="BA26" s="39"/>
-      <c r="BB26" s="39"/>
-      <c r="BC26" s="39"/>
-      <c r="BD26" s="39"/>
-      <c r="BE26" s="39"/>
-      <c r="BF26" s="39"/>
-      <c r="BG26" s="39"/>
-      <c r="BH26" s="39"/>
-      <c r="BI26" s="39"/>
-      <c r="BJ26" s="39"/>
-      <c r="BK26" s="39"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="28"/>
+      <c r="AQ26" s="28"/>
+      <c r="AR26" s="28"/>
+      <c r="AS26" s="28"/>
+      <c r="AT26" s="28"/>
+      <c r="AU26" s="28"/>
+      <c r="AV26" s="28"/>
+      <c r="AW26" s="28"/>
+      <c r="AX26" s="28"/>
+      <c r="AY26" s="28"/>
+      <c r="AZ26" s="28"/>
+      <c r="BA26" s="28"/>
+      <c r="BB26" s="28"/>
+      <c r="BC26" s="28"/>
+      <c r="BD26" s="28"/>
+      <c r="BE26" s="28"/>
+      <c r="BF26" s="28"/>
+      <c r="BG26" s="28"/>
+      <c r="BH26" s="28"/>
+      <c r="BI26" s="28"/>
+      <c r="BJ26" s="28"/>
+      <c r="BK26" s="28"/>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="40">
         <v>5</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39"/>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39"/>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39"/>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
-      <c r="AW27" s="39"/>
-      <c r="AX27" s="39"/>
-      <c r="AY27" s="39"/>
-      <c r="AZ27" s="39"/>
-      <c r="BA27" s="39"/>
-      <c r="BB27" s="39"/>
-      <c r="BC27" s="39"/>
-      <c r="BD27" s="39"/>
-      <c r="BE27" s="39"/>
-      <c r="BF27" s="39"/>
-      <c r="BG27" s="39"/>
-      <c r="BH27" s="39"/>
-      <c r="BI27" s="39"/>
-      <c r="BJ27" s="39"/>
-      <c r="BK27" s="39"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="28"/>
+      <c r="AO27" s="28"/>
+      <c r="AP27" s="28"/>
+      <c r="AQ27" s="28"/>
+      <c r="AR27" s="28"/>
+      <c r="AS27" s="28"/>
+      <c r="AT27" s="28"/>
+      <c r="AU27" s="28"/>
+      <c r="AV27" s="28"/>
+      <c r="AW27" s="28"/>
+      <c r="AX27" s="28"/>
+      <c r="AY27" s="28"/>
+      <c r="AZ27" s="28"/>
+      <c r="BA27" s="28"/>
+      <c r="BB27" s="28"/>
+      <c r="BC27" s="28"/>
+      <c r="BD27" s="28"/>
+      <c r="BE27" s="28"/>
+      <c r="BF27" s="28"/>
+      <c r="BG27" s="28"/>
+      <c r="BH27" s="28"/>
+      <c r="BI27" s="28"/>
+      <c r="BJ27" s="28"/>
+      <c r="BK27" s="28"/>
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>71</v>
       </c>
@@ -4424,6 +3698,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -4440,10 +3718,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F23">
@@ -4457,49 +3731,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="41" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="6"/>
+    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="42">
         <v>42065</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -4509,10 +3783,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="71"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -4541,499 +3815,429 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+    <row r="5" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="31" t="s">
+      <c r="E5" s="111"/>
+      <c r="F5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="21">
         <v>1</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-    </row>
-    <row r="6" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
-        <v>2</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+    </row>
+    <row r="6" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>2</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="78" t="s">
+      <c r="C6" s="113"/>
+      <c r="D6" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="111"/>
+      <c r="F6" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="21">
         <v>1</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-    </row>
-    <row r="7" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="78" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="111"/>
+      <c r="F7" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="21">
         <v>1</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-    </row>
-    <row r="8" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+    </row>
+    <row r="8" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="74" t="s">
+      <c r="C8" s="113"/>
+      <c r="D8" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="115"/>
+      <c r="F8" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-    </row>
-    <row r="9" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+    </row>
+    <row r="9" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="74" t="s">
+      <c r="C9" s="113"/>
+      <c r="D9" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="75"/>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="115"/>
+      <c r="F9" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="21">
         <v>1</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-    </row>
-    <row r="10" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
         <v>6</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="74" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="115"/>
+      <c r="F10" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="21">
         <v>1</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="29">
+      <c r="H10" s="21"/>
+      <c r="I10" s="23">
         <v>1</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="31"/>
-    </row>
-    <row r="11" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="J10" s="21"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="78" t="s">
+      <c r="C11" s="113"/>
+      <c r="D11" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="31" t="s">
+      <c r="E11" s="111"/>
+      <c r="F11" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="29">
+      <c r="H11" s="21"/>
+      <c r="I11" s="23">
         <v>1</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="31"/>
-    </row>
-    <row r="12" spans="1:14" s="39" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="J11" s="21"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:14" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
         <v>8</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="78" t="s">
+      <c r="C12" s="113"/>
+      <c r="D12" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="31" t="s">
+      <c r="E12" s="111"/>
+      <c r="F12" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="21">
+        <v>5</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>9</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="109"/>
+      <c r="F13" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="34">
+        <v>2</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="36"/>
+    </row>
+    <row r="14" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>10</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="109"/>
+      <c r="F14" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="34">
+        <v>8</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="33">
+        <v>2</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="36"/>
+    </row>
+    <row r="15" spans="1:14" s="37" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>11</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="109"/>
+      <c r="F15" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="34">
+        <v>10</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36"/>
+    </row>
+    <row r="16" spans="1:14" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>12</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="109"/>
+      <c r="F16" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="34">
+        <v>10</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
+    </row>
+    <row r="17" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>13</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="109"/>
+      <c r="F17" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="34">
+        <v>5</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="36"/>
+    </row>
+    <row r="18" spans="1:14" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>14</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="109"/>
+      <c r="F18" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="34">
+        <v>12</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
+    </row>
+    <row r="19" spans="1:14" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>15</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="109"/>
+      <c r="F19" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="34">
+        <v>12</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="36"/>
+    </row>
+    <row r="20" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="32"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="78">
         <v>1</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="31"/>
-    </row>
-    <row r="13" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46">
-        <v>9</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="47">
-        <v>2</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="49"/>
-    </row>
-    <row r="14" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46">
-        <v>10</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="46">
-        <v>2</v>
-      </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49"/>
-    </row>
-    <row r="15" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
-        <v>11</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="49"/>
-    </row>
-    <row r="16" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46">
-        <v>12</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="47">
-        <v>2</v>
-      </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="49"/>
-    </row>
-    <row r="17" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46">
-        <v>13</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="47">
-        <v>2</v>
-      </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="49"/>
-    </row>
-    <row r="18" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G18" s="45"/>
-    </row>
-    <row r="19" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G19" s="45"/>
-    </row>
-    <row r="20" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G20" s="45"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="65">
-        <v>1</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="66"/>
-      <c r="B26" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="66"/>
-      <c r="B27" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="66"/>
-      <c r="B28" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="66"/>
-      <c r="B29" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="66"/>
-      <c r="B30" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="66"/>
-      <c r="B31" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="92"/>
-      <c r="B32" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="28"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -5042,19 +4246,134 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="79"/>
+      <c r="B33" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="79"/>
+      <c r="B34" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="79"/>
+      <c r="B35" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="79"/>
+      <c r="B36" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="79"/>
+      <c r="B37" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="79"/>
+      <c r="B38" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="105"/>
+      <c r="B39" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E28"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
+  <mergeCells count="27">
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A1:C2"/>
@@ -5069,9 +4388,22 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E35"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="G37:G38"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F26 F29:F32 F5:F17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32:F33 F36:F39 F5:F19">
       <formula1>StatusList</formula1>
     </dataValidation>
   </dataValidations>
@@ -5084,211 +4416,211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" workbookViewId="0">
+    <sheetView topLeftCell="E19" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="22" customWidth="1"/>
-    <col min="2" max="2" width="20" style="22" customWidth="1"/>
-    <col min="3" max="3" width="48" style="22" customWidth="1"/>
-    <col min="4" max="4" width="56.625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="22" customWidth="1"/>
-    <col min="6" max="7" width="9.125" style="22"/>
-    <col min="8" max="8" width="56" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="22" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.875" style="22" customWidth="1"/>
-    <col min="12" max="12" width="51.125" style="22" customWidth="1"/>
-    <col min="13" max="16384" width="9.125" style="22"/>
+    <col min="1" max="1" width="14.28515625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="20" style="18" customWidth="1"/>
+    <col min="3" max="3" width="48" style="18" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="18" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="18"/>
+    <col min="8" max="8" width="56" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="18" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.85546875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="51.140625" style="18" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="116"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="104"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="117"/>
+      <c r="B6" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="34">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="104"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="117"/>
+      <c r="B7" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="104"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="117"/>
+      <c r="B9" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="104"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="117"/>
+      <c r="B10" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="104"/>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="117"/>
+      <c r="B12" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="104"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="117"/>
+      <c r="B13" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="119" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -5298,8 +4630,8 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="107"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="120"/>
+      <c r="B15" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -5308,8 +4640,8 @@
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="107"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="120"/>
+      <c r="B16" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -5319,30 +4651,30 @@
       <c r="E16" s="10"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="18">
         <v>8</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="56" t="s">
+      <c r="I18" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="57" t="s">
+      <c r="K18" s="44" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="18">
         <v>4</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -5355,118 +4687,118 @@
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="18">
         <v>3</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="J20" s="42" t="s">
+      <c r="J20" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="31" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="H21" s="42" t="s">
+    <row r="21" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="H21" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="44" t="s">
+      <c r="K21" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="H22" s="42" t="s">
+    <row r="22" spans="2:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="H22" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="44" t="s">
+      <c r="K22" s="31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="H23" s="42" t="s">
+    <row r="23" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="H23" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="J23" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="44" t="s">
+      <c r="K23" s="31" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="44" t="s">
+      <c r="K24" s="31" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H25" s="60" t="s">
+      <c r="H25" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="I25" s="60" t="s">
+      <c r="I25" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="J25" s="60" t="s">
+      <c r="J25" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="K25" s="61" t="s">
+      <c r="K25" s="48" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H26" s="58" t="s">
+      <c r="H26" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="I26" s="58" t="s">
+      <c r="I26" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="J26" s="58" t="s">
+      <c r="J26" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="59"/>
+      <c r="K26" s="46"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="I27" s="58" t="s">
+      <c r="I27" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="J27" s="58" t="s">
+      <c r="J27" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="K27" s="59"/>
+      <c r="K27" s="46"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H28" s="10" t="s">
@@ -5493,40 +4825,40 @@
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H30" s="58" t="s">
+      <c r="H30" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="I30" s="58" t="s">
+      <c r="I30" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="J30" s="58" t="s">
+      <c r="J30" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="K30" s="59"/>
+      <c r="K30" s="46"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H31" s="58" t="s">
+      <c r="H31" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="I31" s="58" t="s">
+      <c r="I31" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="J31" s="58" t="s">
+      <c r="J31" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="59"/>
+      <c r="K31" s="46"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H32" s="58" t="s">
+      <c r="H32" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="58" t="s">
+      <c r="I32" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="J32" s="58" t="s">
+      <c r="J32" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="K32" s="59"/>
+      <c r="K32" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5550,27 +4882,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -1172,6 +1172,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,14 +1199,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1211,40 +1235,61 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1258,51 +1303,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1379,7 +1379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1414,7 +1414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1944,18 +1944,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1983,11 +1983,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1996,9 +1996,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2016,10 +2016,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="75"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="79" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="70" t="s">
@@ -2297,7 +2297,7 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="70" t="s">
         <v>71</v>
       </c>
@@ -2411,7 +2411,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
+      <c r="A14" s="72">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2431,7 +2431,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
@@ -2469,7 +2469,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
@@ -2507,7 +2507,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
@@ -2545,7 +2545,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
@@ -2583,7 +2583,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
@@ -2622,15 +2622,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2641,6 +2632,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2673,11 +2673,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2686,9 +2686,9 @@
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2751,10 +2751,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="75"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2842,10 +2842,10 @@
       <c r="C5" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="84"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="52" t="s">
         <v>92</v>
       </c>
@@ -2880,10 +2880,10 @@
         <v>118</v>
       </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="86"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="51" t="s">
         <v>92</v>
       </c>
@@ -2918,8 +2918,8 @@
         <v>119</v>
       </c>
       <c r="C7" s="50"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="51" t="s">
         <v>92</v>
       </c>
@@ -2954,10 +2954,10 @@
         <v>108</v>
       </c>
       <c r="C8" s="50"/>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="86"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="51" t="s">
         <v>92</v>
       </c>
@@ -2980,10 +2980,10 @@
         <v>110</v>
       </c>
       <c r="C9" s="56"/>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="92"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="58" t="s">
         <v>76</v>
       </c>
@@ -3006,10 +3006,10 @@
         <v>111</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="92"/>
+      <c r="E10" s="86"/>
       <c r="F10" s="58" t="s">
         <v>76</v>
       </c>
@@ -3032,10 +3032,10 @@
         <v>112</v>
       </c>
       <c r="C11" s="57"/>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="92"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="58" t="s">
         <v>76</v>
       </c>
@@ -3058,8 +3058,8 @@
         <v>109</v>
       </c>
       <c r="C12" s="62"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="58"/>
       <c r="G12" s="56"/>
       <c r="H12" s="56"/>
@@ -3078,10 +3078,10 @@
         <v>113</v>
       </c>
       <c r="C13" s="56"/>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="58" t="s">
         <v>76</v>
       </c>
@@ -3116,10 +3116,10 @@
         <v>124</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="90"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="58" t="s">
         <v>76</v>
       </c>
@@ -3154,10 +3154,10 @@
         <v>114</v>
       </c>
       <c r="C15" s="50"/>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="96"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="51" t="s">
         <v>92</v>
       </c>
@@ -3192,10 +3192,10 @@
         <v>115</v>
       </c>
       <c r="C16" s="57"/>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="58" t="s">
         <v>76</v>
       </c>
@@ -3230,8 +3230,8 @@
         <v>125</v>
       </c>
       <c r="C17" s="57"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="58"/>
       <c r="G17" s="56"/>
       <c r="H17" s="56"/>
@@ -3250,10 +3250,10 @@
         <v>120</v>
       </c>
       <c r="C18" s="57"/>
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="92"/>
+      <c r="E18" s="86"/>
       <c r="F18" s="58" t="s">
         <v>76</v>
       </c>
@@ -3288,10 +3288,10 @@
         <v>121</v>
       </c>
       <c r="C19" s="66"/>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="94"/>
+      <c r="E19" s="96"/>
       <c r="F19" s="67" t="s">
         <v>66</v>
       </c>
@@ -3314,10 +3314,10 @@
         <v>122</v>
       </c>
       <c r="C20" s="50"/>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="86"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="51" t="s">
         <v>92</v>
       </c>
@@ -3352,10 +3352,10 @@
         <v>116</v>
       </c>
       <c r="C21" s="57"/>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="92"/>
+      <c r="E21" s="86"/>
       <c r="F21" s="58" t="s">
         <v>76</v>
       </c>
@@ -3390,10 +3390,10 @@
         <v>117</v>
       </c>
       <c r="C22" s="50"/>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="86"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="51" t="s">
         <v>92</v>
       </c>
@@ -3428,10 +3428,10 @@
         <v>123</v>
       </c>
       <c r="C23" s="50"/>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="82"/>
+      <c r="E23" s="90"/>
       <c r="F23" s="51" t="s">
         <v>92</v>
       </c>
@@ -3698,26 +3698,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F23">
@@ -3733,8 +3733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3750,11 +3750,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -3763,9 +3763,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -3783,10 +3783,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="75"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -3822,13 +3822,13 @@
       <c r="B5" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="111"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="25" t="s">
         <v>76</v>
       </c>
@@ -3850,11 +3850,11 @@
       <c r="B6" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="110" t="s">
+      <c r="C6" s="102"/>
+      <c r="D6" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="111"/>
+      <c r="E6" s="100"/>
       <c r="F6" s="25" t="s">
         <v>76</v>
       </c>
@@ -3876,11 +3876,11 @@
       <c r="B7" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="110" t="s">
+      <c r="C7" s="102"/>
+      <c r="D7" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="111"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="25" t="s">
         <v>76</v>
       </c>
@@ -3902,11 +3902,11 @@
       <c r="B8" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="114" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="115"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="25" t="s">
         <v>76</v>
       </c>
@@ -3928,11 +3928,11 @@
       <c r="B9" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="115"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="25" t="s">
         <v>76</v>
       </c>
@@ -3954,11 +3954,11 @@
       <c r="B10" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="115"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="25" t="s">
         <v>136</v>
       </c>
@@ -3982,13 +3982,13 @@
       <c r="B11" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="110" t="s">
+      <c r="C11" s="102"/>
+      <c r="D11" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="25" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="G11" s="21">
         <v>1</v>
@@ -4010,20 +4010,24 @@
       <c r="B12" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="110" t="s">
+      <c r="C12" s="102"/>
+      <c r="D12" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="111"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="25" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="G12" s="21">
         <v>5</v>
       </c>
       <c r="H12" s="21"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="21"/>
+      <c r="I12" s="23">
+        <v>2</v>
+      </c>
+      <c r="J12" s="21">
+        <v>2</v>
+      </c>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -4039,19 +4043,21 @@
       <c r="C13" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="109"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="36" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G13" s="34">
         <v>2</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
+      <c r="J13" s="34">
+        <v>2</v>
+      </c>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
@@ -4065,10 +4071,10 @@
         <v>174</v>
       </c>
       <c r="C14" s="35"/>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="109"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="36" t="s">
         <v>76</v>
       </c>
@@ -4079,7 +4085,9 @@
       <c r="I14" s="33">
         <v>2</v>
       </c>
-      <c r="J14" s="34"/>
+      <c r="J14" s="34">
+        <v>3</v>
+      </c>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
@@ -4095,10 +4103,10 @@
       <c r="C15" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="109"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="36" t="s">
         <v>66</v>
       </c>
@@ -4123,10 +4131,10 @@
       <c r="C16" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="109"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="36" t="s">
         <v>66</v>
       </c>
@@ -4149,10 +4157,10 @@
         <v>167</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="109"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="36" t="s">
         <v>66</v>
       </c>
@@ -4177,10 +4185,10 @@
       <c r="C18" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="109"/>
+      <c r="E18" s="98"/>
       <c r="F18" s="36" t="s">
         <v>66</v>
       </c>
@@ -4205,10 +4213,10 @@
       <c r="C19" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="109"/>
+      <c r="E19" s="98"/>
       <c r="F19" s="36" t="s">
         <v>66</v>
       </c>
@@ -4227,7 +4235,7 @@
       <c r="G20" s="32"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="78">
+      <c r="A32" s="72">
         <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -4247,15 +4255,15 @@
       <c r="N32" s="10"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="98"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="113"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -4265,15 +4273,15 @@
       <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="99"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="114"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -4283,15 +4291,15 @@
       <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C35" s="11"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="100"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="115"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
@@ -4301,7 +4309,7 @@
       <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="10" t="s">
         <v>102</v>
       </c>
@@ -4319,15 +4327,15 @@
       <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="102"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="107"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="98"/>
+      <c r="G37" s="113"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
@@ -4337,15 +4345,15 @@
       <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C38" s="10"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="104"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="100"/>
+      <c r="G38" s="115"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -4374,6 +4382,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E35"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A1:C2"/>
@@ -4388,19 +4409,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E35"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="G37:G38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32:F33 F36:F39 F5:F19">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="181">
   <si>
     <t>Name</t>
   </si>
@@ -667,6 +667,9 @@
       <t xml:space="preserve"> must be defined 5 basic components: title, navigation menu, header, main container and footer. While main container is the bank space allows drag n drop element inside.
 Every id/class have a simple definition name is a must.</t>
     </r>
+  </si>
+  <si>
+    <t>Code example Drag n Drop function</t>
   </si>
 </sst>
 </file>
@@ -963,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1054,9 +1057,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1172,6 +1172,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1181,72 +1199,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1270,39 +1303,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1379,7 +1379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1414,7 +1414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1682,10 +1682,10 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1699,8 +1699,8 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1712,8 +1712,8 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1740,10 +1740,10 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1757,8 +1757,8 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1787,10 +1787,10 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="68" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1804,8 +1804,8 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1817,8 +1817,8 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1830,10 +1830,10 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="68" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1847,8 +1847,8 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1860,8 +1860,8 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1873,8 +1873,8 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1886,10 +1886,10 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1903,8 +1903,8 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1916,10 +1916,10 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="68" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1933,8 +1933,8 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1944,18 +1944,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1983,11 +1983,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1996,9 +1996,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2016,10 +2016,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="78"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2058,10 +2058,10 @@
       <c r="C5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="71"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="10" t="s">
         <v>92</v>
       </c>
@@ -2100,10 +2100,10 @@
       <c r="C6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="71"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="10" t="s">
         <v>92</v>
       </c>
@@ -2140,10 +2140,10 @@
         <v>95</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="71"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="10" t="s">
         <v>92</v>
       </c>
@@ -2176,10 +2176,10 @@
         <v>94</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="71"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="10" t="s">
         <v>92</v>
       </c>
@@ -2216,10 +2216,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="71"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="10" t="s">
         <v>92</v>
       </c>
@@ -2255,13 +2255,13 @@
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="71"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="10" t="s">
         <v>92</v>
       </c>
@@ -2297,11 +2297,11 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="70" t="s">
+      <c r="C11" s="76"/>
+      <c r="D11" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="71"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="10" t="s">
         <v>92</v>
       </c>
@@ -2338,10 +2338,10 @@
         <v>85</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="71"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="10" t="s">
         <v>76</v>
       </c>
@@ -2378,10 +2378,10 @@
         <v>86</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="71"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="10" t="s">
         <v>92</v>
       </c>
@@ -2411,15 +2411,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="72">
+      <c r="A14" s="77">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2431,15 +2431,15 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="71"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="10" t="s">
         <v>92</v>
       </c>
@@ -2469,15 +2469,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="71"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="10" t="s">
         <v>92</v>
       </c>
@@ -2507,15 +2507,15 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="71"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="10" t="s">
         <v>92</v>
       </c>
@@ -2545,15 +2545,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="71"/>
+      <c r="E18" s="70"/>
       <c r="F18" s="10" t="s">
         <v>92</v>
       </c>
@@ -2583,15 +2583,15 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="71"/>
+      <c r="E19" s="70"/>
       <c r="F19" s="10" t="s">
         <v>92</v>
       </c>
@@ -2622,6 +2622,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2632,15 +2641,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2673,11 +2673,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2686,9 +2686,9 @@
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2751,10 +2751,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="78"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2832,631 +2832,631 @@
       <c r="BJ4" s="28"/>
       <c r="BK4" s="28"/>
     </row>
-    <row r="5" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+    <row r="5" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48">
         <v>1</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="52" t="s">
+      <c r="E5" s="83"/>
+      <c r="F5" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="63">
-        <v>2</v>
-      </c>
-      <c r="H5" s="52">
-        <v>2</v>
-      </c>
-      <c r="I5" s="52">
-        <v>0</v>
-      </c>
-      <c r="J5" s="52">
-        <v>0</v>
-      </c>
-      <c r="K5" s="52">
-        <v>0</v>
-      </c>
-      <c r="L5" s="52">
-        <v>0</v>
-      </c>
-      <c r="M5" s="52">
-        <v>0</v>
-      </c>
-      <c r="N5" s="52"/>
-    </row>
-    <row r="6" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
+      <c r="G5" s="62">
+        <v>2</v>
+      </c>
+      <c r="H5" s="51">
+        <v>2</v>
+      </c>
+      <c r="I5" s="51">
+        <v>0</v>
+      </c>
+      <c r="J5" s="51">
+        <v>0</v>
+      </c>
+      <c r="K5" s="51">
+        <v>0</v>
+      </c>
+      <c r="L5" s="51">
+        <v>0</v>
+      </c>
+      <c r="M5" s="51">
+        <v>0</v>
+      </c>
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48">
         <v>3</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="87" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="51" t="s">
+      <c r="E6" s="85"/>
+      <c r="F6" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="52">
-        <v>2</v>
-      </c>
-      <c r="H6" s="52">
-        <v>0</v>
-      </c>
-      <c r="I6" s="52">
-        <v>2</v>
-      </c>
-      <c r="J6" s="52">
-        <v>0</v>
-      </c>
-      <c r="K6" s="52">
-        <v>0</v>
-      </c>
-      <c r="L6" s="52">
-        <v>0</v>
-      </c>
-      <c r="M6" s="52">
-        <v>0</v>
-      </c>
-      <c r="N6" s="52"/>
-    </row>
-    <row r="7" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
+      <c r="G6" s="51">
+        <v>2</v>
+      </c>
+      <c r="H6" s="51">
+        <v>0</v>
+      </c>
+      <c r="I6" s="51">
+        <v>2</v>
+      </c>
+      <c r="J6" s="51">
+        <v>0</v>
+      </c>
+      <c r="K6" s="51">
+        <v>0</v>
+      </c>
+      <c r="L6" s="51">
+        <v>0</v>
+      </c>
+      <c r="M6" s="51">
+        <v>0</v>
+      </c>
+      <c r="N6" s="51"/>
+    </row>
+    <row r="7" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48">
         <v>4</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="51" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="52">
-        <v>2</v>
-      </c>
-      <c r="H7" s="52">
-        <v>0</v>
-      </c>
-      <c r="I7" s="52">
-        <v>0</v>
-      </c>
-      <c r="J7" s="52">
-        <v>2</v>
-      </c>
-      <c r="K7" s="52">
-        <v>0</v>
-      </c>
-      <c r="L7" s="52">
-        <v>0</v>
-      </c>
-      <c r="M7" s="52">
-        <v>0</v>
-      </c>
-      <c r="N7" s="52"/>
-    </row>
-    <row r="8" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
+      <c r="G7" s="51">
+        <v>2</v>
+      </c>
+      <c r="H7" s="51">
+        <v>0</v>
+      </c>
+      <c r="I7" s="51">
+        <v>0</v>
+      </c>
+      <c r="J7" s="51">
+        <v>2</v>
+      </c>
+      <c r="K7" s="51">
+        <v>0</v>
+      </c>
+      <c r="L7" s="51">
+        <v>0</v>
+      </c>
+      <c r="M7" s="51">
+        <v>0</v>
+      </c>
+      <c r="N7" s="51"/>
+    </row>
+    <row r="8" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
         <v>5</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="87" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="51" t="s">
+      <c r="E8" s="85"/>
+      <c r="F8" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="52">
-        <v>2</v>
-      </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-    </row>
-    <row r="9" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55">
+      <c r="G8" s="51">
+        <v>2</v>
+      </c>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+    </row>
+    <row r="9" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54">
         <v>6</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="85" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="58" t="s">
+      <c r="E9" s="89"/>
+      <c r="F9" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="56">
-        <v>2</v>
-      </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-    </row>
-    <row r="10" spans="1:63" s="54" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="55">
+      <c r="G9" s="55">
+        <v>2</v>
+      </c>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+    </row>
+    <row r="10" spans="1:63" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="54">
         <v>7</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="85" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="58" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="56">
-        <v>2</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-    </row>
-    <row r="11" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55">
+      <c r="G10" s="55">
+        <v>2</v>
+      </c>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+    </row>
+    <row r="11" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54">
         <v>8</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="85" t="s">
+      <c r="C11" s="56"/>
+      <c r="D11" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="58" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="56">
-        <v>2</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-    </row>
-    <row r="12" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55">
+      <c r="G11" s="55">
+        <v>2</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+    </row>
+    <row r="12" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54">
         <v>9</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-    </row>
-    <row r="13" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55">
+      <c r="C12" s="61"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+    </row>
+    <row r="13" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54">
         <v>10</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="81" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="58" t="s">
+      <c r="E13" s="81"/>
+      <c r="F13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="56">
-        <v>2</v>
-      </c>
-      <c r="H13" s="56">
-        <v>0</v>
-      </c>
-      <c r="I13" s="56">
-        <v>0</v>
-      </c>
-      <c r="J13" s="56">
-        <v>0</v>
-      </c>
-      <c r="K13" s="56">
-        <v>0</v>
-      </c>
-      <c r="L13" s="56">
-        <v>2</v>
-      </c>
-      <c r="M13" s="56">
-        <v>0</v>
-      </c>
-      <c r="N13" s="56"/>
-    </row>
-    <row r="14" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55">
+      <c r="G13" s="55">
+        <v>2</v>
+      </c>
+      <c r="H13" s="55">
+        <v>0</v>
+      </c>
+      <c r="I13" s="55">
+        <v>0</v>
+      </c>
+      <c r="J13" s="55">
+        <v>0</v>
+      </c>
+      <c r="K13" s="55">
+        <v>0</v>
+      </c>
+      <c r="L13" s="55">
+        <v>2</v>
+      </c>
+      <c r="M13" s="55">
+        <v>0</v>
+      </c>
+      <c r="N13" s="55"/>
+    </row>
+    <row r="14" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54">
         <v>11</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="81" t="s">
+      <c r="C14" s="55"/>
+      <c r="D14" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="58" t="s">
+      <c r="E14" s="81"/>
+      <c r="F14" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="56">
-        <v>2</v>
-      </c>
-      <c r="H14" s="56">
-        <v>0</v>
-      </c>
-      <c r="I14" s="56">
-        <v>0</v>
-      </c>
-      <c r="J14" s="56">
-        <v>0</v>
-      </c>
-      <c r="K14" s="56">
-        <v>0</v>
-      </c>
-      <c r="L14" s="56">
+      <c r="G14" s="55">
+        <v>2</v>
+      </c>
+      <c r="H14" s="55">
+        <v>0</v>
+      </c>
+      <c r="I14" s="55">
+        <v>0</v>
+      </c>
+      <c r="J14" s="55">
+        <v>0</v>
+      </c>
+      <c r="K14" s="55">
+        <v>0</v>
+      </c>
+      <c r="L14" s="55">
         <v>1</v>
       </c>
-      <c r="M14" s="56">
+      <c r="M14" s="55">
         <v>1</v>
       </c>
-      <c r="N14" s="56"/>
-    </row>
-    <row r="15" spans="1:63" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
+      <c r="N14" s="55"/>
+    </row>
+    <row r="15" spans="1:63" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="48">
         <v>12</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="83" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="51" t="s">
+      <c r="E15" s="91"/>
+      <c r="F15" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="52">
-        <v>2</v>
-      </c>
-      <c r="H15" s="52">
-        <v>0</v>
-      </c>
-      <c r="I15" s="52">
-        <v>0</v>
-      </c>
-      <c r="J15" s="52">
-        <v>0</v>
-      </c>
-      <c r="K15" s="52">
-        <v>0</v>
-      </c>
-      <c r="L15" s="52">
-        <v>0</v>
-      </c>
-      <c r="M15" s="50">
-        <v>2</v>
-      </c>
-      <c r="N15" s="51"/>
-    </row>
-    <row r="16" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55">
+      <c r="G15" s="51">
+        <v>2</v>
+      </c>
+      <c r="H15" s="51">
+        <v>0</v>
+      </c>
+      <c r="I15" s="51">
+        <v>0</v>
+      </c>
+      <c r="J15" s="51">
+        <v>0</v>
+      </c>
+      <c r="K15" s="51">
+        <v>0</v>
+      </c>
+      <c r="L15" s="51">
+        <v>0</v>
+      </c>
+      <c r="M15" s="49">
+        <v>2</v>
+      </c>
+      <c r="N15" s="50"/>
+    </row>
+    <row r="16" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54">
         <v>13</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="81" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="58" t="s">
+      <c r="E16" s="81"/>
+      <c r="F16" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="56">
-        <v>2</v>
-      </c>
-      <c r="H16" s="56">
-        <v>0</v>
-      </c>
-      <c r="I16" s="55">
-        <v>0</v>
-      </c>
-      <c r="J16" s="56">
-        <v>0</v>
-      </c>
-      <c r="K16" s="57">
-        <v>0</v>
-      </c>
-      <c r="L16" s="57">
-        <v>0</v>
-      </c>
-      <c r="M16" s="57">
+      <c r="G16" s="55">
+        <v>2</v>
+      </c>
+      <c r="H16" s="55">
+        <v>0</v>
+      </c>
+      <c r="I16" s="54">
+        <v>0</v>
+      </c>
+      <c r="J16" s="55">
+        <v>0</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0</v>
+      </c>
+      <c r="L16" s="56">
+        <v>0</v>
+      </c>
+      <c r="M16" s="56">
         <v>1</v>
       </c>
-      <c r="N16" s="58"/>
-    </row>
-    <row r="17" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55">
+      <c r="N16" s="57"/>
+    </row>
+    <row r="17" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54">
         <v>14</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="58"/>
-    </row>
-    <row r="18" spans="1:63" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55">
+      <c r="C17" s="56"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="57"/>
+    </row>
+    <row r="18" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54">
         <v>15</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="85" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="58" t="s">
+      <c r="E18" s="89"/>
+      <c r="F18" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="56">
-        <v>2</v>
-      </c>
-      <c r="H18" s="56">
-        <v>0</v>
-      </c>
-      <c r="I18" s="55">
-        <v>0</v>
-      </c>
-      <c r="J18" s="56">
+      <c r="G18" s="55">
+        <v>2</v>
+      </c>
+      <c r="H18" s="55">
+        <v>0</v>
+      </c>
+      <c r="I18" s="54">
+        <v>0</v>
+      </c>
+      <c r="J18" s="55">
         <v>1</v>
       </c>
-      <c r="K18" s="57">
-        <v>0</v>
-      </c>
-      <c r="L18" s="57">
-        <v>0</v>
-      </c>
-      <c r="M18" s="57">
+      <c r="K18" s="56">
+        <v>0</v>
+      </c>
+      <c r="L18" s="56">
+        <v>0</v>
+      </c>
+      <c r="M18" s="56">
         <v>1</v>
       </c>
-      <c r="N18" s="58"/>
-    </row>
-    <row r="19" spans="1:63" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64">
+      <c r="N18" s="57"/>
+    </row>
+    <row r="19" spans="1:63" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="63">
         <v>16</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="95" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="67" t="s">
+      <c r="E19" s="95"/>
+      <c r="F19" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="65">
-        <v>2</v>
-      </c>
-      <c r="H19" s="65"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="67"/>
-    </row>
-    <row r="20" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+      <c r="G19" s="64">
+        <v>2</v>
+      </c>
+      <c r="H19" s="64"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="66"/>
+    </row>
+    <row r="20" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="48">
         <v>17</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="87" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="51" t="s">
+      <c r="E20" s="85"/>
+      <c r="F20" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="52">
-        <v>2</v>
-      </c>
-      <c r="H20" s="52">
-        <v>0</v>
-      </c>
-      <c r="I20" s="49">
-        <v>0</v>
-      </c>
-      <c r="J20" s="52">
-        <v>2</v>
-      </c>
-      <c r="K20" s="50">
-        <v>2</v>
-      </c>
-      <c r="L20" s="50">
+      <c r="G20" s="51">
+        <v>2</v>
+      </c>
+      <c r="H20" s="51">
+        <v>0</v>
+      </c>
+      <c r="I20" s="48">
+        <v>0</v>
+      </c>
+      <c r="J20" s="51">
+        <v>2</v>
+      </c>
+      <c r="K20" s="49">
+        <v>2</v>
+      </c>
+      <c r="L20" s="49">
         <v>1</v>
       </c>
-      <c r="M20" s="50">
-        <v>0</v>
-      </c>
-      <c r="N20" s="51"/>
-    </row>
-    <row r="21" spans="1:63" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55">
+      <c r="M20" s="49">
+        <v>0</v>
+      </c>
+      <c r="N20" s="50"/>
+    </row>
+    <row r="21" spans="1:63" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="54">
         <v>18</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="85" t="s">
+      <c r="C21" s="56"/>
+      <c r="D21" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="58" t="s">
+      <c r="E21" s="89"/>
+      <c r="F21" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="56">
-        <v>2</v>
-      </c>
-      <c r="H21" s="56">
-        <v>0</v>
-      </c>
-      <c r="I21" s="55">
-        <v>0</v>
-      </c>
-      <c r="J21" s="56">
-        <v>0</v>
-      </c>
-      <c r="K21" s="57">
-        <v>0</v>
-      </c>
-      <c r="L21" s="57">
-        <v>0</v>
-      </c>
-      <c r="M21" s="57">
+      <c r="G21" s="55">
+        <v>2</v>
+      </c>
+      <c r="H21" s="55">
+        <v>0</v>
+      </c>
+      <c r="I21" s="54">
+        <v>0</v>
+      </c>
+      <c r="J21" s="55">
+        <v>0</v>
+      </c>
+      <c r="K21" s="56">
+        <v>0</v>
+      </c>
+      <c r="L21" s="56">
+        <v>0</v>
+      </c>
+      <c r="M21" s="56">
         <v>1</v>
       </c>
-      <c r="N21" s="58"/>
-    </row>
-    <row r="22" spans="1:63" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
+      <c r="N21" s="57"/>
+    </row>
+    <row r="22" spans="1:63" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
         <v>19</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="87" t="s">
+      <c r="C22" s="49"/>
+      <c r="D22" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="51" t="s">
+      <c r="E22" s="85"/>
+      <c r="F22" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="52">
-        <v>2</v>
-      </c>
-      <c r="H22" s="52">
-        <v>0</v>
-      </c>
-      <c r="I22" s="49">
-        <v>0</v>
-      </c>
-      <c r="J22" s="52">
-        <v>0</v>
-      </c>
-      <c r="K22" s="50">
-        <v>2</v>
-      </c>
-      <c r="L22" s="50">
-        <v>2</v>
-      </c>
-      <c r="M22" s="50">
-        <v>0</v>
-      </c>
-      <c r="N22" s="51"/>
-    </row>
-    <row r="23" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49">
+      <c r="G22" s="51">
+        <v>2</v>
+      </c>
+      <c r="H22" s="51">
+        <v>0</v>
+      </c>
+      <c r="I22" s="48">
+        <v>0</v>
+      </c>
+      <c r="J22" s="51">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49">
+        <v>2</v>
+      </c>
+      <c r="L22" s="49">
+        <v>2</v>
+      </c>
+      <c r="M22" s="49">
+        <v>0</v>
+      </c>
+      <c r="N22" s="50"/>
+    </row>
+    <row r="23" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="48">
         <v>20</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="89" t="s">
+      <c r="C23" s="49"/>
+      <c r="D23" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="51" t="s">
+      <c r="E23" s="93"/>
+      <c r="F23" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="52">
-        <v>2</v>
-      </c>
-      <c r="H23" s="52">
-        <v>0</v>
-      </c>
-      <c r="I23" s="49">
-        <v>0</v>
-      </c>
-      <c r="J23" s="52">
-        <v>0</v>
-      </c>
-      <c r="K23" s="50">
-        <v>0</v>
-      </c>
-      <c r="L23" s="50">
+      <c r="G23" s="51">
+        <v>2</v>
+      </c>
+      <c r="H23" s="51">
+        <v>0</v>
+      </c>
+      <c r="I23" s="48">
+        <v>0</v>
+      </c>
+      <c r="J23" s="51">
+        <v>0</v>
+      </c>
+      <c r="K23" s="49">
+        <v>0</v>
+      </c>
+      <c r="L23" s="49">
         <v>1</v>
       </c>
-      <c r="M23" s="50">
-        <v>2</v>
-      </c>
-      <c r="N23" s="51"/>
+      <c r="M23" s="49">
+        <v>2</v>
+      </c>
+      <c r="N23" s="50"/>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.25">
       <c r="O24" s="28"/>
@@ -3510,10 +3510,10 @@
       <c r="BK24" s="28"/>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>129</v>
       </c>
       <c r="O25" s="28"/>
@@ -3570,7 +3570,7 @@
       <c r="B26" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="39">
         <v>7</v>
       </c>
       <c r="O26" s="28"/>
@@ -3627,7 +3627,7 @@
       <c r="B27" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="39">
         <v>5</v>
       </c>
       <c r="O27" s="28"/>
@@ -3684,7 +3684,7 @@
       <c r="B28" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="39">
         <v>5</v>
       </c>
     </row>
@@ -3698,6 +3698,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D4:E4"/>
@@ -3708,16 +3718,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F23">
@@ -3733,8 +3733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3750,26 +3750,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="41">
         <v>42065</v>
       </c>
     </row>
@@ -3783,10 +3783,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="78"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -3822,13 +3822,13 @@
       <c r="B5" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="100"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="25" t="s">
         <v>76</v>
       </c>
@@ -3850,11 +3850,11 @@
       <c r="B6" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="99" t="s">
+      <c r="C6" s="112"/>
+      <c r="D6" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="100"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="25" t="s">
         <v>76</v>
       </c>
@@ -3876,11 +3876,11 @@
       <c r="B7" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="99" t="s">
+      <c r="C7" s="112"/>
+      <c r="D7" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="100"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="25" t="s">
         <v>76</v>
       </c>
@@ -3902,11 +3902,11 @@
       <c r="B8" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103" t="s">
+      <c r="C8" s="112"/>
+      <c r="D8" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="104"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="25" t="s">
         <v>76</v>
       </c>
@@ -3928,11 +3928,11 @@
       <c r="B9" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103" t="s">
+      <c r="C9" s="112"/>
+      <c r="D9" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="114"/>
       <c r="F9" s="25" t="s">
         <v>76</v>
       </c>
@@ -3954,11 +3954,11 @@
       <c r="B10" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103" t="s">
+      <c r="C10" s="112"/>
+      <c r="D10" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="104"/>
+      <c r="E10" s="114"/>
       <c r="F10" s="25" t="s">
         <v>136</v>
       </c>
@@ -3982,11 +3982,11 @@
       <c r="B11" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="99" t="s">
+      <c r="C11" s="112"/>
+      <c r="D11" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="100"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="25" t="s">
         <v>92</v>
       </c>
@@ -4010,11 +4010,11 @@
       <c r="B12" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="99" t="s">
+      <c r="C12" s="112"/>
+      <c r="D12" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="100"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="25" t="s">
         <v>136</v>
       </c>
@@ -4033,217 +4033,240 @@
       <c r="M12" s="27"/>
       <c r="N12" s="25"/>
     </row>
-    <row r="13" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+    <row r="13" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
         <v>9</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="36" t="s">
+      <c r="E13" s="108"/>
+      <c r="F13" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="34">
-        <v>2</v>
-      </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34">
-        <v>2</v>
-      </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36"/>
-    </row>
-    <row r="14" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="G13" s="33">
+        <v>2</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33">
+        <v>2</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="35"/>
+    </row>
+    <row r="14" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
         <v>10</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="97" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="36" t="s">
+      <c r="E14" s="108"/>
+      <c r="F14" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="33">
         <v>8</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="33">
-        <v>2</v>
-      </c>
-      <c r="J14" s="34">
+      <c r="H14" s="33"/>
+      <c r="I14" s="32">
+        <v>2</v>
+      </c>
+      <c r="J14" s="33">
         <v>3</v>
       </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
-    </row>
-    <row r="15" spans="1:14" s="37" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="35"/>
+    </row>
+    <row r="15" spans="1:14" s="36" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
         <v>11</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="36" t="s">
+      <c r="E15" s="108"/>
+      <c r="F15" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="33">
         <v>10</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36"/>
-    </row>
-    <row r="16" spans="1:14" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="H15" s="33"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
+    </row>
+    <row r="16" spans="1:14" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
         <v>12</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="97" t="s">
+      <c r="D16" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="36" t="s">
+      <c r="E16" s="108"/>
+      <c r="F16" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="33">
+        <v>10</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
+    </row>
+    <row r="17" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>13</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="108"/>
+      <c r="F17" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="34">
-        <v>10</v>
-      </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="36"/>
-    </row>
-    <row r="17" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
-        <v>13</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="97" t="s">
+      <c r="G17" s="33">
+        <v>5</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="35"/>
+    </row>
+    <row r="18" spans="1:14" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <v>14</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="108"/>
+      <c r="F18" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="33">
+        <v>12</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="35"/>
+    </row>
+    <row r="19" spans="1:14" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
+        <v>15</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="108"/>
+      <c r="F19" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="33">
+        <v>12</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="35"/>
+    </row>
+    <row r="20" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <v>16</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="36" t="s">
+      <c r="E20" s="108"/>
+      <c r="F20" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="34">
-        <v>5</v>
-      </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="36"/>
-    </row>
-    <row r="18" spans="1:14" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
-        <v>14</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="34">
+      <c r="G20" s="33">
         <v>12</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="36"/>
-    </row>
-    <row r="19" spans="1:14" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
-        <v>15</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D19" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="98"/>
-      <c r="F19" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="34">
-        <v>12</v>
-      </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="36"/>
-    </row>
-    <row r="20" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="35"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="72">
+      <c r="A32" s="77">
         <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="10"/>
       <c r="G32" s="17"/>
       <c r="H32" s="10"/>
@@ -4255,15 +4278,15 @@
       <c r="N32" s="10"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="113"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="97"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -4273,15 +4296,15 @@
       <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="114"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="98"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -4291,15 +4314,15 @@
       <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C35" s="11"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="115"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="99"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
@@ -4309,13 +4332,13 @@
       <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="70"/>
       <c r="F36" s="15"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -4327,15 +4350,15 @@
       <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="107"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="101"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="113"/>
+      <c r="G37" s="97"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
@@ -4345,15 +4368,15 @@
       <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
+      <c r="A38" s="78"/>
       <c r="B38" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C38" s="10"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="111"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="103"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="115"/>
+      <c r="G38" s="99"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -4363,13 +4386,13 @@
       <c r="N38" s="10"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="105"/>
+      <c r="A39" s="104"/>
       <c r="B39" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="71"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="70"/>
       <c r="F39" s="15"/>
       <c r="G39" s="22"/>
       <c r="H39" s="10"/>
@@ -4381,20 +4404,7 @@
       <c r="N39" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E35"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
+  <mergeCells count="28">
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A1:C2"/>
@@ -4409,9 +4419,23 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E35"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="G37:G38"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32:F33 F36:F39 F5:F19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32:F33 F36:F39 F5:F20">
       <formula1>StatusList</formula1>
     </dataValidation>
   </dataValidations>
@@ -4445,13 +4469,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -4471,161 +4495,161 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="34" t="s">
+      <c r="A5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="117"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="116"/>
+      <c r="B6" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="117"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="116"/>
+      <c r="B7" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="117"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="116"/>
+      <c r="B9" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="117"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="116"/>
+      <c r="B10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="33">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="117"/>
-      <c r="B12" s="38" t="s">
+      <c r="A12" s="116"/>
+      <c r="B12" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="33">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="117"/>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="116"/>
+      <c r="B13" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="33">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="118" t="s">
         <v>132</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -4638,7 +4662,7 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="120"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="20" t="s">
         <v>107</v>
       </c>
@@ -4648,7 +4672,7 @@
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="120"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="20" t="s">
         <v>68</v>
       </c>
@@ -4665,16 +4689,16 @@
       <c r="C18" s="18">
         <v>8</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="J18" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="43" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4771,42 +4795,42 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H25" s="47" t="s">
+      <c r="H25" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="I25" s="47" t="s">
+      <c r="I25" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="J25" s="47" t="s">
+      <c r="J25" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K25" s="48" t="s">
+      <c r="K25" s="47" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="J26" s="45" t="s">
+      <c r="J26" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="46"/>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="J27" s="45" t="s">
+      <c r="J27" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="K27" s="46"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H28" s="10" t="s">
@@ -4833,40 +4857,40 @@
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="J30" s="45" t="s">
+      <c r="J30" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="K30" s="46"/>
+      <c r="K30" s="45"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="46"/>
+      <c r="K31" s="45"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="J32" s="45" t="s">
+      <c r="J32" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="K32" s="46"/>
+      <c r="K32" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -680,7 +680,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1172,6 +1172,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,62 +1199,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1258,51 +1303,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1379,7 +1379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1414,7 +1414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1630,18 +1630,18 @@
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="52.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="38.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="52.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1944,18 +1944,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1970,24 +1970,24 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1995,10 +1995,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2016,10 +2016,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="74"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -2248,14 +2248,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="78" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="69" t="s">
@@ -2290,14 +2290,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="69" t="s">
         <v>71</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -2410,8 +2410,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="77">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="71">
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2430,8 +2430,8 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="72"/>
       <c r="B15" s="13" t="s">
         <v>88</v>
       </c>
@@ -2468,8 +2468,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
@@ -2506,8 +2506,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="72"/>
       <c r="B17" s="13" t="s">
         <v>90</v>
       </c>
@@ -2544,8 +2544,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="72"/>
       <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
@@ -2582,8 +2582,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="73"/>
       <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
@@ -2622,15 +2622,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2641,6 +2632,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19">
@@ -2660,24 +2660,24 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
     <col min="3" max="3" width="41" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="7" max="7" width="13.375" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2685,10 +2685,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="U3" s="28"/>
       <c r="V3" s="28"/>
       <c r="W3" s="28"/>
@@ -2741,7 +2741,7 @@
       <c r="BJ3" s="28"/>
       <c r="BK3" s="28"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2751,10 +2751,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="74"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="BJ4" s="28"/>
       <c r="BK4" s="28"/>
     </row>
-    <row r="5" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48">
         <v>1</v>
       </c>
@@ -2842,10 +2842,10 @@
       <c r="C5" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="83"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="51" t="s">
         <v>92</v>
       </c>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="N5" s="51"/>
     </row>
-    <row r="6" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48">
         <v>3</v>
       </c>
@@ -2880,10 +2880,10 @@
         <v>118</v>
       </c>
       <c r="C6" s="49"/>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="85"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="50" t="s">
         <v>92</v>
       </c>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="N6" s="51"/>
     </row>
-    <row r="7" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48">
         <v>4</v>
       </c>
@@ -2918,8 +2918,8 @@
         <v>119</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="50" t="s">
         <v>92</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="N7" s="51"/>
     </row>
-    <row r="8" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48">
         <v>5</v>
       </c>
@@ -2954,10 +2954,10 @@
         <v>108</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="85"/>
+      <c r="E8" s="87"/>
       <c r="F8" s="50" t="s">
         <v>92</v>
       </c>
@@ -2972,7 +2972,7 @@
       <c r="M8" s="51"/>
       <c r="N8" s="51"/>
     </row>
-    <row r="9" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="54">
         <v>6</v>
       </c>
@@ -2980,10 +2980,10 @@
         <v>110</v>
       </c>
       <c r="C9" s="55"/>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="89"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="57" t="s">
         <v>76</v>
       </c>
@@ -2998,7 +2998,7 @@
       <c r="M9" s="55"/>
       <c r="N9" s="55"/>
     </row>
-    <row r="10" spans="1:63" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54">
         <v>7</v>
       </c>
@@ -3006,10 +3006,10 @@
         <v>111</v>
       </c>
       <c r="C10" s="55"/>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="89"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="57" t="s">
         <v>76</v>
       </c>
@@ -3024,7 +3024,7 @@
       <c r="M10" s="55"/>
       <c r="N10" s="55"/>
     </row>
-    <row r="11" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="54">
         <v>8</v>
       </c>
@@ -3032,10 +3032,10 @@
         <v>112</v>
       </c>
       <c r="C11" s="56"/>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="89"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="57" t="s">
         <v>76</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="M11" s="55"/>
       <c r="N11" s="55"/>
     </row>
-    <row r="12" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="54">
         <v>9</v>
       </c>
@@ -3070,7 +3070,7 @@
       <c r="M12" s="55"/>
       <c r="N12" s="55"/>
     </row>
-    <row r="13" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54">
         <v>10</v>
       </c>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="N13" s="55"/>
     </row>
-    <row r="14" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54">
         <v>11</v>
       </c>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="N14" s="55"/>
     </row>
-    <row r="15" spans="1:63" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="48">
         <v>12</v>
       </c>
@@ -3154,10 +3154,10 @@
         <v>114</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="91"/>
+      <c r="E15" s="83"/>
       <c r="F15" s="50" t="s">
         <v>92</v>
       </c>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="N15" s="50"/>
     </row>
-    <row r="16" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54">
         <v>13</v>
       </c>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="N16" s="57"/>
     </row>
-    <row r="17" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54">
         <v>14</v>
       </c>
@@ -3230,8 +3230,8 @@
         <v>125</v>
       </c>
       <c r="C17" s="56"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
       <c r="F17" s="57"/>
       <c r="G17" s="55"/>
       <c r="H17" s="55"/>
@@ -3242,7 +3242,7 @@
       <c r="M17" s="56"/>
       <c r="N17" s="57"/>
     </row>
-    <row r="18" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54">
         <v>15</v>
       </c>
@@ -3250,10 +3250,10 @@
         <v>120</v>
       </c>
       <c r="C18" s="56"/>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="89"/>
+      <c r="E18" s="85"/>
       <c r="F18" s="57" t="s">
         <v>76</v>
       </c>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="N18" s="57"/>
     </row>
-    <row r="19" spans="1:63" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="63">
         <v>16</v>
       </c>
@@ -3288,10 +3288,10 @@
         <v>121</v>
       </c>
       <c r="C19" s="65"/>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="95"/>
+      <c r="E19" s="91"/>
       <c r="F19" s="66" t="s">
         <v>66</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="M19" s="65"/>
       <c r="N19" s="66"/>
     </row>
-    <row r="20" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="48">
         <v>17</v>
       </c>
@@ -3314,10 +3314,10 @@
         <v>122</v>
       </c>
       <c r="C20" s="49"/>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="85"/>
+      <c r="E20" s="87"/>
       <c r="F20" s="50" t="s">
         <v>92</v>
       </c>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="N20" s="50"/>
     </row>
-    <row r="21" spans="1:63" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54">
         <v>18</v>
       </c>
@@ -3352,10 +3352,10 @@
         <v>116</v>
       </c>
       <c r="C21" s="56"/>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="89"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="57" t="s">
         <v>76</v>
       </c>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="N21" s="57"/>
     </row>
-    <row r="22" spans="1:63" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="48">
         <v>19</v>
       </c>
@@ -3390,10 +3390,10 @@
         <v>117</v>
       </c>
       <c r="C22" s="49"/>
-      <c r="D22" s="84" t="s">
+      <c r="D22" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="85"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="50" t="s">
         <v>92</v>
       </c>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="N22" s="50"/>
     </row>
-    <row r="23" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48">
         <v>20</v>
       </c>
@@ -3428,10 +3428,10 @@
         <v>123</v>
       </c>
       <c r="C23" s="49"/>
-      <c r="D23" s="92" t="s">
+      <c r="D23" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="93"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="50" t="s">
         <v>92</v>
       </c>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="N23" s="50"/>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="O24" s="28"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
@@ -3509,7 +3509,7 @@
       <c r="BJ24" s="28"/>
       <c r="BK24" s="28"/>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>163</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>71</v>
       </c>
@@ -3698,6 +3698,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D21:E21"/>
@@ -3708,16 +3718,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F23">
@@ -3733,28 +3733,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="6" customWidth="1"/>
     <col min="3" max="3" width="41" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="7" max="7" width="13.375" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
@@ -3762,10 +3762,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>42065</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -3783,10 +3783,10 @@
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="74"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
@@ -3815,20 +3815,20 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23">
         <v>1</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="110"/>
+      <c r="E5" s="99"/>
       <c r="F5" s="25" t="s">
         <v>76</v>
       </c>
@@ -3843,18 +3843,18 @@
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>2</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="109" t="s">
+      <c r="C6" s="101"/>
+      <c r="D6" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="110"/>
+      <c r="E6" s="99"/>
       <c r="F6" s="25" t="s">
         <v>76</v>
       </c>
@@ -3869,18 +3869,18 @@
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>3</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="109" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="110"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="25" t="s">
         <v>76</v>
       </c>
@@ -3895,20 +3895,20 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>4</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="113" t="s">
+      <c r="C8" s="101"/>
+      <c r="D8" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="114"/>
+      <c r="E8" s="103"/>
       <c r="F8" s="25" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
@@ -3916,25 +3916,27 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="K8" s="21">
+        <v>1</v>
+      </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
     </row>
-    <row r="9" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>5</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="113" t="s">
+      <c r="C9" s="101"/>
+      <c r="D9" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="114"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="25" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
@@ -3942,23 +3944,25 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>6</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="113" t="s">
+      <c r="C10" s="101"/>
+      <c r="D10" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="114"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="25" t="s">
         <v>136</v>
       </c>
@@ -3975,18 +3979,18 @@
       <c r="M10" s="27"/>
       <c r="N10" s="25"/>
     </row>
-    <row r="11" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>7</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="109" t="s">
+      <c r="C11" s="101"/>
+      <c r="D11" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="110"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="25" t="s">
         <v>92</v>
       </c>
@@ -4003,18 +4007,18 @@
       <c r="M11" s="27"/>
       <c r="N11" s="25"/>
     </row>
-    <row r="12" spans="1:14" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="28" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>8</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="109" t="s">
+      <c r="C12" s="101"/>
+      <c r="D12" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="99"/>
       <c r="F12" s="25" t="s">
         <v>136</v>
       </c>
@@ -4033,7 +4037,7 @@
       <c r="M12" s="27"/>
       <c r="N12" s="25"/>
     </row>
-    <row r="13" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32">
         <v>9</v>
       </c>
@@ -4043,10 +4047,10 @@
       <c r="C13" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="35" t="s">
         <v>76</v>
       </c>
@@ -4063,7 +4067,7 @@
       <c r="M13" s="34"/>
       <c r="N13" s="35"/>
     </row>
-    <row r="14" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32">
         <v>10</v>
       </c>
@@ -4071,10 +4075,10 @@
         <v>174</v>
       </c>
       <c r="C14" s="34"/>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="108"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="35" t="s">
         <v>76</v>
       </c>
@@ -4093,7 +4097,7 @@
       <c r="M14" s="34"/>
       <c r="N14" s="35"/>
     </row>
-    <row r="15" spans="1:14" s="36" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="36" customFormat="1" ht="150" x14ac:dyDescent="0.2">
       <c r="A15" s="32">
         <v>11</v>
       </c>
@@ -4103,10 +4107,10 @@
       <c r="C15" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="108"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="35" t="s">
         <v>66</v>
       </c>
@@ -4121,7 +4125,7 @@
       <c r="M15" s="34"/>
       <c r="N15" s="35"/>
     </row>
-    <row r="16" spans="1:14" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32">
         <v>12</v>
       </c>
@@ -4131,10 +4135,10 @@
       <c r="C16" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="108"/>
+      <c r="E16" s="97"/>
       <c r="F16" s="35" t="s">
         <v>76</v>
       </c>
@@ -4149,7 +4153,7 @@
       <c r="M16" s="34"/>
       <c r="N16" s="35"/>
     </row>
-    <row r="17" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32">
         <v>13</v>
       </c>
@@ -4157,10 +4161,10 @@
         <v>167</v>
       </c>
       <c r="C17" s="34"/>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="108"/>
+      <c r="E17" s="97"/>
       <c r="F17" s="35" t="s">
         <v>66</v>
       </c>
@@ -4175,7 +4179,7 @@
       <c r="M17" s="34"/>
       <c r="N17" s="35"/>
     </row>
-    <row r="18" spans="1:14" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="32">
         <v>14</v>
       </c>
@@ -4185,10 +4189,10 @@
       <c r="C18" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="108"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="35" t="s">
         <v>66</v>
       </c>
@@ -4203,7 +4207,7 @@
       <c r="M18" s="34"/>
       <c r="N18" s="35"/>
     </row>
-    <row r="19" spans="1:14" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32">
         <v>15</v>
       </c>
@@ -4213,10 +4217,10 @@
       <c r="C19" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="108"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="35" t="s">
         <v>66</v>
       </c>
@@ -4231,7 +4235,7 @@
       <c r="M19" s="34"/>
       <c r="N19" s="35"/>
     </row>
-    <row r="20" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32">
         <v>16</v>
       </c>
@@ -4239,10 +4243,10 @@
         <v>180</v>
       </c>
       <c r="C20" s="34"/>
-      <c r="D20" s="107" t="s">
+      <c r="D20" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="108"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="35" t="s">
         <v>66</v>
       </c>
@@ -4257,8 +4261,8 @@
       <c r="M20" s="34"/>
       <c r="N20" s="35"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="77">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="71">
         <v>1</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -4277,16 +4281,16 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="72"/>
       <c r="B33" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="97"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="112"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -4295,16 +4299,16 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="72"/>
       <c r="B34" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="98"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -4313,16 +4317,16 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="72"/>
       <c r="B35" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C35" s="11"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="99"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="114"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
@@ -4331,8 +4335,8 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="72"/>
       <c r="B36" s="10" t="s">
         <v>102</v>
       </c>
@@ -4349,16 +4353,16 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="72"/>
       <c r="B37" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="101"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="106"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="97"/>
+      <c r="G37" s="112"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
@@ -4367,16 +4371,16 @@
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="72"/>
       <c r="B38" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C38" s="10"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="110"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="99"/>
+      <c r="G38" s="114"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -4385,7 +4389,7 @@
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="104"/>
       <c r="B39" s="6" t="s">
         <v>105</v>
@@ -4405,6 +4409,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E35"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A1:C2"/>
@@ -4419,20 +4437,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E35"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="G37:G38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32:F33 F36:F39 F5:F20">
@@ -4452,20 +4456,20 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="14.25" style="18" customWidth="1"/>
     <col min="2" max="2" width="20" style="18" customWidth="1"/>
     <col min="3" max="3" width="48" style="18" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="18" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="18"/>
+    <col min="4" max="4" width="56.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="18" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="18"/>
     <col min="8" max="8" width="56" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="18" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.85546875" style="18" customWidth="1"/>
-    <col min="12" max="12" width="51.140625" style="18" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="18"/>
+    <col min="10" max="10" width="20.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="51.125" style="18" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -4738,7 +4742,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.2">
       <c r="H21" s="29" t="s">
         <v>111</v>
       </c>
@@ -4752,7 +4756,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" ht="45" x14ac:dyDescent="0.2">
       <c r="H22" s="29" t="s">
         <v>112</v>
       </c>
@@ -4766,7 +4770,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" ht="30" x14ac:dyDescent="0.2">
       <c r="H23" s="29" t="s">
         <v>113</v>
       </c>
@@ -4914,27 +4918,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>

--- a/Document/Backlog.xlsx
+++ b/Document/Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="154">
   <si>
     <t>Name</t>
   </si>
@@ -402,97 +402,12 @@
     <t>2.5 Design site builder</t>
   </si>
   <si>
-    <t>SPRINT 2</t>
-  </si>
-  <si>
-    <t>Team member</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Performance Point</t>
   </si>
   <si>
-    <t>Day 4
-23/01</t>
-  </si>
-  <si>
-    <t>Day 5
-24/01</t>
-  </si>
-  <si>
-    <t>Day 7
-26/01</t>
-  </si>
-  <si>
-    <t>Day 6
-25/01</t>
-  </si>
-  <si>
-    <t>ERD</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
     <t>Wait for approve</t>
   </si>
   <si>
-    <t>Not working on it</t>
-  </si>
-  <si>
-    <t>In time</t>
-  </si>
-  <si>
-    <t>Not meet the deadline.
-Delay 1 former task 
-Not fill in the backlog</t>
-  </si>
-  <si>
-    <t>Not meet the deadline:
-Lack of some enities, confuse about entity relation</t>
-  </si>
-  <si>
-    <t>Not meet the deadline.
-Missing some relative page
-Need more focus to complete assigned  task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing account type features management
-Need more property to create new account type </t>
-  </si>
-  <si>
-    <t>Table's form error</t>
-  </si>
-  <si>
-    <t>Missing account type information, go premium link
-Avatar is not necessary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not enough features
-Lack of check out </t>
-  </si>
-  <si>
-    <t>Table's form error
-Error header visibility
-Missing feature import template (see more in ERD)</t>
-  </si>
-  <si>
-    <t>Delay task
-Not fill in the backlog
-Not meet the deadline</t>
-  </si>
-  <si>
-    <t>Not meet the deadline
-Some tasks are not done</t>
-  </si>
-  <si>
-    <t>Delay task
-Not fill in the backlog
-finished task not meet the criteria</t>
-  </si>
-  <si>
     <t>Sprint 3</t>
   </si>
   <si>
@@ -535,38 +450,10 @@
     <t>Member</t>
   </si>
   <si>
-    <t>1.1 Design User management
-1.2 Design Account type management
-1.3 Design Template management</t>
-  </si>
-  <si>
-    <t>2.3 Design Site management(Edit, remove, duplicate)
-2.4 Design statistic management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5.5 Design product management(CRUD)
-2.5.6 Design map domain </t>
-  </si>
-  <si>
     <t>Code Authentication, authorization</t>
   </si>
   <si>
-    <t>Commited</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Design some template for builder</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Not commited</t>
-  </si>
-  <si>
-    <t>Wrong .... Adjust all by ThangPV</t>
   </si>
   <si>
     <t>Class diagram</t>
@@ -671,16 +558,28 @@
   <si>
     <t>Code example Drag n Drop function</t>
   </si>
+  <si>
+    <t>change right container
+error in change password button</t>
+  </si>
+  <si>
+    <t>Error in "top product view"
+Change left bar --&gt; right bar
+"page view statistic' change to line bar</t>
+  </si>
+  <si>
+    <t>Why use _Userlayout ???</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -711,18 +610,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -749,7 +636,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,19 +651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,13 +669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1020,304 +895,285 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1379,7 +1235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1414,7 +1270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1630,18 +1486,18 @@
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="52.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="3"/>
+    <col min="4" max="4" width="38.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="52.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1661,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1678,14 +1534,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="57" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1695,12 +1551,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1708,12 +1564,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1721,11 +1577,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1736,14 +1592,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1753,12 +1609,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1766,7 +1622,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1783,14 +1639,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="57" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1800,12 +1656,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1813,12 +1669,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1826,14 +1682,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="57" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1843,12 +1699,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1856,12 +1712,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1869,12 +1725,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"